--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -27,75 +27,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>PMD Personnel Apps Information</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+  <si>
+    <t>PMD Personnel Apps Table Structure</t>
+  </si>
+  <si>
+    <t>LDAP_Users</t>
+  </si>
+  <si>
+    <t>PMD_Login_Users</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>reminders</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>personnels</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>personnel_id</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>suguan</t>
+  </si>
+  <si>
+    <t>secondname</t>
+  </si>
+  <si>
+    <t>contactype</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>middlname</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>disctrict</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>spouses</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>bloodtype</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>civil_status</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>Table List</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
   </si>
   <si>
     <t>LDAP Users</t>
   </si>
   <si>
-    <t>PMD_Login_Users</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>reminders</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>personnels</t>
-  </si>
-  <si>
-    <t>suguan</t>
-  </si>
-  <si>
-    <t>disctrict</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>gampanin</t>
+    <t>ecclesiastical_district</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>siblings</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>Personnels</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>Siblings</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -108,9 +264,17 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -125,6 +289,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -269,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +458,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,153 +816,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,220 +1522,770 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="21.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="2.71428571428571" customWidth="1"/>
     <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
     <col min="11" max="11" width="12.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="18.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="2.42857142857143" customWidth="1"/>
     <col min="14" max="14" width="9.28571428571429" customWidth="1"/>
+    <col min="15" max="15" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="28.5" spans="2:15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="8:15">
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="K16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="10">
+        <v>3</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12">
+      <c r="K23" s="10">
+        <v>4</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="K24" s="10">
+        <v>5</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="10">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="10">
+        <v>7</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="10">
         <v>8</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5" t="s">
+      <c r="L27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="10">
+        <v>9</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="10">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="L29" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="10">
         <v>11</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="L30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="10">
         <v>12</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="8:15">
-      <c r="H7" s="5" t="s">
+      <c r="L31" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="10">
         <v>13</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5" t="s">
+      <c r="L32" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="10">
         <v>14</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="L33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="8:15">
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5" t="s">
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -59,6 +59,9 @@
     <t>varchar(50)</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>eventName</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -86,34 +92,88 @@
     <t>personnels</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>personnel_id</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>online_status</t>
+  </si>
+  <si>
+    <t>available_apps</t>
+  </si>
+  <si>
+    <t>suguan</t>
+  </si>
+  <si>
+    <t>secondname</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>middlname</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>disctrict</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
     <t>contacts</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>personnel_id</t>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>suguan</t>
-  </si>
-  <si>
-    <t>secondname</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
   </si>
   <si>
     <t>contactype</t>
@@ -122,10 +182,10 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>middlname</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>bloodtype</t>
   </si>
   <si>
     <t>contact_info</t>
@@ -134,52 +194,31 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>disctrict</t>
-  </si>
-  <si>
-    <t>suffix</t>
+    <t>civil_status</t>
+  </si>
+  <si>
+    <t>Table List</t>
+  </si>
+  <si>
+    <t>wedding_anniversary</t>
   </si>
   <si>
     <t>spouses</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>bloodtype</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>civil_status</t>
+    <t>LDAP Users</t>
   </si>
   <si>
     <t>citizenship</t>
   </si>
   <si>
-    <t>Table List</t>
+    <t>religion</t>
   </si>
   <si>
     <t>local_congregation</t>
   </si>
   <si>
-    <t>LDAP Users</t>
-  </si>
-  <si>
-    <t>ecclesiastical_district</t>
+    <t>district_id</t>
   </si>
   <si>
     <t>address</t>
@@ -188,70 +227,97 @@
     <t>varchar(150)</t>
   </si>
   <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>Personnels</t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>subsection_id</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>Siblings</t>
+  </si>
+  <si>
+    <t>datejoined</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>m_type</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>siblings</t>
   </si>
   <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>Personnels</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
-    <t>Siblings</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Works</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>company</t>
+    <t>position</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>educational_background</t>
   </si>
   <si>
     <t>degree</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>field_of_study</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>institution</t>
   </si>
   <si>
-    <t>section</t>
-  </si>
-  <si>
     <t>completion_year</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -953,15 +1019,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +1037,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,9 +1050,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1522,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O42"/>
+  <dimension ref="B1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1551,726 +1617,900 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="8:15">
-      <c r="H7" s="4" t="s">
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="4" t="s">
+    </row>
+    <row r="7" spans="5:15">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>15</v>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="H12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="K14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="K14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="10">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="K20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>49</v>
+      <c r="L20" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="11">
         <v>2</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="10">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="11">
         <v>3</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="11:12">
-      <c r="K23" s="10">
+    <row r="23" spans="2:12">
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="11">
         <v>4</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="E24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="K24" s="10">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="11">
         <v>5</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>27</v>
+      <c r="L24" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="11">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="10">
-        <v>6</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="7" t="s">
-        <v>24</v>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="11">
         <v>7</v>
       </c>
-      <c r="K26" s="10">
-        <v>7</v>
-      </c>
       <c r="L26" s="13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="10">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="11">
         <v>8</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="10">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="11">
         <v>9</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="10">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="K29" s="11">
         <v>10</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="10">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="K30" s="11">
         <v>11</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="10">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="11">
         <v>12</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="11">
+        <v>13</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="11">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="10">
-        <v>13</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33" s="10">
-        <v>14</v>
-      </c>
       <c r="L33" s="13" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="4" t="s">
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="4" t="s">
+    <row r="55" spans="5:6">
+      <c r="E55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2278,14 +2518,15 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowWidth="19740" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="98">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -152,7 +152,7 @@
     <t>app_id</t>
   </si>
   <si>
-    <t>disctrict</t>
+    <t>disctrict_id</t>
   </si>
   <si>
     <t>suffix</t>
@@ -161,7 +161,7 @@
     <t>contacts</t>
   </si>
   <si>
-    <t>local</t>
+    <t>local_id</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -170,6 +170,9 @@
     <t>place_of_birth</t>
   </si>
   <si>
+    <t>designations</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -194,9 +197,15 @@
     <t>varchar(30)</t>
   </si>
   <si>
+    <t>section_id</t>
+  </si>
+  <si>
     <t>civil_status</t>
   </si>
   <si>
+    <t>subsection_id</t>
+  </si>
+  <si>
     <t>Table List</t>
   </si>
   <si>
@@ -233,19 +242,13 @@
     <t>Personnels</t>
   </si>
   <si>
-    <t>section_id</t>
-  </si>
-  <si>
     <t>Contacts</t>
   </si>
   <si>
-    <t>subsection_id</t>
-  </si>
-  <si>
     <t>Parents</t>
   </si>
   <si>
-    <t>designation</t>
+    <t>designation_id</t>
   </si>
   <si>
     <t>Siblings</t>
@@ -254,55 +257,55 @@
     <t>datejoined</t>
   </si>
   <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>m_type</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
     <t>children</t>
   </si>
   <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>m_type</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>Works</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>work_background</t>
   </si>
   <si>
     <t>company</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
     <t>siblings</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
   </si>
   <si>
     <t>educational_background</t>
@@ -1012,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,9 +1028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,6 +1038,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,10 +1597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O58"/>
+  <dimension ref="B1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1603,7 +1612,7 @@
     <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
     <col min="11" max="11" width="12.2857142857143" customWidth="1"/>
@@ -1724,7 +1733,7 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1750,7 +1759,7 @@
       </c>
     </row>
     <row r="7" spans="5:15">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1776,11 +1785,11 @@
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1806,13 +1815,13 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1826,16 +1835,16 @@
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="K10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1848,22 +1857,24 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3" t="s">
@@ -1872,22 +1883,24 @@
       <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3" t="s">
@@ -1896,16 +1909,18 @@
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3" t="s">
@@ -1921,14 +1936,16 @@
       <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1939,94 +1956,128 @@
       <c r="K15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="10"/>
       <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="K20" s="11">
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13">
         <v>1</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>59</v>
+      <c r="L20" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2034,36 +2085,36 @@
       <c r="F21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="13">
         <v>2</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="13">
         <v>3</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -2074,16 +2125,16 @@
       <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="13">
         <v>4</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -2094,19 +2145,19 @@
       <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="13">
         <v>5</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>35</v>
@@ -2114,18 +2165,18 @@
       <c r="F25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="13">
         <v>6</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2134,18 +2185,18 @@
       <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="11">
-        <v>7</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>67</v>
+      <c r="K26" s="13">
+        <v>7</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2154,18 +2205,18 @@
       <c r="F27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="13">
         <v>8</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>69</v>
+      <c r="L27" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2174,192 +2225,178 @@
       <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="11">
-        <v>9</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>71</v>
+      <c r="K28" s="13">
+        <v>9</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="K29" s="11">
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="13">
         <v>10</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>73</v>
+      <c r="L29" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="K30" s="11">
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13">
         <v>11</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="13">
+        <v>12</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="13">
+        <v>13</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="13">
+        <v>14</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="11">
-        <v>12</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7" t="s">
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="11">
-        <v>13</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="11">
-        <v>14</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="7" t="s">
+      <c r="E39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="3" t="s">
@@ -2369,10 +2406,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -2382,39 +2419,27 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>25</v>
+      <c r="E43" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2424,93 +2449,131 @@
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="E46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="5:6">
       <c r="E47" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="5:6">
-      <c r="E48" s="3" t="s">
-        <v>42</v>
+      <c r="E48" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="5:6">
       <c r="E49" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="5:6">
-      <c r="E52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="5:6">
       <c r="E53" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="5:6">
-      <c r="E54" s="7" t="s">
-        <v>25</v>
+      <c r="E54" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6">
-      <c r="E55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6">
-      <c r="E56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="5:6">
       <c r="E58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2521,12 +2584,13 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="133">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -155,22 +156,46 @@
     <t>disctrict_id</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
     <t>suffix</t>
   </si>
   <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>local_id</t>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>designations</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
+    <t>contactype</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
     <t>place_of_birth</t>
   </si>
   <si>
-    <t>designations</t>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>section_id</t>
   </si>
   <si>
     <t>gender</t>
@@ -179,114 +204,213 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>contactype</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>gampanin</t>
+    <t>subsection_id</t>
+  </si>
+  <si>
+    <t>Table List</t>
   </si>
   <si>
     <t>bloodtype</t>
   </si>
   <si>
-    <t>contact_info</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>section_id</t>
+    <t>LDAP Users</t>
   </si>
   <si>
     <t>civil_status</t>
   </si>
   <si>
-    <t>subsection_id</t>
-  </si>
-  <si>
-    <t>Table List</t>
-  </si>
-  <si>
     <t>wedding_anniversary</t>
   </si>
   <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
     <t>spouses</t>
   </si>
   <si>
-    <t>LDAP Users</t>
-  </si>
-  <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t>religion</t>
+    <t>landline_contactnumber</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>Personnels</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>drivers_license</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>Siblings</t>
   </si>
   <si>
     <t>local_congregation</t>
   </si>
   <si>
+    <t>Spouse</t>
+  </si>
+  <si>
     <t>district_id</t>
   </si>
   <si>
-    <t>address</t>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>present_address</t>
+  </si>
+  <si>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>other_home_address</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>siblings</t>
+  </si>
+  <si>
+    <t>date_of_marriage</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
+    <t>designation_id</t>
+  </si>
+  <si>
+    <t>minister_officiated</t>
+  </si>
+  <si>
+    <t>datejoined</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>startfrom</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>m_type</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>personnel_images</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>enum(Father, Mother)</t>
+  </si>
+  <si>
+    <t>data_image</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>personnel_history</t>
+  </si>
+  <si>
+    <t>educational_background</t>
+  </si>
+  <si>
+    <t>prepared_by</t>
+  </si>
+  <si>
+    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
+  </si>
+  <si>
+    <t>sec_id</t>
+  </si>
+  <si>
+    <t>personnelstatus</t>
+  </si>
+  <si>
+    <t>reason_for_leaving</t>
   </si>
   <si>
     <t>varchar(150)</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>Personnels</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
-    <t>designation_id</t>
-  </si>
-  <si>
-    <t>Siblings</t>
-  </si>
-  <si>
-    <t>datejoined</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>m_type</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>Works</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
     <t>work_background</t>
   </si>
   <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
+  </si>
+  <si>
     <t>company</t>
   </si>
   <si>
@@ -303,24 +427,6 @@
   </si>
   <si>
     <t>end_date</t>
-  </si>
-  <si>
-    <t>siblings</t>
-  </si>
-  <si>
-    <t>educational_background</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>field_of_study</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>completion_year</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,14 +1143,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,10 +1712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O63"/>
+  <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1612,7 +1727,7 @@
     <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
     <col min="11" max="11" width="12.2857142857143" customWidth="1"/>
@@ -1844,7 +1959,7 @@
       <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="13"/>
       <c r="K10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1923,11 +2038,11 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -1945,7 +2060,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1961,10 +2076,10 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1973,10 +2088,10 @@
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="7"/>
       <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1989,22 +2104,22 @@
         <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>9</v>
@@ -2012,103 +2127,91 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="11" t="s">
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="H20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="13">
+        <v>57</v>
+      </c>
+      <c r="K21" s="16">
         <v>2</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="F22" s="5"/>
+      <c r="K22" s="16">
         <v>3</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2117,217 +2220,315 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="16">
+        <v>4</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="K24" s="16">
+        <v>5</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="13">
-        <v>4</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="16">
+        <v>6</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="13">
-        <v>5</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="16">
+        <v>7</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="13">
-        <v>6</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="13">
-        <v>7</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="13">
+      <c r="H27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="16">
         <v>8</v>
       </c>
-      <c r="L27" s="15" t="s">
-        <v>71</v>
+      <c r="L27" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="3" t="s">
-        <v>58</v>
+      <c r="B28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="16">
+        <v>9</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="E29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="13">
-        <v>9</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="16">
         <v>10</v>
       </c>
-      <c r="L29" s="15" t="s">
-        <v>74</v>
+      <c r="L29" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="13">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="16">
         <v>11</v>
       </c>
-      <c r="L30" s="15" t="s">
-        <v>76</v>
+      <c r="L30" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="13">
+      <c r="E31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="16">
         <v>12</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>78</v>
+      <c r="L31" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="13">
+        <v>24</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="16">
         <v>13</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>80</v>
+      <c r="L32" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="3" t="s">
-        <v>81</v>
+      <c r="B33" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="13">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="16">
         <v>14</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="L33" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+        <v>7</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="H35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2335,33 +2536,59 @@
       <c r="F36" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="5:6">
+      <c r="H36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="H37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="H38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>32</v>
@@ -2369,12 +2596,18 @@
       <c r="F39" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="H39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2383,13 +2616,19 @@
       <c r="F40" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="H40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>39</v>
@@ -2397,183 +2636,464 @@
       <c r="F41" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="H41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="H42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9">
+      <c r="H52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9">
+      <c r="H53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="H56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="I57" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="3" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="6" t="s">
+    <row r="69" spans="5:6">
+      <c r="E69" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6">
-      <c r="E54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="F69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="E73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="E74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6">
+      <c r="E75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="5:6">
-      <c r="E57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>7</v>
+    <row r="76" spans="5:6">
+      <c r="E76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2586,13 +3106,32 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E67:F67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="211">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -78,6 +78,9 @@
     <t>gidNumber</t>
   </si>
   <si>
+    <t>uid</t>
+  </si>
+  <si>
     <t>remote_ip</t>
   </si>
   <si>
@@ -90,7 +93,7 @@
     <t>givenName</t>
   </si>
   <si>
-    <t>uid</t>
+    <t>online_status</t>
   </si>
   <si>
     <t>user_agent</t>
@@ -105,48 +108,45 @@
     <t>homeDirectory</t>
   </si>
   <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>suguan</t>
+  </si>
+  <si>
+    <t>uidNumber</t>
   </si>
   <si>
     <t>userPassword</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>online_status</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>suguan</t>
-  </si>
-  <si>
-    <t>uidNumber</t>
-  </si>
-  <si>
     <t>apps</t>
   </si>
   <si>
@@ -402,33 +402,42 @@
     <t>designation_id</t>
   </si>
   <si>
+    <t>documents</t>
+  </si>
+  <si>
     <t>datejoined</t>
   </si>
   <si>
+    <t>audit_logs</t>
+  </si>
+  <si>
     <t>personnel_type</t>
   </si>
   <si>
+    <t>roles_permissions</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>m_type</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
     <t>departments</t>
   </si>
   <si>
-    <t>assigned_number</t>
-  </si>
-  <si>
-    <t>m_type</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
     <t>image_url</t>
   </si>
   <si>
     <t>data:image</t>
   </si>
   <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -471,7 +480,187 @@
     <t>end_date</t>
   </si>
   <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
     <t>country_name</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>uploaded_by</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM ('active', 'expired')</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>role_permission_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>permission_type</t>
+  </si>
+  <si>
+    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
+  </si>
+  <si>
+    <t>granted_by</t>
+  </si>
+  <si>
+    <t>granted_date</t>
+  </si>
+  <si>
+    <t>Unique identifier for each document.</t>
+  </si>
+  <si>
+    <t>Foreign key linking to the personnels table.</t>
+  </si>
+  <si>
+    <t>Type of document (e.g., resume, certificate, ID).</t>
+  </si>
+  <si>
+    <t>Original name of the uploaded file.</t>
+  </si>
+  <si>
+    <t>Path or URL where the document is stored.</t>
+  </si>
+  <si>
+    <t>User ID of the person who uploaded the document.</t>
+  </si>
+  <si>
+    <t>Date and time when the document was uploaded.</t>
+  </si>
+  <si>
+    <t>Description or notes about the document.</t>
+  </si>
+  <si>
+    <t>Optional: Expiration date if the document needs renewal (e.g., ID expiration).</t>
+  </si>
+  <si>
+    <t>Status of the document.</t>
+  </si>
+  <si>
+    <t>Unique identifier for each log entry.</t>
+  </si>
+  <si>
+    <t>Foreign key linking to the user who performed the action (could link to PMD_Login_Users or LDAP Users).</t>
+  </si>
+  <si>
+    <t>Action performed (e.g., 'create', 'update', 'delete', 'login').</t>
+  </si>
+  <si>
+    <t>Name of the table affected by the action (e.g., personnels, contacts).</t>
+  </si>
+  <si>
+    <t>ID of the affected record (e.g., personnel ID for changes in personnels).</t>
+  </si>
+  <si>
+    <t>Date and time when the action was performed.</t>
+  </si>
+  <si>
+    <t>Description of the action (e.g., "Updated personnel address").</t>
+  </si>
+  <si>
+    <t>Previous values before the action (if applicable).</t>
+  </si>
+  <si>
+    <t>New values after the action (if applicable).</t>
+  </si>
+  <si>
+    <t>IP address of the user performing the action.</t>
+  </si>
+  <si>
+    <t>Browser or device information for the action.</t>
+  </si>
+  <si>
+    <t>Unique identifier for each role-permission record.</t>
+  </si>
+  <si>
+    <t>Foreign key linking to a roles table, if roles are managed separately.</t>
+  </si>
+  <si>
+    <t>Module or table the permission applies to (e.g., 'personnels', 'contacts').</t>
+  </si>
+  <si>
+    <t>Type of permission granted.</t>
+  </si>
+  <si>
+    <t>User ID of the admin who granted this permission.</t>
+  </si>
+  <si>
+    <t>Date and time when the permission was granted.</t>
   </si>
 </sst>
 </file>
@@ -1173,9 +1362,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,53 +1378,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1767,10 +1953,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O91"/>
+  <dimension ref="B1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1793,66 +1979,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="2:15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2">
+      <c r="I2" s="3"/>
+      <c r="K2" s="3">
         <v>6</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2">
+      <c r="L2" s="3"/>
+      <c r="N2" s="3">
         <v>8</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="5" t="s">
@@ -1867,10 +2053,10 @@
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -1890,7 +2076,7 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1899,7 +2085,7 @@
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1919,180 +2105,162 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="2">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3"/>
       <c r="K12" s="5" t="s">
         <v>6</v>
       </c>
@@ -2102,15 +2270,15 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4"/>
       <c r="K13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2119,10 +2287,10 @@
       </c>
     </row>
     <row r="14" spans="5:12">
-      <c r="E14" s="2">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
@@ -2137,14 +2305,14 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="H15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2159,10 +2327,10 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
@@ -2176,20 +2344,20 @@
         <v>11</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2202,17 +2370,17 @@
         <v>11</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2235,10 +2403,10 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2249,16 +2417,16 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
@@ -2267,10 +2435,10 @@
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="5" t="s">
@@ -2279,20 +2447,20 @@
       <c r="C22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>12</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3"/>
       <c r="H22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="5" t="s">
@@ -2301,20 +2469,20 @@
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
       <c r="H23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="12">
         <v>1</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2337,10 +2505,10 @@
       <c r="I24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="12">
         <v>2</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2351,16 +2519,16 @@
       <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="12">
         <v>3</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2377,14 +2545,14 @@
       <c r="F26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>14</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="K26" s="16">
+      <c r="I26" s="3"/>
+      <c r="K26" s="12">
         <v>4</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2393,7 +2561,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>60</v>
@@ -2401,14 +2569,14 @@
       <c r="F27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="K27" s="16">
+      <c r="I27" s="14"/>
+      <c r="K27" s="12">
         <v>5</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2431,10 +2599,10 @@
       <c r="I28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="12">
         <v>6</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2451,17 +2619,17 @@
       <c r="F29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="16">
-        <v>7</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>37</v>
+      <c r="K29" s="12">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -2483,10 +2651,10 @@
       <c r="I30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="12">
         <v>8</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2509,10 +2677,10 @@
       <c r="I31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="12">
         <v>9</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2521,7 +2689,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>86</v>
@@ -2535,7 +2703,7 @@
       <c r="I32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="12">
         <v>10</v>
       </c>
       <c r="L32" t="s">
@@ -2553,7 +2721,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>71</v>
@@ -2561,10 +2729,10 @@
       <c r="I33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="16">
-        <v>11</v>
-      </c>
-      <c r="L33" s="18" t="s">
+      <c r="K33" s="12">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2579,18 +2747,18 @@
         <v>90</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="16">
+        <v>18</v>
+      </c>
+      <c r="K34" s="12">
         <v>12</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2602,10 +2770,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
@@ -2613,10 +2781,10 @@
       <c r="I35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="12">
         <v>13</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2628,10 +2796,10 @@
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>86</v>
@@ -2639,10 +2807,10 @@
       <c r="I36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="12">
         <v>14</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2657,12 +2825,12 @@
         <v>95</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="16">
+        <v>18</v>
+      </c>
+      <c r="K37" s="12">
         <v>15</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2679,10 +2847,10 @@
       <c r="I38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="12">
         <v>16</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2691,20 +2859,20 @@
         <v>100</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>13</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="3"/>
       <c r="H39" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="12">
         <v>17</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2715,20 +2883,20 @@
       <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="4"/>
       <c r="H40" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="12">
         <v>18</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2751,10 +2919,10 @@
       <c r="I41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="12">
         <v>19</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2763,9 +2931,9 @@
         <v>90</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -2777,10 +2945,10 @@
       <c r="I42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="12">
         <v>20</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2789,7 +2957,7 @@
         <v>112</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>60</v>
@@ -2803,10 +2971,10 @@
       <c r="I43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="12">
         <v>21</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2829,10 +2997,10 @@
       <c r="I44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="3">
         <v>22</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2855,10 +3023,10 @@
       <c r="I45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="3">
         <v>23</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2881,14 +3049,14 @@
       <c r="I46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="3">
         <v>24</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:12">
       <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
@@ -2901,13 +3069,19 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K47" s="3">
+        <v>25</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>107</v>
@@ -2915,18 +3089,20 @@
       <c r="F48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="3">
         <v>15</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="K48" s="2">
-        <v>18</v>
-      </c>
-      <c r="L48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3">
+        <v>26</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>7</v>
@@ -2937,18 +3113,20 @@
       <c r="F49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="K49" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="I49" s="14"/>
+      <c r="K49" s="3">
+        <v>27</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>7</v>
@@ -2957,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>6</v>
@@ -2965,39 +3143,27 @@
       <c r="I50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>60</v>
@@ -3005,19 +3171,17 @@
       <c r="I52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="K52" s="3">
+        <v>18</v>
+      </c>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>62</v>
@@ -3025,19 +3189,17 @@
       <c r="I53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="K53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>65</v>
@@ -3046,24 +3208,30 @@
         <v>11</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="8:12">
@@ -3073,121 +3241,115 @@
       <c r="I56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2">
-        <v>19</v>
-      </c>
-      <c r="L56" s="2"/>
+      <c r="K56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>10</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="10"/>
       <c r="H57" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L57" s="14"/>
+      <c r="K57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="4"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="3">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="3">
         <v>16</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="K61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="I61" s="3"/>
+      <c r="K61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="C62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="4"/>
       <c r="K62" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
       <c r="B63" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>6</v>
@@ -3195,36 +3357,46 @@
       <c r="I63" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="K63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="2">
-        <v>20</v>
-      </c>
-      <c r="L64" s="2"/>
+      <c r="K64" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="65" spans="8:12">
       <c r="H65" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L65" s="14"/>
+        <v>138</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="66" spans="8:12">
       <c r="H66" s="5" t="s">
@@ -3233,48 +3405,40 @@
       <c r="I66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="2">
+      <c r="K66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="3">
         <v>22</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3"/>
       <c r="H67" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
       <c r="H68" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="K68" s="3">
+        <v>20</v>
+      </c>
+      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="5" t="s">
@@ -3289,12 +3453,10 @@
       <c r="I69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="K69" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="5" t="s">
@@ -3309,16 +3471,16 @@
       <c r="I70" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>131</v>
+      <c r="K70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
@@ -3330,10 +3492,10 @@
         <v>11</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="2:12">
@@ -3344,35 +3506,47 @@
         <v>7</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
       <c r="B73" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="3">
         <v>17</v>
       </c>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="2:9">
+      <c r="I73" s="3"/>
+      <c r="K73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
       <c r="B74" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="K74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="5" t="s">
@@ -3387,95 +3561,85 @@
       <c r="I75" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K75" s="2">
-        <v>21</v>
-      </c>
-      <c r="L75" s="2"/>
+      <c r="K75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12">
+      <c r="K76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="K79" s="3">
+        <v>21</v>
+      </c>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>106</v>
@@ -3483,111 +3647,357 @@
       <c r="I80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9">
+      <c r="K80" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="8:12">
       <c r="H81" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="8:11">
+      <c r="K81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12">
       <c r="H82" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="8:12">
       <c r="H83" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L83" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" spans="8:12">
       <c r="H84" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="11:12">
+      <c r="K87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="K88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" ht="30" spans="2:12">
+      <c r="B92" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" ht="30" spans="2:12">
+      <c r="B93" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" ht="45" spans="2:3">
+      <c r="B98" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="17"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="11:12">
-      <c r="K85" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="11:12">
-      <c r="K86" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="11:12">
-      <c r="K88" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="11:12">
-      <c r="K89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="11:12">
-      <c r="K90" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="11:12">
-      <c r="K91" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>11</v>
+      <c r="C112" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" ht="60" spans="2:3">
+      <c r="B118" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="51">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -3617,25 +4027,28 @@
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="K48:L48"/>
     <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="K57:L57"/>
     <mergeCell ref="B58:C58"/>
+    <mergeCell ref="K60:L60"/>
     <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B114:C114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3645,14 +4058,312 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="75" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" ht="90" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" ht="75" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" ht="105" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" ht="120" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" ht="105" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" ht="105" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" ht="150" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" ht="210" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" ht="105" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" ht="150" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" ht="150" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" ht="105" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" ht="135" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" ht="105" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" ht="90" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" ht="105" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" ht="90" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" ht="105" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" ht="135" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" ht="165" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" ht="120" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" ht="90" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="214">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -54,6 +54,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>data:image</t>
+  </si>
+  <si>
     <t>cn</t>
   </si>
   <si>
@@ -93,51 +96,60 @@
     <t>givenName</t>
   </si>
   <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>homeDirectory</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
     <t>online_status</t>
   </si>
   <si>
-    <t>user_agent</t>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>homeDirectory</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>updated_at</t>
   </si>
   <si>
-    <t>sn</t>
-  </si>
-  <si>
     <t>suguan</t>
   </si>
   <si>
@@ -433,9 +445,6 @@
   </si>
   <si>
     <t>image_url</t>
-  </si>
-  <si>
-    <t>data:image</t>
   </si>
   <si>
     <t>type</t>
@@ -1362,7 +1371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,6 +1396,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,15 +1418,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1959,7 @@
   <dimension ref="B1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2051,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -2074,112 +2077,112 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>28</v>
@@ -2191,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>31</v>
@@ -2205,33 +2208,39 @@
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3">
         <v>7</v>
@@ -2240,22 +2249,34 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -2270,20 +2291,20 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I13" s="4"/>
       <c r="K13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="5:12">
@@ -2298,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>7</v>
@@ -2310,17 +2331,17 @@
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>7</v>
@@ -2328,100 +2349,100 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4"/>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="8" t="s">
-        <v>47</v>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3">
         <v>5</v>
@@ -2430,22 +2451,22 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
@@ -2457,41 +2478,41 @@
       <c r="I22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="11"/>
+      <c r="K22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4"/>
       <c r="H23" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <v>1</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>68</v>
+      <c r="L23" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
@@ -2500,32 +2521,32 @@
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>2</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <v>3</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -2534,72 +2555,72 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H26" s="3">
         <v>14</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="K26" s="12">
+      <c r="K26" s="13">
         <v>4</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="K27" s="12">
+        <v>12</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="K27" s="13">
         <v>5</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="12">
+        <v>49</v>
+      </c>
+      <c r="K28" s="13">
         <v>6</v>
       </c>
       <c r="L28" s="6" t="s">
@@ -2608,50 +2629,50 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="13">
         <v>7</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12">
+        <v>12</v>
+      </c>
+      <c r="K30" s="13">
         <v>8</v>
       </c>
       <c r="L30" s="6" t="s">
@@ -2660,203 +2681,203 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="12">
+        <v>67</v>
+      </c>
+      <c r="K31" s="13">
         <v>9</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12">
+        <v>12</v>
+      </c>
+      <c r="K32" s="13">
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="I33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="12">
+        <v>67</v>
+      </c>
+      <c r="K33" s="13">
         <v>11</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="12">
+        <v>19</v>
+      </c>
+      <c r="K34" s="13">
         <v>12</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="12">
+        <v>12</v>
+      </c>
+      <c r="K35" s="13">
         <v>13</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12">
+        <v>12</v>
+      </c>
+      <c r="K36" s="13">
         <v>14</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="12">
+        <v>19</v>
+      </c>
+      <c r="K37" s="13">
         <v>15</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12">
+        <v>12</v>
+      </c>
+      <c r="K38" s="13">
         <v>16</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5"/>
       <c r="E39" s="3">
@@ -2864,45 +2885,45 @@
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12">
+        <v>12</v>
+      </c>
+      <c r="K39" s="13">
         <v>17</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="12">
+        <v>109</v>
+      </c>
+      <c r="K40" s="13">
         <v>18</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
@@ -2911,180 +2932,180 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="13">
         <v>19</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>47</v>
+      <c r="E42" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="13">
         <v>20</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="12">
+        <v>12</v>
+      </c>
+      <c r="K43" s="13">
         <v>21</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K44" s="3">
         <v>22</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K45" s="3">
         <v>23</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K46" s="3">
         <v>24</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K47" s="3">
         <v>25</v>
       </c>
-      <c r="L47" s="15" t="s">
-        <v>124</v>
+      <c r="L47" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>7</v>
@@ -3096,63 +3117,63 @@
       <c r="K48" s="3">
         <v>26</v>
       </c>
-      <c r="L48" s="15" t="s">
-        <v>126</v>
+      <c r="L48" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="15"/>
       <c r="K49" s="3">
         <v>27</v>
       </c>
-      <c r="L49" s="15" t="s">
-        <v>128</v>
+      <c r="L49" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>47</v>
+      <c r="H51" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
@@ -3160,16 +3181,16 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K52" s="3">
         <v>18</v>
@@ -3178,34 +3199,34 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>6</v>
@@ -3216,72 +3237,72 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="8:12">
       <c r="H56" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="10">
+      <c r="B57" s="11">
         <v>10</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="11"/>
       <c r="H57" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3292,15 +3313,15 @@
         <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
@@ -3312,29 +3333,29 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" s="3">
         <v>16</v>
       </c>
       <c r="I61" s="3"/>
       <c r="K61" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I62" s="4"/>
       <c r="K62" s="5" t="s">
@@ -3346,70 +3367,70 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="8:12">
       <c r="H65" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="8:12">
       <c r="H66" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3418,7 +3439,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="H67" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>7</v>
@@ -3426,14 +3447,14 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K68" s="3">
         <v>20</v>
@@ -3448,28 +3469,28 @@
         <v>7</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>6</v>
@@ -3480,19 +3501,19 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>7</v>
@@ -3500,13 +3521,13 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>7</v>
@@ -3514,7 +3535,7 @@
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
@@ -3524,33 +3545,33 @@
       </c>
       <c r="I73" s="3"/>
       <c r="K73" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I74" s="4"/>
       <c r="K74" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
@@ -3559,75 +3580,75 @@
         <v>6</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K79" s="3">
         <v>21</v>
@@ -3636,28 +3657,28 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="8:12">
       <c r="H81" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>6</v>
@@ -3668,13 +3689,13 @@
     </row>
     <row r="82" spans="8:12">
       <c r="H82" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>7</v>
@@ -3682,13 +3703,13 @@
     </row>
     <row r="83" spans="8:12">
       <c r="H83" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>7</v>
@@ -3696,16 +3717,16 @@
     </row>
     <row r="84" spans="8:12">
       <c r="H84" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="11:11">
@@ -3715,15 +3736,15 @@
     </row>
     <row r="87" spans="11:12">
       <c r="K87" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="2:12">
-      <c r="B88" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="17"/>
+      <c r="B88" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="K88" s="5" t="s">
         <v>6</v>
       </c>
@@ -3732,62 +3753,62 @@
       </c>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>151</v>
+      <c r="B89" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>153</v>
+      <c r="B90" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>155</v>
+      <c r="B91" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="K91">
         <v>24</v>
       </c>
     </row>
     <row r="92" ht="30" spans="2:12">
-      <c r="B92" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>157</v>
+      <c r="B92" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L92" s="4"/>
     </row>
     <row r="93" ht="30" spans="2:12">
-      <c r="B93" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>157</v>
+      <c r="B93" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>6</v>
@@ -3797,203 +3818,203 @@
       </c>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>153</v>
+      <c r="B94" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:12">
-      <c r="B95" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>161</v>
+      <c r="B95" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>162</v>
+      <c r="B96" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" ht="45" spans="2:3">
+      <c r="B98" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" ht="45" spans="2:3">
-      <c r="B98" s="18" t="s">
+    <row r="108" spans="2:3">
+      <c r="B108" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="17"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>173</v>
+      <c r="B109" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>173</v>
+      <c r="B110" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>176</v>
+      <c r="B111" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>162</v>
+      <c r="B112" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="17"/>
+      <c r="B114" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>151</v>
+      <c r="B115" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>153</v>
+      <c r="B116" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>155</v>
+      <c r="B117" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="118" ht="60" spans="2:3">
-      <c r="B118" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>181</v>
+      <c r="B118" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>153</v>
+      <c r="B119" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>161</v>
+      <c r="B120" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4051,6 +4072,7 @@
     <mergeCell ref="B114:C114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4068,299 +4090,299 @@
   <sheetData>
     <row r="1" ht="75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" ht="90" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="90" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" ht="75" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" ht="105" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" ht="120" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="105" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="105" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="150" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" ht="60" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" ht="210" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" ht="105" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" ht="150" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" ht="150" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" ht="105" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" ht="135" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" ht="105" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="90" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" ht="105" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" ht="90" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" ht="105" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" ht="135" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" ht="165" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" ht="75" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" ht="120" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" ht="90" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,73 +81,73 @@
     <t>gidNumber</t>
   </si>
   <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>remote_ip</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>givenName</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>homeDirectory</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>online_status</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
     <t>uid</t>
-  </si>
-  <si>
-    <t>remote_ip</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>givenName</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>user_agent</t>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>homeDirectory</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>online_status</t>
-  </si>
-  <si>
-    <t>updated_at</t>
   </si>
   <si>
     <t>suguan</t>
@@ -682,7 +682,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +702,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1241,137 +1247,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,10 +1402,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,6 +1424,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1956,10 +1968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O120"/>
+  <dimension ref="B1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F11"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2146,26 +2158,26 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>20</v>
@@ -2173,92 +2185,92 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>40</v>
@@ -2273,10 +2285,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -2391,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -2727,7 +2739,7 @@
       <c r="K32" s="13">
         <v>10</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2768,7 +2780,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>79</v>
@@ -2791,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>88</v>
@@ -2817,10 +2829,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>90</v>
@@ -2952,7 +2964,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>51</v>
@@ -2978,7 +2990,7 @@
         <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>64</v>
@@ -3217,10 +3229,10 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>69</v>
@@ -3237,10 +3249,10 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>75</v>
@@ -3281,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="K57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:12">
@@ -3299,10 +3311,10 @@
         <v>12</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3320,7 +3332,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3367,10 +3379,10 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>6</v>
@@ -3387,10 +3399,10 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>51</v>
@@ -3413,10 +3425,10 @@
         <v>141</v>
       </c>
       <c r="K65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="66" spans="8:12">
@@ -3427,10 +3439,10 @@
         <v>7</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3583,10 +3595,10 @@
         <v>49</v>
       </c>
       <c r="K75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:12">
@@ -3603,10 +3615,10 @@
         <v>7</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -3628,7 +3640,7 @@
         <v>147</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>148</v>
@@ -3639,10 +3651,10 @@
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>149</v>
@@ -3657,10 +3669,10 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>110</v>
@@ -3720,7 +3732,7 @@
         <v>147</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>44</v>
@@ -3734,7 +3746,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="11:12">
+    <row r="87" spans="2:12">
+      <c r="B87" s="17">
+        <v>25</v>
+      </c>
+      <c r="C87" s="17"/>
       <c r="K87" s="4" t="s">
         <v>92</v>
       </c>
@@ -3753,10 +3769,10 @@
       </c>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="18" t="s">
         <v>154</v>
       </c>
       <c r="K89" s="5" t="s">
@@ -3767,10 +3783,10 @@
       </c>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="18" t="s">
         <v>156</v>
       </c>
       <c r="K90" s="5" t="s">
@@ -3781,10 +3797,10 @@
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="18" t="s">
         <v>158</v>
       </c>
       <c r="K91">
@@ -3792,10 +3808,10 @@
       </c>
     </row>
     <row r="92" ht="30" spans="2:12">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="18" t="s">
         <v>160</v>
       </c>
       <c r="K92" s="4" t="s">
@@ -3804,10 +3820,10 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" ht="30" spans="2:12">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="18" t="s">
         <v>160</v>
       </c>
       <c r="K93" s="5" t="s">
@@ -3818,10 +3834,10 @@
       </c>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="18" t="s">
         <v>156</v>
       </c>
       <c r="K94" s="5" t="s">
@@ -3832,10 +3848,10 @@
       </c>
     </row>
     <row r="95" spans="2:12">
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="18" t="s">
         <v>164</v>
       </c>
       <c r="K95" s="5" t="s">
@@ -3846,28 +3862,34 @@
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" ht="45" spans="2:3">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="17">
+        <v>26</v>
+      </c>
+      <c r="C100" s="17"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="4" t="s">
@@ -3876,149 +3898,155 @@
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" s="16" t="s">
+      <c r="B107" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="B112" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="17">
+        <v>27</v>
+      </c>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="16" t="s">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C116" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="16" t="s">
+    <row r="117" spans="2:3">
+      <c r="B117" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C117" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="16" t="s">
+    <row r="118" spans="2:3">
+      <c r="B118" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C118" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118" ht="60" spans="2:3">
-      <c r="B118" s="16" t="s">
+    <row r="119" ht="60" spans="2:3">
+      <c r="B119" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C119" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="16" t="s">
+    <row r="120" spans="2:3">
+      <c r="B120" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C120" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="16" t="s">
+    <row r="121" spans="2:3">
+      <c r="B121" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C121" s="18" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="54">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4065,11 +4093,14 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K80:L80"/>
+    <mergeCell ref="B87:C87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="K92:L92"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4255,7 +4286,7 @@
     </row>
     <row r="18" ht="105" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>164</v>
@@ -4310,7 +4341,7 @@
     </row>
     <row r="23" ht="90" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>165</v>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,22 @@
     <t>int</t>
   </si>
   <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>data:image</t>
   </si>
   <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-  </si>
-  <si>
-    <t>avatar</t>
+    <t>username</t>
   </si>
   <si>
     <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>eventName</t>
@@ -1377,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,12 +1424,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1970,8 +1964,8 @@
   <sheetPr/>
   <dimension ref="B1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2066,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -2089,34 +2083,34 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -2130,19 +2124,19 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>19</v>
@@ -2156,13 +2150,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>22</v>
@@ -2174,7 +2168,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>24</v>
@@ -2188,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>27</v>
@@ -2206,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>30</v>
@@ -2220,13 +2214,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -2240,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>37</v>
@@ -2264,7 +2258,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>34</v>
@@ -2306,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
@@ -2316,7 +2310,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="5:12">
@@ -2350,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>47</v>
@@ -2374,7 +2368,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
@@ -2400,7 +2394,7 @@
         <v>52</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>24</v>
@@ -2414,7 +2408,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>54</v>
@@ -2426,13 +2420,13 @@
         <v>56</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2466,7 +2460,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>65</v>
@@ -2500,7 +2494,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>70</v>
@@ -2524,7 +2518,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
@@ -2570,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>77</v>
@@ -2600,7 +2594,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>80</v>
@@ -2618,7 +2612,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>82</v>
@@ -2650,7 +2644,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>51</v>
@@ -2676,13 +2670,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" s="13">
         <v>8</v>
@@ -2702,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>66</v>
@@ -2728,18 +2722,18 @@
         <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="13">
         <v>10</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2774,7 +2768,7 @@
         <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>94</v>
@@ -2800,7 +2794,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>34</v>
@@ -2812,7 +2806,7 @@
         <v>88</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="13">
         <v>13</v>
@@ -2826,7 +2820,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>38</v>
@@ -2838,7 +2832,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="13">
         <v>14</v>
@@ -2852,7 +2846,7 @@
         <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>99</v>
@@ -2872,13 +2866,13 @@
         <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="13">
         <v>16</v>
@@ -2900,7 +2894,7 @@
         <v>105</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="13">
         <v>17</v>
@@ -2914,7 +2908,7 @@
         <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>96</v>
@@ -2996,13 +2990,13 @@
         <v>64</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" s="13">
         <v>21</v>
@@ -3028,7 +3022,7 @@
         <v>120</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" s="3">
         <v>22</v>
@@ -3048,7 +3042,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>123</v>
@@ -3080,7 +3074,7 @@
         <v>125</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
         <v>24</v>
@@ -3100,7 +3094,7 @@
         <v>107</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
         <v>25</v>
@@ -3144,7 +3138,7 @@
         <v>88</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>100</v>
@@ -3202,7 +3196,7 @@
         <v>64</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="3">
         <v>18</v>
@@ -3238,7 +3232,7 @@
         <v>69</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>6</v>
@@ -3264,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="8:12">
@@ -3272,13 +3266,13 @@
         <v>107</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -3308,7 +3302,7 @@
         <v>88</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>38</v>
@@ -3348,7 +3342,7 @@
         <v>139</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" s="3">
         <v>16</v>
@@ -3364,7 +3358,7 @@
         <v>138</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>140</v>
@@ -3394,7 +3388,7 @@
         <v>44</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="2:12">
@@ -3414,7 +3408,7 @@
         <v>138</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="8:12">
@@ -3466,7 +3460,7 @@
         <v>117</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" s="3">
         <v>20</v>
@@ -3484,7 +3478,7 @@
         <v>120</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>115</v>
@@ -3522,7 +3516,7 @@
         <v>125</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>119</v>
@@ -3560,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="2:12">
@@ -3578,7 +3572,7 @@
         <v>138</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:12">
@@ -3606,7 +3600,7 @@
         <v>144</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>51</v>
@@ -3646,7 +3640,7 @@
         <v>148</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="2:12">
@@ -3660,7 +3654,7 @@
         <v>149</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K79" s="3">
         <v>21</v>
@@ -3678,7 +3672,7 @@
         <v>110</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>118</v>
@@ -3690,7 +3684,7 @@
         <v>150</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>6</v>
@@ -3738,7 +3732,7 @@
         <v>44</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="11:11">
@@ -3747,10 +3741,10 @@
       </c>
     </row>
     <row r="87" spans="2:12">
-      <c r="B87" s="17">
+      <c r="B87" s="11">
         <v>25</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="11"/>
       <c r="K87" s="4" t="s">
         <v>92</v>
       </c>
@@ -3769,38 +3763,38 @@
       </c>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="16" t="s">
         <v>154</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>155</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>156</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>92</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="16" t="s">
         <v>158</v>
       </c>
       <c r="K91">
@@ -3808,10 +3802,10 @@
       </c>
     </row>
     <row r="92" ht="30" spans="2:12">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="16" t="s">
         <v>160</v>
       </c>
       <c r="K92" s="4" t="s">
@@ -3820,10 +3814,10 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" ht="30" spans="2:12">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="16" t="s">
         <v>160</v>
       </c>
       <c r="K93" s="5" t="s">
@@ -3834,62 +3828,62 @@
       </c>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>156</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>155</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:12">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="16" t="s">
         <v>164</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>93</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" ht="45" spans="2:3">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="17">
+      <c r="B100" s="11">
         <v>26</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="4" t="s">
@@ -3898,98 +3892,98 @@
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="17">
+      <c r="B114" s="11">
         <v>27</v>
       </c>
-      <c r="C114" s="17"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="4" t="s">
@@ -3998,50 +3992,50 @@
       <c r="C115" s="4"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="119" ht="60" spans="2:3">
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="16" t="s">
         <v>164</v>
       </c>
     </row>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8940"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="214">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -60,42 +60,45 @@
     <t>varchar(25)</t>
   </si>
   <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>gidNumber</t>
+  </si>
+  <si>
     <t>avatar</t>
   </si>
   <si>
     <t>data:image</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>gidNumber</t>
+    <t>remote_ip</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>givenName</t>
   </si>
   <si>
     <t>fullname</t>
   </si>
   <si>
-    <t>remote_ip</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>givenName</t>
-  </si>
-  <si>
     <t>user_agent</t>
   </si>
   <si>
@@ -108,48 +111,45 @@
     <t>homeDirectory</t>
   </si>
   <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>mail</t>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sn</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>sn</t>
+    <t>updated_at</t>
   </si>
   <si>
     <t>online_status</t>
   </si>
   <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
     <t>suguan</t>
   </si>
   <si>
@@ -168,28 +168,49 @@
     <t>disctrict_id</t>
   </si>
   <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <t>personnels</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>personnel_id</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
     <t>contacts</t>
   </si>
   <si>
-    <t>local_id</t>
-  </si>
-  <si>
-    <t>personnels</t>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>personnel_id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>reference_number</t>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>enrollment_progress</t>
+  </si>
+  <si>
+    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+  </si>
+  <si>
+    <t>personnel_progress</t>
+  </si>
+  <si>
+    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
+  </si>
+  <si>
+    <t>givenname</t>
   </si>
   <si>
     <t>contactype</t>
@@ -198,16 +219,13 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>enrollment_progress</t>
-  </si>
-  <si>
-    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+    <t>available_apps</t>
+  </si>
+  <si>
+    <t>middlname</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
   <si>
     <t>contact_info</t>
@@ -216,49 +234,46 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>personnel_progress</t>
-  </si>
-  <si>
-    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
-  </si>
-  <si>
-    <t>givenname</t>
-  </si>
-  <si>
-    <t>available_apps</t>
-  </si>
-  <si>
-    <t>middlname</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>Table List</t>
   </si>
   <si>
     <t>lastname</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>LDAP Users</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>LDAP Users</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>app_id</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>languages</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
   </si>
   <si>
     <t>relationship</t>
@@ -267,64 +282,49 @@
     <t>enum(Father, Mother)</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>spouse</t>
-  </si>
-  <si>
-    <t>place_of_birth</t>
+    <t>bloodtype</t>
+  </si>
+  <si>
+    <t>civil_status</t>
   </si>
   <si>
     <t>middlename</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>bloodtype</t>
+    <t>wedding_anniversary</t>
+  </si>
+  <si>
+    <t>personnel_images</t>
+  </si>
+  <si>
+    <t>citizenship</t>
   </si>
   <si>
     <t>contact_number</t>
   </si>
   <si>
-    <t>civil_status</t>
+    <t>nationality</t>
   </si>
   <si>
     <t>church_duties</t>
   </si>
   <si>
-    <t>wedding_anniversary</t>
+    <t>landline_contactnumber</t>
   </si>
   <si>
     <t>livelihood</t>
   </si>
   <si>
-    <t>personnel_images</t>
-  </si>
-  <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t>nationality</t>
+    <t>siblings</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>national_id</t>
   </si>
   <si>
     <t>present_address</t>
-  </si>
-  <si>
-    <t>landline_contactnumber</t>
-  </si>
-  <si>
-    <t>siblings</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>national_id</t>
   </si>
   <si>
     <t>date_of_marriage</t>
@@ -708,13 +708,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1964,30 +1964,30 @@
   <sheetPr/>
   <dimension ref="B1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="21.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="2.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="12.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="2.42857142857143" customWidth="1"/>
-    <col min="14" max="14" width="9.28571428571429" customWidth="1"/>
-    <col min="15" max="15" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="10.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="21.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="12.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="2.71296296296296" customWidth="1"/>
+    <col min="5" max="5" width="18.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="2.71296296296296" customWidth="1"/>
+    <col min="8" max="8" width="19.1388888888889" customWidth="1"/>
+    <col min="9" max="9" width="11.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="2.28703703703704" customWidth="1"/>
+    <col min="11" max="11" width="12.287037037037" customWidth="1"/>
+    <col min="12" max="12" width="23.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="2.42592592592593" customWidth="1"/>
+    <col min="14" max="14" width="9.28703703703704" customWidth="1"/>
+    <col min="15" max="15" width="12.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="2:15">
+    <row r="1" ht="28.8" spans="2:15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2088,55 +2088,55 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>19</v>
@@ -2152,26 +2152,26 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>20</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>27</v>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>30</v>
@@ -2220,7 +2220,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -2254,17 +2254,17 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>40</v>
@@ -2279,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>35</v>
@@ -2302,6 +2302,12 @@
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2310,14 +2316,10 @@
         <v>44</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12">
-      <c r="E14" s="3">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="8:12">
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
@@ -2336,18 +2338,14 @@
         <v>9</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4"/>
       <c r="H15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>7</v>
@@ -2355,20 +2353,14 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="H16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
@@ -2379,25 +2371,23 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="H17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -2405,50 +2395,54 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="H18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="L18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H20" s="3">
         <v>5</v>
@@ -2457,27 +2451,35 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="3">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3"/>
       <c r="H22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2494,14 +2496,10 @@
         <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="H23" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
@@ -2510,24 +2508,18 @@
         <v>1</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>7</v>
@@ -2541,17 +2533,15 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="K25" s="13">
         <v>3</v>
       </c>
@@ -2561,17 +2551,15 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="H26" s="3">
         <v>14</v>
       </c>
@@ -2585,46 +2573,46 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="15"/>
       <c r="K27" s="13">
         <v>5</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="13">
         <v>6</v>
@@ -2635,19 +2623,19 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="H29" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>7</v>
@@ -2661,22 +2649,22 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="13">
         <v>8</v>
@@ -2687,97 +2675,97 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K31" s="13">
         <v>9</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="13">
         <v>10</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K33" s="13">
         <v>11</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>19</v>
@@ -2786,67 +2774,73 @@
         <v>12</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="13">
         <v>13</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" s="13">
         <v>14</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
+      <c r="F37" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>99</v>
@@ -2866,13 +2860,19 @@
         <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" s="13">
         <v>16</v>
@@ -2886,15 +2886,17 @@
         <v>104</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="E39" s="3">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="E39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" s="13">
         <v>17</v>
@@ -2908,12 +2910,8 @@
         <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>12</v>
+      </c>
       <c r="H40" s="5" t="s">
         <v>108</v>
       </c>
@@ -2934,12 +2932,6 @@
       <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H41" s="5" t="s">
         <v>112</v>
       </c>
@@ -2955,17 +2947,15 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E42" s="3">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="H42" s="5" t="s">
         <v>114</v>
       </c>
@@ -2986,17 +2976,15 @@
       <c r="C43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="4"/>
       <c r="H43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" s="13">
         <v>21</v>
@@ -3013,16 +3001,16 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" s="3">
         <v>22</v>
@@ -3038,23 +3026,23 @@
       <c r="C45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>69</v>
+      <c r="E45" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K45" s="3">
         <v>23</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -3065,16 +3053,16 @@
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" s="3">
         <v>24</v>
@@ -3091,10 +3079,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="K47" s="3">
         <v>25</v>
@@ -3111,10 +3099,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H48" s="3">
         <v>15</v>
@@ -3135,10 +3123,10 @@
         <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>100</v>
@@ -3159,16 +3147,16 @@
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -3178,8 +3166,14 @@
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
@@ -3192,11 +3186,17 @@
       <c r="C52" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H52" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" s="3">
         <v>18</v>
@@ -3210,11 +3210,17 @@
       <c r="C53" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>137</v>
@@ -3232,7 +3238,7 @@
         <v>69</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>6</v>
@@ -3249,16 +3255,16 @@
         <v>35</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="8:12">
@@ -3266,13 +3272,13 @@
         <v>107</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -3295,14 +3301,14 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>38</v>
@@ -3319,15 +3325,15 @@
         <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="8" t="s">
-        <v>51</v>
+      <c r="B60" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
@@ -3358,7 +3364,7 @@
         <v>138</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>140</v>
@@ -3382,13 +3388,13 @@
         <v>6</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:12">
@@ -3399,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
@@ -3408,7 +3414,7 @@
         <v>138</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="8:12">
@@ -3460,7 +3466,7 @@
         <v>117</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" s="3">
         <v>20</v>
@@ -3478,7 +3484,7 @@
         <v>120</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>115</v>
@@ -3487,7 +3493,7 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>7</v>
@@ -3496,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>6</v>
@@ -3516,7 +3522,7 @@
         <v>125</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>119</v>
@@ -3554,7 +3560,7 @@
         <v>44</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="2:12">
@@ -3572,7 +3578,7 @@
         <v>138</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="2:12">
@@ -3586,7 +3592,7 @@
         <v>6</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>34</v>
@@ -3603,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>7</v>
@@ -3634,13 +3640,13 @@
         <v>147</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>148</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:12">
@@ -3654,7 +3660,7 @@
         <v>149</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K79" s="3">
         <v>21</v>
@@ -3672,7 +3678,7 @@
         <v>110</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>118</v>
@@ -3684,7 +3690,7 @@
         <v>150</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>6</v>
@@ -3726,13 +3732,13 @@
         <v>147</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="11:11">
@@ -3746,7 +3752,7 @@
       </c>
       <c r="C87" s="11"/>
       <c r="K87" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L87" s="4"/>
     </row>
@@ -3773,21 +3779,21 @@
         <v>155</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:12">
       <c r="B90" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>156</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -3801,7 +3807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" ht="30" spans="2:12">
+    <row r="92" ht="28.8" spans="2:12">
       <c r="B92" s="16" t="s">
         <v>159</v>
       </c>
@@ -3813,7 +3819,7 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" ht="30" spans="2:12">
+    <row r="93" ht="28.8" spans="2:12">
       <c r="B93" s="16" t="s">
         <v>161</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>155</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -3849,15 +3855,15 @@
         <v>164</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>165</v>
@@ -3871,7 +3877,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" ht="45" spans="2:3">
+    <row r="98" ht="43.2" spans="2:3">
       <c r="B98" s="16" t="s">
         <v>168</v>
       </c>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>156</v>
@@ -3941,7 +3947,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>165</v>
@@ -3973,7 +3979,7 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>165</v>
@@ -4015,7 +4021,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" ht="60" spans="2:3">
+    <row r="119" ht="43.2" spans="2:3">
       <c r="B119" s="16" t="s">
         <v>183</v>
       </c>
@@ -4056,19 +4062,19 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K52:L52"/>
@@ -4111,9 +4117,9 @@
       <selection activeCell="A26" sqref="A26:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="75" spans="1:3">
+    <row r="1" ht="72" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -4124,9 +4130,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" ht="90" spans="1:3">
+    <row r="2" ht="72" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>156</v>
@@ -4135,7 +4141,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" ht="90" spans="1:3">
+    <row r="3" ht="86.4" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="1:3">
+    <row r="4" ht="72" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" ht="105" spans="1:3">
+    <row r="5" ht="72" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" ht="120" spans="1:3">
+    <row r="6" ht="115.2" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>162</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" ht="105" spans="1:3">
+    <row r="7" ht="86.4" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
@@ -4190,9 +4196,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" ht="105" spans="1:3">
+    <row r="8" ht="72" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>165</v>
@@ -4201,7 +4207,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" ht="150" spans="1:3">
+    <row r="9" ht="129.6" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" ht="60" spans="1:3">
+    <row r="10" ht="57.6" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" ht="60" spans="1:3">
+    <row r="13" ht="57.6" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>170</v>
       </c>
@@ -4234,9 +4240,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" ht="210" spans="1:3">
+    <row r="14" ht="187.2" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>156</v>
@@ -4245,7 +4251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" ht="105" spans="1:3">
+    <row r="15" ht="100.8" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" ht="150" spans="1:3">
+    <row r="16" ht="129.6" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>172</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" ht="150" spans="1:3">
+    <row r="17" ht="144" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" ht="105" spans="1:3">
+    <row r="18" ht="100.8" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -4289,9 +4295,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" ht="135" spans="1:3">
+    <row r="19" ht="100.8" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>165</v>
@@ -4300,7 +4306,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" ht="105" spans="1:3">
+    <row r="20" ht="100.8" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" ht="90" spans="1:3">
+    <row r="21" ht="86.4" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>177</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" ht="105" spans="1:3">
+    <row r="22" ht="86.4" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>178</v>
       </c>
@@ -4333,9 +4339,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" ht="90" spans="1:3">
+    <row r="23" ht="72" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>165</v>
@@ -4344,7 +4350,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" ht="105" spans="1:3">
+    <row r="26" ht="86.4" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>180</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" ht="135" spans="1:3">
+    <row r="27" ht="115.2" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" ht="165" spans="1:3">
+    <row r="28" ht="144" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="1:3">
+    <row r="29" ht="72" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" ht="120" spans="1:3">
+    <row r="30" ht="100.8" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>185</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" ht="90" spans="1:3">
+    <row r="31" ht="86.4" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>186</v>
       </c>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180" activeTab="1"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="222">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -159,30 +159,36 @@
     <t>family_members</t>
   </si>
   <si>
+    <t>bigint(20)(PK)</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <t>int(FK)</t>
+  </si>
+  <si>
     <t>Table List</t>
   </si>
   <si>
+    <t>enrollment_progress</t>
+  </si>
+  <si>
+    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>relationship_type</t>
+  </si>
+  <si>
+    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
+  </si>
+  <si>
     <t>LDAP Users</t>
   </si>
   <si>
-    <t>reference_number</t>
-  </si>
-  <si>
-    <t>enrollment_progress</t>
-  </si>
-  <si>
-    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>relationship_type</t>
-  </si>
-  <si>
-    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
-  </si>
-  <si>
     <t>personnel_progress</t>
   </si>
   <si>
@@ -210,210 +216,210 @@
     <t>suffix</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>enum(Male, Female)</t>
+  </si>
+  <si>
+    <t>personnel_history</t>
+  </si>
+  <si>
+    <t>bloodtype</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
     <t>personel_contacts</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>enum(Male, Female)</t>
-  </si>
-  <si>
-    <t>personnel_history</t>
-  </si>
-  <si>
-    <t>bloodtype</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
     <t>languages</t>
   </si>
   <si>
     <t>civil_status</t>
   </si>
   <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>date_of_marriage</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>prepared_by</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
     <t>personnel_documents</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>date_of_marriage</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>citizenship</t>
   </si>
   <si>
     <t>personnel_address</t>
   </si>
   <si>
-    <t>place_of_birth</t>
-  </si>
-  <si>
-    <t>prepared_by</t>
-  </si>
-  <si>
-    <t>place_of_marriage</t>
+    <t>sec_id</t>
+  </si>
+  <si>
+    <t>nationality</t>
   </si>
   <si>
     <t>personnel_gov_id</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>citizenship</t>
+    <t>subsection_id</t>
   </si>
   <si>
     <t>educational_background</t>
   </si>
   <si>
-    <t>sec_id</t>
-  </si>
-  <si>
-    <t>nationality</t>
+    <t>wedding_anniversary</t>
+  </si>
+  <si>
+    <t>designation_id</t>
+  </si>
+  <si>
+    <t>contact_number</t>
   </si>
   <si>
     <t>work_experience</t>
   </si>
   <si>
-    <t>subsection_id</t>
-  </si>
-  <si>
-    <t>wedding_anniversary</t>
-  </si>
-  <si>
-    <t>designation_id</t>
-  </si>
-  <si>
-    <t>contact_number</t>
+    <t>personnelstatus</t>
+  </si>
+  <si>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>livelihood</t>
   </si>
   <si>
     <t>departments</t>
   </si>
   <si>
-    <t>personnelstatus</t>
-  </si>
-  <si>
-    <t>church_duties</t>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>reason_for_leaving</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
   </si>
   <si>
     <t>sections</t>
   </si>
   <si>
-    <t>livelihood</t>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>district_id</t>
   </si>
   <si>
     <t>subsections</t>
   </si>
   <si>
-    <t>contact_info</t>
-  </si>
-  <si>
-    <t>reason_for_leaving</t>
-  </si>
-  <si>
-    <t>local_congregation</t>
+    <t>government_id</t>
+  </si>
+  <si>
+    <t>minister_officiated</t>
   </si>
   <si>
     <t>designations</t>
   </si>
   <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>district_id</t>
-  </si>
-  <si>
-    <t>government_id</t>
-  </si>
-  <si>
-    <t>minister_officiated</t>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>nationalities</t>
   </si>
   <si>
-    <t>address_id</t>
-  </si>
-  <si>
-    <t>employment_type</t>
-  </si>
-  <si>
-    <t>enum(Self-employed, Employed, Government, Private)</t>
+    <t>address</t>
   </si>
   <si>
     <t>suguan</t>
   </si>
   <si>
-    <t>company</t>
+    <t>inc_status</t>
+  </si>
+  <si>
+    <t>enum(Active, Non-Active)</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
   <si>
     <t>events</t>
   </si>
   <si>
-    <t>address</t>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
   <si>
     <t>reminders</t>
   </si>
   <si>
-    <t>inc_status</t>
-  </si>
-  <si>
-    <t>enum(Active, Non-Active)</t>
-  </si>
-  <si>
-    <t>document_id</t>
-  </si>
-  <si>
-    <t>INT (PK)</t>
-  </si>
-  <si>
-    <t>position</t>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>section</t>
   </si>
   <si>
     <t>audit_logs</t>
   </si>
   <si>
-    <t>INT (FK)</t>
-  </si>
-  <si>
-    <t>department</t>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>start_date</t>
   </si>
   <si>
     <t>roles_permissions</t>
   </si>
   <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>document_type</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
     <t>file_path</t>
   </si>
   <si>
@@ -516,6 +522,9 @@
     <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
   </si>
   <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
     <t>startfrom</t>
   </si>
   <si>
@@ -537,7 +546,7 @@
     <t>eventName</t>
   </si>
   <si>
-    <t>location</t>
+    <t>location_id</t>
   </si>
   <si>
     <t>title</t>
@@ -547,6 +556,9 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>locations</t>
   </si>
   <si>
     <t>log_id</t>
@@ -694,7 +706,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +755,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1259,137 +1278,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,12 +1424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,67 +1442,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2026,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2052,40 +2058,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="2:15">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8">
+      <c r="C2" s="6"/>
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="H2" s="8">
+      <c r="F2" s="6"/>
+      <c r="H2" s="6">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="8">
+      <c r="I2" s="6"/>
+      <c r="K2" s="6">
         <v>4</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -2135,13 +2141,13 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2164,7 +2170,7 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2274,16 +2280,16 @@
       <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>5</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2334,20 +2340,20 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="8">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="E15" s="12">
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="H15" s="13">
+      <c r="F15" s="10"/>
+      <c r="H15" s="6">
         <v>15</v>
       </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,21 +2362,17 @@
         <v>41</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="K16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -2378,100 +2380,92 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="K17" s="25">
-        <v>1</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="25">
-        <v>2</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="2:12">
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="25">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>3</v>
+      <c r="I19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="25">
-        <v>4</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>4</v>
+      <c r="H20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -2482,25 +2476,25 @@
       <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="25">
-        <v>5</v>
+      <c r="H21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>34</v>
@@ -2508,90 +2502,90 @@
       <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="25">
-        <v>6</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>40</v>
+      <c r="H22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="19">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="25">
-        <v>7</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>60</v>
+      <c r="K23" s="19">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>9</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="25">
-        <v>8</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="K24" s="19">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1"/>
       <c r="H25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="25">
-        <v>9</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="K25" s="19">
+        <v>7</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -2603,42 +2597,42 @@
         <v>6</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="25">
-        <v>10</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="K26" s="19">
+        <v>8</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:12">
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="F27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="25">
-        <v>11</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="I27" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="K27" s="19">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -2654,25 +2648,25 @@
       <c r="F28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="25">
-        <v>12</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="19">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>79</v>
@@ -2686,19 +2680,19 @@
       <c r="I29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="25">
-        <v>13</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="K29" s="19">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>82</v>
@@ -2712,19 +2706,19 @@
       <c r="I30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="25">
-        <v>14</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="K30" s="19">
+        <v>12</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>85</v>
@@ -2732,43 +2726,43 @@
       <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="25">
-        <v>15</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>42</v>
+      <c r="H31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="19">
+        <v>13</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="25">
-        <v>16</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="H32" s="11" t="s">
         <v>89</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="19">
+        <v>14</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2779,22 +2773,22 @@
         <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="25">
-        <v>17</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="H33" s="11" t="s">
         <v>92</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="19">
+        <v>15</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -2805,21 +2799,21 @@
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="25">
-        <v>18</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="I34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="19">
+        <v>16</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2836,16 +2830,16 @@
       <c r="F35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="25">
-        <v>19</v>
-      </c>
-      <c r="L35" s="5" t="s">
+      <c r="I35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="19">
+        <v>17</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2862,22 +2856,22 @@
       <c r="F36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="25">
-        <v>20</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>80</v>
+      <c r="I36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="19">
+        <v>18</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
@@ -2888,37 +2882,37 @@
       <c r="F37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="25">
-        <v>21</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="H37" s="11" t="s">
         <v>103</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="19">
+        <v>19</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="17" t="s">
+      <c r="H38" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="25">
-        <v>22</v>
-      </c>
-      <c r="L38" s="5" t="s">
+      <c r="I38" s="13" t="s">
         <v>107</v>
+      </c>
+      <c r="K38" s="19">
+        <v>20</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:12">
@@ -2928,20 +2922,20 @@
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>10</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="H39" s="17" t="s">
+      <c r="F39" s="10"/>
+      <c r="H39" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="25">
-        <v>23</v>
-      </c>
-      <c r="L39" s="5" t="s">
+      <c r="I39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="19">
+        <v>21</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2953,45 +2947,45 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="25">
-        <v>24</v>
-      </c>
-      <c r="L40" s="5" t="s">
+      <c r="K40" s="19">
+        <v>22</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="25">
-        <v>25</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="I41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="19">
+        <v>23</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3000,24 +2994,24 @@
         <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="25">
-        <v>26</v>
-      </c>
-      <c r="L42" s="5" t="s">
+      <c r="I42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="19">
+        <v>24</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3028,172 +3022,182 @@
       <c r="C43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
-    </row>
-    <row r="44" ht="30" spans="2:9">
+      <c r="I43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="19">
+        <v>25</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" ht="30" spans="2:12">
       <c r="B44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="17" t="s">
-        <v>73</v>
+      <c r="H44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" s="19">
+        <v>26</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="30" spans="2:9">
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>73</v>
+      <c r="E45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" ht="30" spans="2:9">
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>137</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="15" t="s">
+      <c r="F48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="F49" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" ht="45" spans="2:9">
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="F50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3204,15 +3208,15 @@
       <c r="C52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="12">
-        <v>11</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="H52" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>153</v>
+      <c r="E52" s="10">
+        <v>11</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="H52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3222,64 +3226,64 @@
       <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="H53" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I53" s="15" t="s">
+      <c r="E53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="H53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="5:9">
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I54" s="15" t="s">
+      <c r="F54" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="8">
+      <c r="B55" s="6">
         <v>7</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="6"/>
       <c r="E55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="F56" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3298,34 +3302,34 @@
       <c r="C58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="10">
         <v>12</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3338,22 +3342,22 @@
       </c>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="21" t="s">
-        <v>157</v>
+      <c r="F62" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="8">
+      <c r="B63" s="6">
         <v>13</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -3364,14 +3368,14 @@
       <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="6">
         <v>14</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="H65" s="8">
+      <c r="F65" s="6"/>
+      <c r="H65" s="6">
         <v>16</v>
       </c>
-      <c r="I65" s="8"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="3" t="s">
@@ -3381,20 +3385,20 @@
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>5</v>
@@ -3406,12 +3410,12 @@
         <v>5</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>6</v>
@@ -3431,19 +3435,19 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>20</v>
@@ -3451,7 +3455,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>11</v>
@@ -3471,15 +3475,15 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -3491,10 +3495,10 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>116</v>
@@ -3505,7 +3509,7 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>11</v>
@@ -3516,14 +3520,14 @@
       <c r="F73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="6">
         <v>17</v>
       </c>
-      <c r="I73" s="8"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="29" t="s">
-        <v>163</v>
+      <c r="B74" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>22</v>
@@ -3535,16 +3539,16 @@
         <v>11</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>5</v>
@@ -3555,10 +3559,10 @@
     </row>
     <row r="76" spans="5:9">
       <c r="E76" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>12</v>
@@ -3575,17 +3579,17 @@
         <v>22</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="8">
+      <c r="B78" s="6">
         <v>22</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="6"/>
       <c r="H78" s="4" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3599,7 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1"/>
       <c r="H79" s="4" t="s">
@@ -3620,26 +3624,26 @@
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="6">
         <v>18</v>
       </c>
-      <c r="I81" s="8"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>6</v>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>79</v>
@@ -3667,10 +3671,10 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>121</v>
@@ -3681,7 +3685,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="87" spans="8:9">
       <c r="H87" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>20</v>
@@ -3710,10 +3714,10 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="8">
+      <c r="B89" s="6">
         <v>23</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="6"/>
       <c r="H89" s="4" t="s">
         <v>34</v>
       </c>
@@ -3723,7 +3727,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C90" s="1"/>
     </row>
@@ -3737,31 +3741,31 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="6">
         <v>19</v>
       </c>
-      <c r="I92" s="8"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>11</v>
@@ -3774,11 +3778,11 @@
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>11</v>
+      <c r="B95" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>121</v>
@@ -3796,10 +3800,10 @@
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="30">
+      <c r="B97" s="22">
         <v>24</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="23"/>
       <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
@@ -3808,10 +3812,10 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:3">
-      <c r="B98" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="33"/>
+      <c r="B98" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" spans="2:8">
       <c r="B99" s="4" t="s">
@@ -3826,7 +3830,7 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>11</v>
@@ -3838,10 +3842,10 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
@@ -3852,13 +3856,13 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>11</v>
@@ -3866,10 +3870,10 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>80</v>
@@ -3879,18 +3883,28 @@
       </c>
     </row>
     <row r="105" spans="8:9">
-      <c r="H105" s="34">
+      <c r="H105" s="10">
         <v>21</v>
       </c>
-      <c r="I105" s="34"/>
-    </row>
-    <row r="106" spans="8:9">
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="27"/>
       <c r="H106" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="8:9">
+    <row r="107" spans="2:9">
+      <c r="B107" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="H107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3898,9 +3912,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="8:9">
+    <row r="108" spans="2:9">
+      <c r="B108" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="H108" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>11</v>
@@ -3915,167 +3935,167 @@
       </c>
     </row>
     <row r="111" spans="8:9">
-      <c r="H111" s="12">
+      <c r="H111" s="10">
         <v>25</v>
       </c>
-      <c r="I111" s="12"/>
+      <c r="I111" s="10"/>
     </row>
     <row r="112" spans="8:9">
       <c r="H112" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="8:9">
-      <c r="H113" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I113" s="19" t="s">
+      <c r="H113" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I113" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="114" spans="8:9">
-      <c r="H114" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I114" s="19" t="s">
+      <c r="H114" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I114" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="115" ht="30" spans="8:9">
-      <c r="H115" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I115" s="19" t="s">
+      <c r="H115" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I115" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="116" ht="30" spans="8:9">
-      <c r="H116" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I116" s="19" t="s">
+      <c r="H116" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="117" spans="8:9">
-      <c r="H117" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="I117" s="19" t="s">
-        <v>178</v>
+      <c r="H117" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="8:9">
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I118" s="19" t="s">
-        <v>135</v>
+      <c r="I118" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="8:9">
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I119" s="19" t="s">
-        <v>139</v>
+      <c r="I119" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="8:9">
-      <c r="H120" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I120" s="19" t="s">
-        <v>180</v>
+      <c r="H120" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="8:9">
-      <c r="H121" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="I121" s="19" t="s">
-        <v>180</v>
+      <c r="H121" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="122" ht="30" spans="8:9">
-      <c r="H122" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="I122" s="19" t="s">
-        <v>183</v>
+      <c r="H122" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="8:9">
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="19" t="s">
-        <v>139</v>
+      <c r="I123" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="8:9">
-      <c r="H125" s="12">
+      <c r="H125" s="10">
         <v>26</v>
       </c>
-      <c r="I125" s="12"/>
+      <c r="I125" s="10"/>
     </row>
     <row r="126" spans="8:9">
       <c r="H126" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="8:9">
-      <c r="H127" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I127" s="19" t="s">
+      <c r="H127" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I127" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="128" spans="8:9">
-      <c r="H128" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I128" s="19" t="s">
+      <c r="H128" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I128" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I129" s="19" t="s">
+      <c r="H129" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I129" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I130" s="19" t="s">
-        <v>188</v>
+      <c r="H130" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="8:9">
-      <c r="H131" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I131" s="19" t="s">
+      <c r="H131" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I131" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>135</v>
+      <c r="H132" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4093,7 +4113,7 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E39:F39"/>
@@ -4124,6 +4144,7 @@
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="H105:I105"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="H106:I106"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="H112:I112"/>
@@ -4141,7 +4162,7 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4170,112 +4191,112 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4286,51 +4307,51 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
@@ -4341,7 +4362,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4352,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -4363,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4374,29 +4395,29 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -4407,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4418,18 +4439,18 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>198</v>
+      <c r="C26" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -4439,8 +4460,8 @@
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>209</v>
+      <c r="C27" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
@@ -4450,8 +4471,8 @@
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>210</v>
+      <c r="C28" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
@@ -4461,98 +4482,98 @@
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>211</v>
+      <c r="C29" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>212</v>
+      <c r="C30" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
@@ -4561,9 +4582,9 @@
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
@@ -4572,9 +4593,9 @@
       <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="225">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -540,6 +540,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>gampanin_id</t>
+  </si>
+  <si>
     <t>gampanin</t>
   </si>
   <si>
@@ -549,16 +552,22 @@
     <t>location_id</t>
   </si>
   <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>country_name</t>
-  </si>
-  <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>locations</t>
   </si>
   <si>
     <t>log_id</t>
@@ -706,7 +715,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +764,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1278,137 +1294,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,6 +1489,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,18 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2032,8 +2045,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3684,11 +3697,11 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>11</v>
+      <c r="C86" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>12</v>
@@ -3705,7 +3718,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="8:9">
+    <row r="88" spans="2:9">
+      <c r="B88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="1"/>
       <c r="H88" s="4" t="s">
         <v>32</v>
       </c>
@@ -3714,10 +3731,12 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="6">
-        <v>23</v>
-      </c>
-      <c r="C89" s="6"/>
+      <c r="B89" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="H89" s="4" t="s">
         <v>34</v>
       </c>
@@ -3726,38 +3745,28 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
+      <c r="B90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B92" s="6">
+        <v>23</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="H92" s="6">
         <v>19</v>
       </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="H93" s="1" t="s">
         <v>104</v>
       </c>
@@ -3765,10 +3774,10 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>5</v>
@@ -3778,11 +3787,11 @@
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>6</v>
+      <c r="C95" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>121</v>
@@ -3791,7 +3800,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="8:9">
+    <row r="96" spans="2:9">
+      <c r="B96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H96" s="4" t="s">
         <v>85</v>
       </c>
@@ -3800,10 +3815,12 @@
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="22">
-        <v>24</v>
-      </c>
-      <c r="C97" s="23"/>
+      <c r="B97" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
@@ -3812,41 +3829,35 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:3">
-      <c r="B98" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="25"/>
+      <c r="B98" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>6</v>
+      <c r="B99" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="H99">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="100" spans="8:9">
       <c r="H100" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
@@ -3855,14 +3866,14 @@
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>72</v>
+      <c r="B102" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>11</v>
@@ -3870,10 +3881,10 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="4" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>80</v>
@@ -3882,27 +3893,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="8:9">
+    <row r="105" spans="2:9">
+      <c r="B105" s="25">
+        <v>24</v>
+      </c>
+      <c r="C105" s="26"/>
       <c r="H105" s="10">
         <v>21</v>
       </c>
       <c r="I105" s="10"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="27"/>
+      <c r="B106" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="28"/>
       <c r="H106" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -3913,20 +3928,26 @@
       </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="29" t="s">
+      <c r="B108" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="8:9">
+    <row r="109" spans="2:9">
+      <c r="B109" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H109" s="4" t="s">
         <v>83</v>
       </c>
@@ -3934,7 +3955,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="8:9">
+    <row r="110" spans="2:3">
+      <c r="B110" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="H111" s="10">
         <v>25</v>
       </c>
@@ -3948,7 +3983,7 @@
     </row>
     <row r="113" spans="8:9">
       <c r="H113" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I113" s="14" t="s">
         <v>115</v>
@@ -3956,7 +3991,7 @@
     </row>
     <row r="114" spans="8:9">
       <c r="H114" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I114" s="14" t="s">
         <v>118</v>
@@ -3964,7 +3999,7 @@
     </row>
     <row r="115" ht="30" spans="8:9">
       <c r="H115" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>123</v>
@@ -3972,7 +4007,7 @@
     </row>
     <row r="116" ht="30" spans="8:9">
       <c r="H116" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>123</v>
@@ -3980,10 +4015,10 @@
     </row>
     <row r="117" spans="8:9">
       <c r="H117" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="8:9">
@@ -4004,26 +4039,26 @@
     </row>
     <row r="120" spans="8:9">
       <c r="H120" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" ht="30" spans="8:9">
       <c r="H122" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="8:9">
@@ -4048,7 +4083,7 @@
     </row>
     <row r="127" spans="8:9">
       <c r="H127" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>115</v>
@@ -4056,7 +4091,7 @@
     </row>
     <row r="128" spans="8:9">
       <c r="H128" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>118</v>
@@ -4064,7 +4099,7 @@
     </row>
     <row r="129" ht="30" spans="8:9">
       <c r="H129" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>123</v>
@@ -4072,15 +4107,15 @@
     </row>
     <row r="130" ht="75" spans="8:9">
       <c r="H130" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="8:9">
       <c r="H131" s="14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>118</v>
@@ -4088,14 +4123,14 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I132" s="14" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4136,13 +4171,14 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="H92:I92"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
     <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="H105:I105"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="H106:I106"/>
@@ -4197,7 +4233,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4208,7 +4244,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4219,7 +4255,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4230,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4241,7 +4277,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4252,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4263,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4274,7 +4310,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -4285,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -4296,7 +4332,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4307,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4318,7 +4354,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4329,7 +4365,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4340,7 +4376,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4362,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4373,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -4384,7 +4420,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4395,7 +4431,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -4406,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -4417,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -4428,7 +4464,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4439,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4450,7 +4486,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -4461,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
@@ -4472,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
@@ -4483,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
@@ -4494,7 +4530,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4516,7 +4552,7 @@
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4527,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4541,7 +4577,7 @@
         <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4555,7 +4591,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4569,7 +4605,7 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="232">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -87,88 +87,172 @@
     <t>givenName</t>
   </si>
   <si>
+    <t>local_username</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>homeDirectory</t>
+  </si>
+  <si>
+    <t>local_password</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
     <t>avatar</t>
   </si>
   <si>
     <t>data:image</t>
   </si>
   <si>
-    <t>user_agent</t>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>homeDirectory</t>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sn</t>
   </si>
   <si>
     <t>online_status</t>
   </si>
   <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>mail</t>
+    <t>updated_at</t>
   </si>
   <si>
     <t>last_login</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>available_apps</t>
   </si>
   <si>
     <t>uidNumber</t>
   </si>
   <si>
+    <t>auth_type</t>
+  </si>
+  <si>
+    <t>enum('LDAP', 'Local')</t>
+  </si>
+  <si>
     <t>userPassword</t>
   </si>
   <si>
+    <t>failed_atempts</t>
+  </si>
+  <si>
     <t>app_id</t>
   </si>
   <si>
+    <t>last_failed_attempt</t>
+  </si>
+  <si>
     <t>ldap_group_cn</t>
   </si>
   <si>
+    <t>family_members</t>
+  </si>
+  <si>
+    <t>Table List</t>
+  </si>
+  <si>
+    <t>relationship_type</t>
+  </si>
+  <si>
+    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
+  </si>
+  <si>
+    <t>LDAP Users</t>
+  </si>
+  <si>
+    <t>givenname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>enum(Male, Female)</t>
+  </si>
+  <si>
     <t>personnels</t>
   </si>
   <si>
+    <t>bloodtype</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>personel_contacts</t>
+  </si>
+  <si>
+    <t>civil_status</t>
+  </si>
+  <si>
     <t>personnel_images</t>
   </si>
   <si>
-    <t>family_members</t>
+    <t>date_of_marriage</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>personnel_history</t>
   </si>
   <si>
     <t>bigint(20)(PK)</t>
   </si>
   <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
+    <t>personnel_documents</t>
+  </si>
+  <si>
     <t>reference_number</t>
   </si>
   <si>
     <t>int(FK)</t>
   </si>
   <si>
-    <t>Table List</t>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>personnel_address</t>
   </si>
   <si>
     <t>enrollment_progress</t>
@@ -180,13 +264,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>relationship_type</t>
-  </si>
-  <si>
-    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
-  </si>
-  <si>
-    <t>LDAP Users</t>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>personnel_gov_id</t>
   </si>
   <si>
     <t>personnel_progress</t>
@@ -198,61 +279,61 @@
     <t>image_url</t>
   </si>
   <si>
-    <t>givenname</t>
-  </si>
-  <si>
-    <t>middlename</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>educational_background</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>work_experience</t>
   </si>
   <si>
     <t>middlname</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>suffix</t>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>departments</t>
   </si>
   <si>
     <t>nickname</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>enum(Male, Female)</t>
-  </si>
-  <si>
-    <t>personnel_history</t>
-  </si>
-  <si>
-    <t>bloodtype</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>personel_contacts</t>
+    <t>local_congregation</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>subsections</t>
   </si>
   <si>
     <t>languages</t>
   </si>
   <si>
-    <t>civil_status</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
+    <t>minister_officiated</t>
+  </si>
+  <si>
+    <t>designations</t>
   </si>
   <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>date_of_marriage</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
   </si>
   <si>
     <t>place_of_birth</t>
@@ -261,34 +342,37 @@
     <t>prepared_by</t>
   </si>
   <si>
-    <t>place_of_marriage</t>
-  </si>
-  <si>
-    <t>personnel_documents</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>nationalities</t>
   </si>
   <si>
     <t>department_id</t>
   </si>
   <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t>personnel_address</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>suguan</t>
   </si>
   <si>
     <t>sec_id</t>
   </si>
   <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>personnel_gov_id</t>
+    <t>position</t>
+  </si>
+  <si>
+    <t>events</t>
   </si>
   <si>
     <t>subsection_id</t>
   </si>
   <si>
-    <t>educational_background</t>
+    <t>department</t>
+  </si>
+  <si>
+    <t>reminders</t>
   </si>
   <si>
     <t>wedding_anniversary</t>
@@ -297,22 +381,22 @@
     <t>designation_id</t>
   </si>
   <si>
-    <t>contact_number</t>
-  </si>
-  <si>
-    <t>work_experience</t>
+    <t>section</t>
+  </si>
+  <si>
+    <t>audit_logs</t>
   </si>
   <si>
     <t>personnelstatus</t>
   </si>
   <si>
-    <t>church_duties</t>
-  </si>
-  <si>
-    <t>livelihood</t>
-  </si>
-  <si>
-    <t>departments</t>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>roles_permissions</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
   <si>
     <t>contact_info</t>
@@ -321,49 +405,31 @@
     <t>reason_for_leaving</t>
   </si>
   <si>
-    <t>local_congregation</t>
-  </si>
-  <si>
-    <t>sections</t>
-  </si>
-  <si>
     <t>email_address</t>
   </si>
   <si>
-    <t>district_id</t>
-  </si>
-  <si>
-    <t>subsections</t>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>enum</t>
   </si>
   <si>
     <t>government_id</t>
   </si>
   <si>
-    <t>minister_officiated</t>
-  </si>
-  <si>
-    <t>designations</t>
+    <t>start_year</t>
   </si>
   <si>
     <t>address_id</t>
   </si>
   <si>
-    <t>employment_type</t>
-  </si>
-  <si>
-    <t>enum(Self-employed, Employed, Government, Private)</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>nationalities</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>suguan</t>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
   </si>
   <si>
     <t>inc_status</t>
@@ -378,19 +444,16 @@
     <t>INT (PK)</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>events</t>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
   </si>
   <si>
     <t>INT (FK)</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>reminders</t>
+    <t>institution</t>
   </si>
   <si>
     <t>section_id</t>
@@ -402,10 +465,7 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>audit_logs</t>
+    <t>professional_licensure_examination</t>
   </si>
   <si>
     <t>file_name</t>
@@ -414,18 +474,9 @@
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>roles_permissions</t>
-  </si>
-  <si>
     <t>file_path</t>
   </si>
   <si>
-    <t>end_date</t>
-  </si>
-  <si>
     <t>datejoined</t>
   </si>
   <si>
@@ -444,21 +495,12 @@
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>education_level</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
     <t>assigned_number</t>
   </si>
   <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>start_year</t>
-  </si>
-  <si>
     <t>m_type</t>
   </si>
   <si>
@@ -471,9 +513,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>completion_year</t>
-  </si>
-  <si>
     <t>panunumpa_date</t>
   </si>
   <si>
@@ -483,33 +522,18 @@
     <t>ENUM ('active', 'expired')</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>ordination_date</t>
   </si>
   <si>
-    <t>field_of_study</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>professional_licensure_examination</t>
-  </si>
-  <si>
     <t>personnel_contacts</t>
   </si>
   <si>
     <t>varchar(250)</t>
   </si>
   <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
     <t>contactype</t>
   </si>
   <si>
@@ -522,9 +546,6 @@
     <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
   </si>
   <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
     <t>startfrom</t>
   </si>
   <si>
@@ -546,6 +567,9 @@
     <t>gampanin</t>
   </si>
   <si>
+    <t>country_name</t>
+  </si>
+  <si>
     <t>eventName</t>
   </si>
   <si>
@@ -561,40 +585,37 @@
     <t>locations</t>
   </si>
   <si>
-    <t>country_name</t>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>record_id</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>old_values</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>new_values</t>
   </si>
   <si>
     <t>ip_address</t>
@@ -1424,7 +1445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,26 +1476,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,6 +1510,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1493,9 +1520,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2045,8 +2069,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2056,7 +2080,7 @@
     <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="2.71428571428571" customWidth="1"/>
     <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
@@ -2209,20 +2233,20 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>11</v>
@@ -2230,16 +2254,16 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -2271,27 +2295,27 @@
         <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10" s="6">
         <v>5</v>
@@ -2306,22 +2330,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>5</v>
@@ -2332,67 +2362,75 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="11:12">
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="6">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="E15" s="10">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="6">
         <v>15</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1"/>
+    <row r="16" spans="5:9">
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="17" spans="8:9">
       <c r="H17" s="11" t="s">
         <v>5</v>
       </c>
@@ -2400,761 +2438,667 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="18" spans="8:12">
       <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="2:12">
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="K18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="8:12">
+      <c r="H19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="20">
+        <v>1</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="20" t="s">
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="4" t="s">
+      <c r="I20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="I21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="19">
-        <v>2</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="19">
+      <c r="K21" s="20">
         <v>3</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="22" spans="8:12">
       <c r="H22" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="20">
         <v>4</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="8:12">
+      <c r="H23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="20">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="20">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="I25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="19">
+      <c r="K25" s="20">
+        <v>7</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="E26" s="13">
+        <v>8</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="H26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="20">
+        <v>8</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="2:12">
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="20">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="19">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="19">
-        <v>7</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="20">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="19">
-        <v>8</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="2:12">
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="19">
-        <v>9</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="19">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="20">
         <v>11</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="20">
         <v>12</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="19">
+        <v>66</v>
+      </c>
+      <c r="K31" s="20">
         <v>13</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="20">
         <v>14</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="20">
         <v>15</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="20">
         <v>16</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="H35" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="20">
         <v>17</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="H36" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="20">
         <v>18</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="20">
         <v>19</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="19">
+        <v>99</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="20">
         <v>20</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="10">
-        <v>10</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="H39" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="19">
+      <c r="E39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="20">
         <v>21</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="H40" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="20">
         <v>22</v>
       </c>
-      <c r="K40" s="19">
-        <v>22</v>
-      </c>
       <c r="L40" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="19">
+        <v>61</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="20">
         <v>23</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="20">
+        <v>24</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" ht="19" customHeight="1" spans="2:12">
+      <c r="B43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="20">
+        <v>25</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="13" t="s">
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="19">
-        <v>24</v>
-      </c>
-      <c r="L42" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" ht="30" spans="2:12">
-      <c r="B43" s="4" t="s">
+      <c r="I44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="20">
+        <v>26</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="14" t="s">
+    </row>
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="19">
-        <v>25</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" ht="30" spans="2:12">
-      <c r="B44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" s="19">
-        <v>26</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" ht="30" spans="2:9">
-      <c r="B45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>74</v>
+      <c r="I45" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" ht="30" spans="2:9">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="2:9">
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>137</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>141</v>
+      <c r="E48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>6</v>
@@ -3162,39 +3106,31 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" ht="45" spans="2:9">
+    <row r="50" customHeight="1" spans="2:9">
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>150</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E50" s="15">
+        <v>10</v>
+      </c>
+      <c r="F50" s="15"/>
       <c r="H50" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>11</v>
@@ -3202,13 +3138,17 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="H51" s="11" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>11</v>
@@ -3216,228 +3156,258 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="10">
-        <v>11</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="H52" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="H53" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="5:9">
+    <row r="54" spans="2:9">
+      <c r="B54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E54" s="16" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="6">
-        <v>7</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="E55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>6</v>
+      <c r="B55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="1"/>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="3" t="s">
-        <v>14</v>
+      <c r="B58" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="10">
-        <v>12</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="15">
+        <v>11</v>
+      </c>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="6">
-        <v>13</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="6">
-        <v>14</v>
-      </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="H65" s="6">
         <v>16</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6">
+        <v>7</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="E66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>15</v>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="4" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>12</v>
@@ -3447,91 +3417,75 @@
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="4" t="s">
-        <v>147</v>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="E69" s="15">
+        <v>12</v>
+      </c>
+      <c r="F69" s="15"/>
       <c r="H69" s="4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1"/>
       <c r="H70" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>116</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9">
+      <c r="E73" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="H73" s="6">
         <v>17</v>
@@ -3539,30 +3493,20 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B74" s="6">
+        <v>13</v>
+      </c>
+      <c r="C74" s="6"/>
       <c r="H74" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="5:9">
-      <c r="E75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>74</v>
-      </c>
+    <row r="75" spans="2:9">
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
@@ -3570,13 +3514,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="5:9">
-      <c r="E76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>74</v>
-      </c>
+    <row r="76" spans="2:9">
+      <c r="B76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="6">
+        <v>14</v>
+      </c>
+      <c r="F76" s="6"/>
       <c r="H76" s="4" t="s">
         <v>12</v>
       </c>
@@ -3584,57 +3532,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="5:9">
-      <c r="E77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="77" spans="2:9">
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="6">
-        <v>22</v>
-      </c>
-      <c r="C78" s="6"/>
+      <c r="B78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H78" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="1"/>
+      <c r="B79" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H79" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="4" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="4" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="6">
@@ -3644,22 +3624,34 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="4" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>5</v>
@@ -3670,38 +3662,50 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="4" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="4" t="s">
-        <v>169</v>
+      <c r="B85" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>6</v>
+    <row r="86" spans="5:9">
+      <c r="E86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>12</v>
@@ -3710,71 +3714,87 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="8:9">
+    <row r="87" spans="5:9">
+      <c r="E87" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H87" s="4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9">
+      <c r="E88" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H88" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="6">
+        <v>22</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="H89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="4" t="s">
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="6">
-        <v>23</v>
-      </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H92" s="6">
         <v>19</v>
       </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="1"/>
+      <c r="B93" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>6</v>
@@ -3788,13 +3808,13 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="4" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>6</v>
@@ -3802,24 +3822,24 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>11</v>
+      <c r="B97" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
@@ -3828,36 +3848,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="2:3">
-      <c r="B98" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="98" ht="18" customHeight="1"/>
     <row r="99" spans="2:8">
-      <c r="B99" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>175</v>
-      </c>
+      <c r="B99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="1"/>
       <c r="H99">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="8:9">
+    <row r="100" spans="2:9">
+      <c r="B100" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="H100" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="1"/>
+      <c r="B101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
@@ -3865,60 +3884,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="23" t="s">
+    <row r="102" spans="8:9">
+      <c r="H102" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="6">
+        <v>23</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="H103" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="25">
-        <v>24</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="H105" s="10">
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="15">
         <v>21</v>
       </c>
-      <c r="I105" s="10"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" s="28"/>
+      <c r="B106" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>5</v>
@@ -3929,27 +3950,27 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>72</v>
+      <c r="B109" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>11</v>
@@ -3957,176 +3978,224 @@
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H111" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9">
+      <c r="H111" s="15">
         <v>25</v>
       </c>
-      <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="8:9">
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="8:9">
-      <c r="H113" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9">
-      <c r="H114" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>118</v>
+    <row r="113" spans="2:9">
+      <c r="B113" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="115" ht="30" spans="8:9">
-      <c r="H115" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" ht="30" spans="8:9">
-      <c r="H116" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9">
-      <c r="H117" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9">
-      <c r="H118" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="8:9">
-      <c r="H119" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="8:9">
-      <c r="H120" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="I120" s="14" t="s">
+      <c r="H115" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="121" spans="8:9">
-      <c r="H121" s="14" t="s">
+      <c r="I115" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" ht="30" spans="2:9">
+      <c r="B116" s="26">
+        <v>24</v>
+      </c>
+      <c r="C116" s="27"/>
+      <c r="H116" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="I121" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" ht="30" spans="8:9">
-      <c r="H122" s="14" t="s">
+      <c r="I116" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="29"/>
+      <c r="H117" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="I122" s="14" t="s">
+      <c r="I117" s="16" t="s">
         <v>190</v>
       </c>
     </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" ht="30" spans="2:9">
+      <c r="B122" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="123" spans="8:9">
-      <c r="H123" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>141</v>
+      <c r="H123" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="8:9">
-      <c r="H125" s="10">
+      <c r="H125" s="15">
         <v>26</v>
       </c>
-      <c r="I125" s="10"/>
+      <c r="I125" s="15"/>
     </row>
     <row r="126" spans="8:9">
       <c r="H126" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="8:9">
-      <c r="H127" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>115</v>
+      <c r="H127" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="8:9">
-      <c r="H128" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>118</v>
+      <c r="H128" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>123</v>
+      <c r="H129" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>195</v>
+      <c r="H130" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="8:9">
-      <c r="H131" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>118</v>
+      <c r="H131" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>137</v>
+      <c r="H132" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4142,48 +4211,48 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
     <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B93:C93"/>
     <mergeCell ref="H93:I93"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="H105:I105"/>
-    <mergeCell ref="B106:C106"/>
     <mergeCell ref="H106:I106"/>
     <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B112:C112"/>
     <mergeCell ref="H112:I112"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="H125:I125"/>
     <mergeCell ref="H126:I126"/>
   </mergeCells>
@@ -4211,7 +4280,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -4227,343 +4296,343 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4571,13 +4640,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4585,13 +4654,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4599,13 +4668,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4616,7 +4685,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4624,10 +4693,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="233">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -87,9 +87,6 @@
     <t>givenName</t>
   </si>
   <si>
-    <t>local_username</t>
-  </si>
-  <si>
     <t>user_agent</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t>homeDirectory</t>
   </si>
   <si>
-    <t>local_password</t>
+    <t>password</t>
   </si>
   <si>
     <t>varchar(255)</t>
@@ -135,7 +132,7 @@
     <t>sn</t>
   </si>
   <si>
-    <t>online_status</t>
+    <t>isLoggedIn</t>
   </si>
   <si>
     <t>updated_at</t>
@@ -222,6 +219,9 @@
     <t>civil_status</t>
   </si>
   <si>
+    <t>contact_type_info</t>
+  </si>
+  <si>
     <t>personnel_images</t>
   </si>
   <si>
@@ -231,111 +231,111 @@
     <t>date</t>
   </si>
   <si>
+    <t>bigint(20)(PK)</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
     <t>personnel_history</t>
   </si>
   <si>
-    <t>bigint(20)(PK)</t>
-  </si>
-  <si>
-    <t>place_of_marriage</t>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <t>int(FK)</t>
+  </si>
+  <si>
+    <t>citizenship</t>
   </si>
   <si>
     <t>personnel_documents</t>
   </si>
   <si>
-    <t>reference_number</t>
-  </si>
-  <si>
-    <t>int(FK)</t>
-  </si>
-  <si>
-    <t>citizenship</t>
+    <t>enrollment_progress</t>
+  </si>
+  <si>
+    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nationality</t>
   </si>
   <si>
     <t>personnel_address</t>
   </si>
   <si>
-    <t>enrollment_progress</t>
-  </si>
-  <si>
-    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>nationality</t>
+    <t>personnel_progress</t>
+  </si>
+  <si>
+    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t>personnel_gov_id</t>
   </si>
   <si>
-    <t>personnel_progress</t>
-  </si>
-  <si>
-    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
+    <t>contact_number</t>
   </si>
   <si>
     <t>educational_background</t>
   </si>
   <si>
-    <t>contact_number</t>
+    <t>middlname</t>
+  </si>
+  <si>
+    <t>church_duties</t>
   </si>
   <si>
     <t>work_experience</t>
   </si>
   <si>
-    <t>middlname</t>
-  </si>
-  <si>
-    <t>church_duties</t>
-  </si>
-  <si>
     <t>livelihood</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
+  </si>
+  <si>
     <t>departments</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>local_congregation</t>
+    <t>district_id</t>
   </si>
   <si>
     <t>sections</t>
   </si>
   <si>
-    <t>district_id</t>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>minister_officiated</t>
   </si>
   <si>
     <t>subsections</t>
   </si>
   <si>
-    <t>languages</t>
-  </si>
-  <si>
-    <t>minister_officiated</t>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
   </si>
   <si>
     <t>designations</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>employment_type</t>
-  </si>
-  <si>
-    <t>enum(Self-employed, Employed, Government, Private)</t>
-  </si>
-  <si>
     <t>place_of_birth</t>
   </si>
   <si>
@@ -345,60 +345,66 @@
     <t>company</t>
   </si>
   <si>
+    <t>enum('Male', 'Female')</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>nationalities</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>address</t>
+    <t>sec_id</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
   <si>
     <t>suguan</t>
   </si>
   <si>
-    <t>sec_id</t>
-  </si>
-  <si>
-    <t>position</t>
+    <t>enum('Single', 'Married', 'Divorced')</t>
+  </si>
+  <si>
+    <t>subsection_id</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
   <si>
     <t>events</t>
   </si>
   <si>
-    <t>subsection_id</t>
-  </si>
-  <si>
-    <t>department</t>
+    <t>wedding_anniversary</t>
+  </si>
+  <si>
+    <t>designation_id</t>
+  </si>
+  <si>
+    <t>section</t>
   </si>
   <si>
     <t>reminders</t>
   </si>
   <si>
-    <t>wedding_anniversary</t>
-  </si>
-  <si>
-    <t>designation_id</t>
-  </si>
-  <si>
-    <t>section</t>
+    <t>personnelstatus</t>
+  </si>
+  <si>
+    <t>start_date</t>
   </si>
   <si>
     <t>audit_logs</t>
   </si>
   <si>
-    <t>personnelstatus</t>
-  </si>
-  <si>
-    <t>start_date</t>
+    <t>end_date</t>
   </si>
   <si>
     <t>roles_permissions</t>
   </si>
   <si>
-    <t>end_date</t>
-  </si>
-  <si>
     <t>contact_info</t>
   </si>
   <si>
@@ -534,10 +540,7 @@
     <t>int(PK)</t>
   </si>
   <si>
-    <t>contactype</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
+    <t>contactype_id</t>
   </si>
   <si>
     <t>level</t>
@@ -564,64 +567,64 @@
     <t>gampanin_id</t>
   </si>
   <si>
+    <t>country_name</t>
+  </si>
+  <si>
     <t>gampanin</t>
   </si>
   <si>
-    <t>country_name</t>
-  </si>
-  <si>
     <t>eventName</t>
   </si>
   <si>
+    <t>log_id</t>
+  </si>
+  <si>
     <t>location_id</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>recurrence</t>
   </si>
   <si>
     <t>VARCHAR(20)</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
     <t>locations</t>
   </si>
   <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
     <t>record_id</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>old_values</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>new_values</t>
-  </si>
-  <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
   </si>
   <si>
     <t>role_permission_id</t>
@@ -1445,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,17 +1479,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1510,7 +1507,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2069,8 +2084,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2233,20 +2248,20 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>11</v>
@@ -2254,25 +2269,25 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>11</v>
@@ -2280,42 +2295,42 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="6">
         <v>5</v>
@@ -2330,28 +2345,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>5</v>
@@ -2362,19 +2377,19 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>6</v>
@@ -2382,19 +2397,19 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>11</v>
@@ -2402,16 +2417,16 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H15" s="6">
         <v>15</v>
@@ -2420,72 +2435,72 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12">
-      <c r="H18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="19" t="s">
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="8:12">
+      <c r="H19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="8:12">
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="20">
-        <v>1</v>
-      </c>
-      <c r="L19" s="21" t="s">
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="8:12">
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="18">
+        <v>2</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12">
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="20">
+      <c r="K21" s="18">
         <v>3</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -2493,13 +2508,13 @@
       </c>
     </row>
     <row r="22" spans="8:12">
-      <c r="H22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="20">
+      <c r="H22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="18">
         <v>4</v>
       </c>
       <c r="L22" s="7" t="s">
@@ -2507,45 +2522,45 @@
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="20">
+      <c r="H23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="18">
         <v>5</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="8:12">
       <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" s="18">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K24" s="20">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K25" s="20">
         <v>7</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>62</v>
+      <c r="L25" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2553,43 +2568,43 @@
         <v>6</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="E26" s="13">
+      <c r="E26" s="6">
         <v>8</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="6"/>
       <c r="H26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="20">
         <v>8</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>64</v>
+      <c r="L26" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:12">
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="18">
         <v>9</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -2597,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -2605,22 +2620,22 @@
       <c r="F28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="18">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="20">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -2629,148 +2644,148 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="18">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="20">
-        <v>11</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="18">
+        <v>12</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="20">
-        <v>12</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="18">
+        <v>13</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="20">
-        <v>13</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="18">
+        <v>14</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="20">
-        <v>14</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="18">
+        <v>15</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="20">
-        <v>15</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="20">
+      <c r="I34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="18">
         <v>16</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>11</v>
@@ -2779,46 +2794,46 @@
         <v>9</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="18">
+        <v>17</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="20">
-        <v>17</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="18">
+        <v>18</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="20">
-        <v>18</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>11</v>
@@ -2829,25 +2844,25 @@
       <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="18">
+        <v>19</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="20">
-        <v>19</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>14</v>
@@ -2855,17 +2870,17 @@
       <c r="F38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="K38" s="18">
+        <v>20</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="K38" s="20">
-        <v>20</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:12">
@@ -2881,25 +2896,25 @@
       <c r="F39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="20">
+      <c r="I39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="18">
         <v>21</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>106</v>
@@ -2907,13 +2922,13 @@
       <c r="F40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="20">
+      <c r="I40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="18">
         <v>22</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -2922,10 +2937,10 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>109</v>
@@ -2933,13 +2948,13 @@
       <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="20">
+      <c r="I41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="18">
         <v>23</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -2948,85 +2963,85 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="20">
+      <c r="H42" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="18">
         <v>24</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="2:12">
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="20">
+      <c r="H43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="18">
         <v>25</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="14" t="s">
+      <c r="H44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="18">
         <v>26</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:12">
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>6</v>
@@ -3037,141 +3052,147 @@
       <c r="F45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>66</v>
+      </c>
+      <c r="K45" s="18">
+        <v>27</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="2:9">
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>127</v>
+      <c r="H47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="B50" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="13">
         <v>10</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="H50" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="11" t="s">
+      <c r="F50" s="13"/>
+      <c r="H50" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="H51" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="H51" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="E52" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="F52" s="14" t="s">
         <v>139</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3179,188 +3200,188 @@
         <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="F53" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="E54" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="F54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55" s="11" t="s">
+      <c r="E55" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>33</v>
+      <c r="E56" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>140</v>
+        <v>98</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="16" t="s">
         <v>154</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>156</v>
+      <c r="E59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="16" t="s">
         <v>160</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>163</v>
+        <v>98</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="15">
-        <v>11</v>
-      </c>
-      <c r="F63" s="15"/>
+      <c r="E63" s="13">
+        <v>11</v>
+      </c>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="5:9">
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H65" s="6">
@@ -3380,26 +3401,26 @@
         <v>6</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>166</v>
+      <c r="F67" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3423,53 +3444,53 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="13">
         <v>12</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="13"/>
       <c r="H69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F70" s="1"/>
       <c r="H70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="5:6">
@@ -3480,12 +3501,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="5:9">
-      <c r="E73" s="22" t="s">
+    <row r="73" spans="2:9">
+      <c r="B73" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="E73" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>166</v>
+      <c r="F73" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="H73" s="6">
         <v>17</v>
@@ -3493,20 +3518,24 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="6">
-        <v>13</v>
-      </c>
-      <c r="C74" s="6"/>
+      <c r="B74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="1"/>
+      <c r="B75" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
@@ -3514,13 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="76" spans="5:9">
       <c r="E76" s="6">
         <v>14</v>
       </c>
@@ -3532,31 +3555,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="77" spans="5:9">
       <c r="E77" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9">
       <c r="E78" s="4" t="s">
         <v>5</v>
       </c>
@@ -3564,19 +3575,17 @@
         <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B79" s="6">
+        <v>13</v>
+      </c>
+      <c r="C79" s="6"/>
       <c r="E79" s="3" t="s">
         <v>14</v>
       </c>
@@ -3584,32 +3593,30 @@
         <v>6</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="E80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="4" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>104</v>
@@ -3623,29 +3630,29 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="4" t="s">
-        <v>133</v>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>110</v>
@@ -3662,13 +3669,13 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>11</v>
@@ -3681,28 +3688,34 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="18" t="s">
-        <v>173</v>
+      <c r="B85" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="5:9">
+    <row r="86" spans="2:9">
+      <c r="B86" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E86" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>66</v>
@@ -3714,91 +3727,85 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="5:9">
+    <row r="87" spans="2:9">
+      <c r="B87" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E87" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="5:9">
-      <c r="E88" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="6">
-        <v>22</v>
-      </c>
-      <c r="C89" s="6"/>
+      <c r="B89" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H89" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B90" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9">
       <c r="H92" s="6">
         <v>19</v>
       </c>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="93" spans="8:9">
       <c r="H93" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B94" s="6">
+        <v>22</v>
+      </c>
+      <c r="C94" s="6"/>
       <c r="H94" s="4" t="s">
         <v>5</v>
       </c>
@@ -3807,14 +3814,12 @@
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="B95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="1"/>
       <c r="H95" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>6</v>
@@ -3822,24 +3827,24 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="4" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>6</v>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
@@ -3848,34 +3853,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" ht="18" customHeight="1"/>
+    <row r="98" ht="18" customHeight="1" spans="2:3">
+      <c r="B98" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="1"/>
+      <c r="B99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H99">
         <v>20</v>
       </c>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>6</v>
+      <c r="B100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="4" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
@@ -3884,7 +3898,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="8:9">
+    <row r="102" spans="2:9">
+      <c r="B102" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H102" s="4" t="s">
         <v>179</v>
       </c>
@@ -3892,13 +3912,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="6">
-        <v>23</v>
-      </c>
-      <c r="C103" s="6"/>
+    <row r="103" spans="8:9">
       <c r="H103" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>11</v>
@@ -3906,41 +3922,35 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="15">
+      <c r="C105" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="13">
         <v>21</v>
       </c>
-      <c r="I105" s="15"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="4" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="107" spans="8:9">
       <c r="H107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3949,12 +3959,10 @@
       </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B108" s="6">
+        <v>23</v>
+      </c>
+      <c r="C108" s="6"/>
       <c r="H108" s="4" t="s">
         <v>179</v>
       </c>
@@ -3963,14 +3971,12 @@
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="B109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="1"/>
       <c r="H109" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>11</v>
@@ -3978,228 +3984,260 @@
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="13">
+        <v>25</v>
+      </c>
+      <c r="I111" s="13"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="I113" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="29" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="111" spans="8:9">
-      <c r="H111" s="15">
-        <v>25</v>
-      </c>
-      <c r="I111" s="15"/>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="1" t="s">
+      <c r="C114" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="H112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="25" t="s">
+      <c r="I114" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" ht="30" spans="2:9">
+      <c r="B115" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" ht="30" spans="8:9">
+      <c r="H116" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="H117" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I114" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" ht="30" spans="8:9">
-      <c r="H115" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I115" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" ht="30" spans="2:9">
-      <c r="B116" s="26">
-        <v>24</v>
-      </c>
-      <c r="C116" s="27"/>
-      <c r="H116" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="I116" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="29"/>
-      <c r="H117" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I117" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I118" s="16" t="s">
-        <v>154</v>
+      <c r="C118" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="4" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" s="16" t="s">
+      <c r="H119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9">
+      <c r="H120" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="30">
+        <v>24</v>
+      </c>
+      <c r="C121" s="31"/>
+      <c r="H121" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" ht="30" spans="2:9">
+      <c r="B122" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="33"/>
+      <c r="H122" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H125" s="13">
+        <v>26</v>
+      </c>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9">
+      <c r="H128" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" ht="30" spans="8:9">
+      <c r="H129" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" ht="75" spans="8:9">
+      <c r="H130" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9">
+      <c r="H131" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9">
+      <c r="H132" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I132" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H120" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="I120" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I121" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="122" ht="30" spans="2:9">
-      <c r="B122" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H122" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I122" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="8:9">
-      <c r="H123" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="8:9">
-      <c r="H125" s="15">
-        <v>26</v>
-      </c>
-      <c r="I125" s="15"/>
-    </row>
-    <row r="126" spans="8:9">
-      <c r="H126" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="8:9">
-      <c r="H127" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I127" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="8:9">
-      <c r="H128" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="I128" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I129" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I130" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" spans="8:9">
-      <c r="H131" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I131" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="8:9">
-      <c r="H132" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I132" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4230,29 +4268,30 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B74:C74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B75:C75"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
     <mergeCell ref="H92:I92"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="H105:I105"/>
     <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B112:C112"/>
     <mergeCell ref="H112:I112"/>
-    <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="H125:I125"/>
     <mergeCell ref="H126:I126"/>
   </mergeCells>
@@ -4280,7 +4319,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -4296,112 +4335,112 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4412,48 +4451,48 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
@@ -4461,101 +4500,101 @@
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -4566,48 +4605,48 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>66</v>
@@ -4615,24 +4654,24 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4640,13 +4679,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4654,13 +4693,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4668,13 +4707,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4682,10 +4721,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4693,10 +4732,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -1448,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,9 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1525,9 +1522,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1541,12 +1535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2084,8 +2072,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2581,7 +2569,7 @@
       <c r="K26" s="20">
         <v>8</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3378,10 +3366,10 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="5:9">
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H65" s="6">
@@ -3410,10 +3398,10 @@
         <v>167</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="22" t="s">
         <v>168</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -3483,7 +3471,7 @@
       <c r="E71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -3502,14 +3490,14 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="E73" s="23" t="s">
+      <c r="C73" s="24"/>
+      <c r="E73" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="22" t="s">
         <v>168</v>
       </c>
       <c r="H73" s="6">
@@ -3518,10 +3506,10 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -3530,10 +3518,10 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -3899,10 +3887,10 @@
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -3927,10 +3915,10 @@
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H105" s="13">
@@ -4029,10 +4017,10 @@
       </c>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="14" t="s">
@@ -4077,10 +4065,10 @@
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H118" s="14" t="s">
@@ -4113,10 +4101,10 @@
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="30">
+      <c r="B121" s="28">
         <v>24</v>
       </c>
-      <c r="C121" s="31"/>
+      <c r="C121" s="29"/>
       <c r="H121" s="14" t="s">
         <v>194</v>
       </c>
@@ -4125,10 +4113,10 @@
       </c>
     </row>
     <row r="122" ht="30" spans="2:9">
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="33"/>
+      <c r="C122" s="24"/>
       <c r="H122" s="14" t="s">
         <v>195</v>
       </c>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowWidth="21000" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="233">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -2072,8 +2072,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3482,11 +3482,11 @@
       </c>
     </row>
     <row r="72" spans="5:6">
-      <c r="E72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>6</v>
+      <c r="E72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3494,12 +3494,6 @@
         <v>63</v>
       </c>
       <c r="C73" s="24"/>
-      <c r="E73" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="H73" s="6">
         <v>17</v>
       </c>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11130"/>
+    <workbookView windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="245">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -727,6 +728,42 @@
   </si>
   <si>
     <t>lalabas lang itong date kung ang personnel_type ay Ministro)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Pangalan</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Nag-akay</t>
+  </si>
+  <si>
+    <t>Kulang na Requirements</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>enrolled</t>
+  </si>
+  <si>
+    <t>Kleng Simbulan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Eric Simbulan</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1485,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,8 +2118,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2098,428 +2144,428 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="2:15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6">
+      <c r="F2" s="9"/>
+      <c r="H2" s="9">
         <v>3</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6">
+      <c r="I2" s="9"/>
+      <c r="K2" s="9">
         <v>4</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="9">
         <v>5</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="9">
         <v>15</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="8:9">
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="8:12">
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="I18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="21">
         <v>1</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="8:12">
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="I20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="21">
         <v>2</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="8:12">
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="21">
         <v>3</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="8:12">
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="18">
+      <c r="I22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="21">
         <v>4</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="21">
         <v>5</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2530,1324 +2576,1324 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="18">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="K24" s="21">
+        <v>6</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="8:12">
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="23">
         <v>7</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="6">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="E26" s="6">
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="E26" s="9">
         <v>8</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="9"/>
+      <c r="H26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="23">
         <v>8</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:12">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="C27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="4"/>
+      <c r="H27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="21">
         <v>9</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="18">
+      <c r="I28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="21">
         <v>10</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="18">
-        <v>11</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="I29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="21">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="18">
+      <c r="I30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="21">
         <v>12</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="21">
         <v>13</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="18">
+      <c r="I32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="21">
         <v>14</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="18">
+      <c r="I33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="21">
         <v>15</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="18">
+      <c r="I34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="21">
         <v>16</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9">
         <v>9</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="H35" s="10" t="s">
+      <c r="F35" s="9"/>
+      <c r="H35" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="18">
+      <c r="I35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="21">
         <v>17</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="H36" s="10" t="s">
+      <c r="F36" s="4"/>
+      <c r="H36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="18">
+      <c r="I36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="21">
         <v>18</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="F37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="18">
+      <c r="I37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="21">
         <v>19</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="F38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="21">
         <v>20</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="F39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="18">
+      <c r="I39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="21">
         <v>21</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="F40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="21">
         <v>22</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="F41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="18">
+      <c r="I41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="21">
         <v>23</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="12" t="s">
+      <c r="F42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="18">
+      <c r="I42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="21">
         <v>24</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="2:12">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="F43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="18">
+      <c r="I43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="21">
         <v>25</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="21">
         <v>26</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:12">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="21">
         <v>27</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="2:9">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="C47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="C50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="16">
         <v>10</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="H50" s="10" t="s">
+      <c r="F50" s="16"/>
+      <c r="H50" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="H51" s="10" t="s">
+      <c r="F51" s="4"/>
+      <c r="H51" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="13">
-        <v>11</v>
-      </c>
-      <c r="F63" s="13"/>
+      <c r="E63" s="16">
+        <v>11</v>
+      </c>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="5:9">
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="6">
+      <c r="F65" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="9">
         <v>16</v>
       </c>
-      <c r="I65" s="6"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="6">
+      <c r="B66" s="9">
         <v>7</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="E66" s="3" t="s">
+      <c r="C66" s="9"/>
+      <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="F66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="E67" s="22" t="s">
+      <c r="C67" s="4"/>
+      <c r="E67" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="13">
+      <c r="C69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="16">
         <v>12</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="H69" s="4" t="s">
+      <c r="F69" s="16"/>
+      <c r="H69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="C70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="H70" s="4" t="s">
+      <c r="F70" s="4"/>
+      <c r="H70" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="4" t="s">
+      <c r="F71" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="5:6">
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="H73" s="6">
+      <c r="C73" s="27"/>
+      <c r="H73" s="9">
         <v>17</v>
       </c>
-      <c r="I73" s="6"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="C74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="5:9">
-      <c r="E76" s="6">
+      <c r="E76" s="9">
         <v>14</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="H76" s="4" t="s">
+      <c r="F76" s="9"/>
+      <c r="H76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="5:9">
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="H77" s="4" t="s">
+      <c r="F77" s="4"/>
+      <c r="H77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="5:9">
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="6">
+      <c r="B79" s="9">
         <v>13</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="E79" s="3" t="s">
+      <c r="C79" s="9"/>
+      <c r="E79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="4" t="s">
+      <c r="F79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="E80" s="4" t="s">
+      <c r="C80" s="4"/>
+      <c r="E80" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="6">
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="9">
         <v>18</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="C82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="1"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="4" t="s">
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="4" t="s">
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="C85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="4" t="s">
+      <c r="F85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="C87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="4" t="s">
+      <c r="C89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="92" spans="8:9">
-      <c r="H92" s="6">
+      <c r="H92" s="9">
         <v>19</v>
       </c>
-      <c r="I92" s="6"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="8:9">
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I93" s="1"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="6">
+      <c r="B94" s="9">
         <v>22</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="H94" s="4" t="s">
+      <c r="C94" s="9"/>
+      <c r="H94" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="H95" s="4" t="s">
+      <c r="C95" s="4"/>
+      <c r="H95" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="4" t="s">
+      <c r="C96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="4" t="s">
+      <c r="C97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:3">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H99">
@@ -3855,366 +3901,366 @@
       </c>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I100" s="1"/>
+      <c r="I100" s="4"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="4" t="s">
+      <c r="C102" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="8:9">
-      <c r="H103" s="4" t="s">
+      <c r="H103" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="13">
+      <c r="C105" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="16">
         <v>21</v>
       </c>
-      <c r="I105" s="13"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="1" t="s">
+      <c r="C106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I106" s="1"/>
+      <c r="I106" s="4"/>
     </row>
     <row r="107" spans="8:9">
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I107" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="6">
+      <c r="B108" s="9">
         <v>23</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="H108" s="4" t="s">
+      <c r="C108" s="9"/>
+      <c r="H108" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="H109" s="4" t="s">
+      <c r="C109" s="4"/>
+      <c r="H109" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="2:9">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="13">
+      <c r="C111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="16">
         <v>25</v>
       </c>
-      <c r="I111" s="13"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="1" t="s">
+      <c r="C112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I112" s="1"/>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="14" t="s">
+      <c r="C113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="I113" s="14" t="s">
+      <c r="I113" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H114" s="14" t="s">
+      <c r="C114" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="I114" s="14" t="s">
+      <c r="I114" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="115" ht="30" spans="2:9">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I115" s="14" t="s">
+      <c r="I115" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" ht="30" spans="8:9">
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I116" s="14" t="s">
+      <c r="I116" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="H117" s="14" t="s">
+      <c r="C117" s="4"/>
+      <c r="H117" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="I117" s="14" t="s">
+      <c r="I117" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="14" t="s">
+      <c r="C118" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I118" s="14" t="s">
+      <c r="I118" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="14" t="s">
+      <c r="C119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I119" s="14" t="s">
+      <c r="I119" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120" spans="8:9">
-      <c r="H120" s="14" t="s">
+      <c r="H120" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="I120" s="14" t="s">
+      <c r="I120" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="28">
+      <c r="B121" s="31">
         <v>24</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="H121" s="14" t="s">
+      <c r="C121" s="32"/>
+      <c r="H121" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I121" s="14" t="s">
+      <c r="I121" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="122" ht="30" spans="2:9">
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="H122" s="14" t="s">
+      <c r="C122" s="27"/>
+      <c r="H122" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I122" s="14" t="s">
+      <c r="I122" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="14" t="s">
+      <c r="C123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="14" t="s">
+      <c r="I123" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H125" s="13">
+      <c r="H125" s="16">
         <v>26</v>
       </c>
-      <c r="I125" s="13"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I126" s="1"/>
+      <c r="I126" s="4"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H127" s="14" t="s">
+      <c r="H127" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="I127" s="14" t="s">
+      <c r="I127" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="128" spans="8:9">
-      <c r="H128" s="14" t="s">
+      <c r="H128" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="I129" s="14" t="s">
+      <c r="I129" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="I130" s="14" t="s">
+      <c r="I130" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="131" spans="8:9">
-      <c r="H131" s="14" t="s">
+      <c r="H131" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I131" s="14" t="s">
+      <c r="I131" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I132" s="14" t="s">
+      <c r="I132" s="17" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4300,345 +4346,345 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C32" t="s">
@@ -4646,82 +4692,82 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>229</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>230</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>232</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4730,4 +4776,267 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="24.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="2"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="245">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -406,301 +406,301 @@
     <t>roles_permissions</t>
   </si>
   <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>reason_for_leaving</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>datejoined</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>professional_licensure_examination</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>m_type</t>
+  </si>
+  <si>
+    <t>enum('May Destino', 'Fulltime')</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>uploaded_by</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM ('active', 'expired')</t>
+  </si>
+  <si>
+    <t>personnel_contacts</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
+    <t>contactype_id</t>
+  </si>
+  <si>
     <t>contact_info</t>
   </si>
   <si>
-    <t>reason_for_leaving</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>education_level</t>
-  </si>
-  <si>
-    <t>enum</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
+  </si>
+  <si>
+    <t>startfrom</t>
+  </si>
+  <si>
+    <t>Professional Licensure Examination</t>
+  </si>
+  <si>
+    <t>disctrict_id</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>gampanin_id</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>role_permission_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>permission_type</t>
+  </si>
+  <si>
+    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
+  </si>
+  <si>
+    <t>granted_by</t>
+  </si>
+  <si>
+    <t>granted_date</t>
+  </si>
+  <si>
+    <t>auto generated itong reference number ang format ay date + personnel_id example = 11032024_1</t>
+  </si>
+  <si>
+    <t>gagamitin ito para mabacktruck kung saan step na siya ng enrollment, pwede mong baguhin ang enum value depende sa dami ng step na magagawa natin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gagamitin ito kung sino na ang kumausap sa ka niya </t>
+  </si>
+  <si>
+    <t>given name gumamit tayo ng textbox</t>
+  </si>
+  <si>
+    <t>textbox din</t>
+  </si>
+  <si>
+    <t>dropdown ito, iload mo dito lahat ng language sa mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>radio button</t>
+  </si>
+  <si>
+    <t>dropdown ito, iload mo ang lahat ng bloodtype ng tao</t>
+  </si>
+  <si>
+    <t>dropdown, iload ang lahat ang civil status(Single,Married,  Divorced</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa citizenship table(gagamitin tayo ditong API)</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa nationalities table(gagamitin tayo ditong API)</t>
+  </si>
+  <si>
+    <t>gamit ang personal_contact table, ififillup doon ang contact, uri ng contact(kung facebook ba, cp number at iba pa)</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>government_id</t>
   </si>
   <si>
-    <t>start_year</t>
+    <t>dropdown ito mula sa personnel_gov_id table</t>
   </si>
   <si>
     <t>address_id</t>
   </si>
   <si>
-    <t>completion_year</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>field_of_study</t>
+    <t>dropdown ito mula sa personnel_address table</t>
+  </si>
+  <si>
+    <t>textbox ito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropdown ito mula sa district table gagamitin din tayo ng API </t>
   </si>
   <si>
     <t>inc_status</t>
   </si>
   <si>
     <t>enum(Active, Non-Active)</t>
-  </si>
-  <si>
-    <t>document_id</t>
-  </si>
-  <si>
-    <t>INT (PK)</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>INT (FK)</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>document_type</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>professional_licensure_examination</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>datejoined</t>
-  </si>
-  <si>
-    <t>uploaded_by</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
-  </si>
-  <si>
-    <t>upload_date</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>assigned_number</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>m_type</t>
-  </si>
-  <si>
-    <t>enum('May Destino', 'Fulltime')</t>
-  </si>
-  <si>
-    <t>expiration_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ENUM ('active', 'expired')</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>personnel_contacts</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
-    <t>contactype_id</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
-  </si>
-  <si>
-    <t>startfrom</t>
-  </si>
-  <si>
-    <t>Professional Licensure Examination</t>
-  </si>
-  <si>
-    <t>disctrict_id</t>
-  </si>
-  <si>
-    <t>local_id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>gampanin_id</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>recurrence</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>locations</t>
-  </si>
-  <si>
-    <t>record_id</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>old_values</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>new_values</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>role_permission_id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>permission_type</t>
-  </si>
-  <si>
-    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
-  </si>
-  <si>
-    <t>granted_by</t>
-  </si>
-  <si>
-    <t>granted_date</t>
-  </si>
-  <si>
-    <t>auto generated itong reference number ang format ay date + personnel_id example = 11032024_1</t>
-  </si>
-  <si>
-    <t>gagamitin ito para mabacktruck kung saan step na siya ng enrollment, pwede mong baguhin ang enum value depende sa dami ng step na magagawa natin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gagamitin ito kung sino na ang kumausap sa ka niya </t>
-  </si>
-  <si>
-    <t>given name gumamit tayo ng textbox</t>
-  </si>
-  <si>
-    <t>textbox din</t>
-  </si>
-  <si>
-    <t>dropdown ito, iload mo dito lahat ng language sa mundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date </t>
-  </si>
-  <si>
-    <t>radio button</t>
-  </si>
-  <si>
-    <t>dropdown ito, iload mo ang lahat ng bloodtype ng tao</t>
-  </si>
-  <si>
-    <t>dropdown, iload ang lahat ang civil status(Single,Married,  Divorced</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa citizenship table(gagamitin tayo ditong API)</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa nationalities table(gagamitin tayo ditong API)</t>
-  </si>
-  <si>
-    <t>gamit ang personal_contact table, ififillup doon ang contact, uri ng contact(kung facebook ba, cp number at iba pa)</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa personnel_gov_id table</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa personnel_address table</t>
-  </si>
-  <si>
-    <t>textbox ito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropdown ito mula sa district table gagamitin din tayo ng API </t>
   </si>
   <si>
     <t>dropdown ito mula sa deparments table gamit din API</t>
@@ -1485,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,13 +1507,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2118,8 +2112,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48:Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2144,40 +2138,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="2:15">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="9">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9">
+      <c r="C2" s="2"/>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9">
+      <c r="F2" s="2"/>
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="9">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2">
         <v>4</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="4" t="s">
@@ -2198,190 +2192,190 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -2390,88 +2384,88 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2480,92 +2474,92 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="8:9">
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="8:12">
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="19">
         <v>1</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="8:12">
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="I20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="19">
         <v>2</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="8:12">
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="19">
         <v>3</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="8:12">
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="21">
+      <c r="I22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="19">
         <v>4</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="19">
         <v>5</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2576,46 +2570,46 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="21">
-        <v>6</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="K24" s="19">
+        <v>6</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="8:12">
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="21">
         <v>7</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="9">
-        <v>6</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="E26" s="9">
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="H26" s="7" t="s">
+      <c r="F26" s="2"/>
+      <c r="H26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="21">
         <v>8</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2628,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="19">
         <v>9</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2645,793 +2639,767 @@
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="21">
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="19">
         <v>10</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="21">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="I29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="19">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="21">
+      <c r="I30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="19">
         <v>12</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="19">
         <v>13</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="21">
+      <c r="I32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="19">
         <v>14</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="21">
+      <c r="I33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="19">
         <v>15</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="21">
+      <c r="I34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="19">
         <v>16</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
         <v>9</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="H35" s="13" t="s">
+      <c r="F35" s="2"/>
+      <c r="H35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="21">
+      <c r="I35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="19">
         <v>17</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="21">
+      <c r="I36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="19">
         <v>18</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="21">
+      <c r="I37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="19">
         <v>19</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="F38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <v>20</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="21">
+      <c r="I39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="19">
         <v>21</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="15" t="s">
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="19">
         <v>22</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="15" t="s">
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="21">
+      <c r="I41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="19">
         <v>23</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="F42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="21">
+      <c r="I42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="19">
         <v>24</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="2:12">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="F43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="21">
+      <c r="I43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="19">
         <v>25</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="19">
         <v>26</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:12">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="19">
         <v>27</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="2:9">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="I47" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="7" t="s">
+      <c r="I48" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="13" t="s">
+      <c r="I49" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="7" t="s">
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="14">
+        <v>10</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="H50" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:9">
-      <c r="B50" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="16">
-        <v>10</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="H50" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="7" t="s">
+      <c r="H52" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="I52" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="17" t="s">
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="C53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H53" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I53" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="18" t="s">
+      <c r="C54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="E54" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="7" t="s">
+      <c r="F54" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="17" t="s">
+      <c r="H54" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="I54" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="H55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="C56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="C59" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H56" s="13" t="s">
+      <c r="E59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="C60" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="17" t="s">
+      <c r="E60" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="7" t="s">
+      <c r="F60" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="7" t="s">
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="F61" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="16">
-        <v>11</v>
-      </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" s="14">
+        <v>11</v>
+      </c>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="5:6">
       <c r="E64" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="5:9">
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="9">
+      <c r="F65" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2">
         <v>16</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="9">
+      <c r="B66" s="2">
         <v>7</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="2"/>
       <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3441,33 +3409,33 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="F67" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>169</v>
+      <c r="I67" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3475,81 +3443,87 @@
       <c r="B69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="16">
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="14">
         <v>12</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="H69" s="7" t="s">
+      <c r="F69" s="14"/>
+      <c r="H69" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="B71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="F71" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="5:6">
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="E73" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="H73" s="9">
+      <c r="F73" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="2">
         <v>17</v>
       </c>
-      <c r="I73" s="9"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="4" t="s">
@@ -3558,28 +3532,28 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="5:9">
-      <c r="E76" s="9">
+      <c r="E76" s="2">
         <v>14</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="H76" s="7" t="s">
+      <c r="F76" s="2"/>
+      <c r="H76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3588,42 +3562,42 @@
         <v>88</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="5:9">
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="9">
+      <c r="B79" s="2">
         <v>13</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="2"/>
       <c r="E79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="F79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3632,42 +3606,42 @@
         <v>85</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="9">
+      <c r="F81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="2">
         <v>18</v>
       </c>
-      <c r="I81" s="9"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -3676,152 +3650,152 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="B83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="7" t="s">
+      <c r="F83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="B84" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="F84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="C87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="7" t="s">
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="92" spans="8:9">
-      <c r="H92" s="9">
+      <c r="H92" s="2">
         <v>19</v>
       </c>
-      <c r="I92" s="9"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="8:9">
       <c r="H93" s="4" t="s">
@@ -3830,14 +3804,14 @@
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="9">
+      <c r="B94" s="2">
         <v>22</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="H94" s="7" t="s">
+      <c r="C94" s="2"/>
+      <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3846,54 +3820,54 @@
         <v>111</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="H95" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I95" s="7" t="s">
+      <c r="H95" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="7" t="s">
+      <c r="C96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="C97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:3">
-      <c r="B98" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C99" s="7" t="s">
+      <c r="B99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H99">
@@ -3901,10 +3875,10 @@
       </c>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -3913,64 +3887,64 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I102" s="7" t="s">
+      <c r="B102" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="8:9">
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="16">
+      <c r="C105" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="14">
         <v>21</v>
       </c>
-      <c r="I105" s="16"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="4" t="s">
@@ -3979,22 +3953,22 @@
       <c r="I106" s="4"/>
     </row>
     <row r="107" spans="8:9">
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="9">
+      <c r="B108" s="2">
         <v>23</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="H108" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I108" s="7" t="s">
+      <c r="C108" s="2"/>
+      <c r="H108" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4003,38 +3977,38 @@
         <v>115</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="2:9">
-      <c r="B111" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="16">
+      <c r="B111" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="14">
         <v>25</v>
       </c>
-      <c r="I111" s="16"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H112" s="4" t="s">
@@ -4043,166 +4017,166 @@
       <c r="I112" s="4"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="17" t="s">
+      <c r="B113" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" ht="30" spans="2:9">
+      <c r="B115" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I113" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="30" t="s">
+      <c r="H115" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H114" s="17" t="s">
+      <c r="I115" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" ht="30" spans="8:9">
+      <c r="H116" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I114" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" ht="30" spans="2:9">
-      <c r="B115" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H115" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" ht="30" spans="8:9">
-      <c r="H116" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I116" s="17" t="s">
-        <v>146</v>
+      <c r="I116" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="H117" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9">
+      <c r="H120" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I120" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="H117" s="17" t="s">
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="29">
+        <v>24</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="H121" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I117" s="17" t="s">
+      <c r="I121" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" ht="30" spans="2:9">
+      <c r="B122" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="25"/>
+      <c r="H122" s="15" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="30" t="s">
+      <c r="I122" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="8:9">
-      <c r="H120" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="I120" s="17" t="s">
+      <c r="C123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="31">
-        <v>24</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="122" ht="30" spans="2:9">
-      <c r="B122" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="27"/>
-      <c r="H122" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I123" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H125" s="16">
+      <c r="H125" s="14">
         <v>26</v>
       </c>
-      <c r="I125" s="16"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H126" s="4" t="s">
@@ -4211,56 +4185,56 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9">
+      <c r="H128" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" ht="30" spans="8:9">
+      <c r="H129" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" ht="75" spans="8:9">
+      <c r="H130" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H127" s="17" t="s">
+      <c r="I130" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="I127" s="17" t="s">
+    </row>
+    <row r="131" spans="8:9">
+      <c r="H131" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I131" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="8:9">
-      <c r="H128" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="I128" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="17" t="s">
+    <row r="132" spans="8:9">
+      <c r="H132" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I129" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="I130" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="131" spans="8:9">
-      <c r="H131" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I131" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="8:9">
-      <c r="H132" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I132" s="17" t="s">
+      <c r="I132" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4356,170 +4330,170 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4527,109 +4501,109 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -4637,10 +4611,10 @@
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4648,10 +4622,10 @@
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4659,10 +4633,10 @@
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -4670,10 +4644,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -4681,21 +4655,21 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>154</v>
+      <c r="A32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
@@ -4706,11 +4680,11 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>160</v>
+      <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>230</v>
@@ -4720,10 +4694,10 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
@@ -4734,10 +4708,10 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C36" t="s">
@@ -4748,10 +4722,10 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H37" s="5"/>
@@ -4759,10 +4733,10 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="5"/>
@@ -4783,7 +4757,7 @@
   <sheetPr/>
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="16905" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="249">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -283,442 +284,454 @@
     <t>personnel_gov_id</t>
   </si>
   <si>
+    <t>enum('Male', 'Female')</t>
+  </si>
+  <si>
     <t>contact_number</t>
   </si>
   <si>
     <t>educational_background</t>
   </si>
   <si>
+    <t>enum('Single', 'Married', 'Divorced')</t>
+  </si>
+  <si>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>work_experience</t>
+  </si>
+  <si>
+    <t>wedding_anniversary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
     <t>middlname</t>
   </si>
   <si>
-    <t>church_duties</t>
-  </si>
-  <si>
-    <t>work_experience</t>
-  </si>
-  <si>
-    <t>livelihood</t>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>surname_maiden</t>
+  </si>
+  <si>
+    <t>minister_officiated</t>
+  </si>
+  <si>
+    <t>subsections</t>
+  </si>
+  <si>
+    <t>surname_husband</t>
+  </si>
+  <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>enum(Self-employed, Employed, Government, Private)</t>
+  </si>
+  <si>
+    <t>designations</t>
+  </si>
+  <si>
+    <t>prepared_by</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>nickname</t>
   </si>
   <si>
-    <t>local_congregation</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>district_id</t>
-  </si>
-  <si>
-    <t>sections</t>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>nationalities</t>
+  </si>
+  <si>
+    <t>sec_id</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>suguan</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>subsection_id</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>datejoined</t>
+  </si>
+  <si>
+    <t>designation_id</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>reminders</t>
+  </si>
+  <si>
+    <t>language_id</t>
+  </si>
+  <si>
+    <t>personnelstatus</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>audit_logs</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>roles_permissions</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>reason_for_leaving</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>field_of_study</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>professional_licensure_examination</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>m_status</t>
+  </si>
+  <si>
+    <t>enum('May Destino', 'Fulltime')</t>
+  </si>
+  <si>
+    <t>uploaded_by</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM ('active', 'expired')</t>
+  </si>
+  <si>
+    <t>personnel_contacts</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
+    <t>contactype_id</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
+  </si>
+  <si>
+    <t>startfrom</t>
+  </si>
+  <si>
+    <t>Professional Licensure Examination</t>
+  </si>
+  <si>
+    <t>disctrict_id</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>gampanin_id</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>role_permission_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>permission_type</t>
+  </si>
+  <si>
+    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
+  </si>
+  <si>
+    <t>granted_by</t>
+  </si>
+  <si>
+    <t>granted_date</t>
+  </si>
+  <si>
+    <t>auto generated itong reference number ang format ay date + personnel_id example = 11032024_1</t>
+  </si>
+  <si>
+    <t>gagamitin ito para mabacktruck kung saan step na siya ng enrollment, pwede mong baguhin ang enum value depende sa dami ng step na magagawa natin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gagamitin ito kung sino na ang kumausap sa ka niya </t>
+  </si>
+  <si>
+    <t>given name gumamit tayo ng textbox</t>
+  </si>
+  <si>
+    <t>textbox din</t>
   </si>
   <si>
     <t>languages</t>
   </si>
   <si>
-    <t>minister_officiated</t>
-  </si>
-  <si>
-    <t>subsections</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>employment_type</t>
-  </si>
-  <si>
-    <t>enum(Self-employed, Employed, Government, Private)</t>
-  </si>
-  <si>
-    <t>designations</t>
-  </si>
-  <si>
-    <t>place_of_birth</t>
-  </si>
-  <si>
-    <t>prepared_by</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>enum('Male', 'Female')</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>nationalities</t>
-  </si>
-  <si>
-    <t>sec_id</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>suguan</t>
-  </si>
-  <si>
-    <t>enum('Single', 'Married', 'Divorced')</t>
-  </si>
-  <si>
-    <t>subsection_id</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>wedding_anniversary</t>
-  </si>
-  <si>
-    <t>designation_id</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>reminders</t>
-  </si>
-  <si>
-    <t>personnelstatus</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>audit_logs</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>roles_permissions</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>reason_for_leaving</t>
-  </si>
-  <si>
-    <t>education_level</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>start_year</t>
-  </si>
-  <si>
-    <t>completion_year</t>
-  </si>
-  <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>field_of_study</t>
-  </si>
-  <si>
-    <t>document_id</t>
-  </si>
-  <si>
-    <t>INT (PK)</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>datejoined</t>
-  </si>
-  <si>
-    <t>INT (FK)</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
-  </si>
-  <si>
-    <t>document_type</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>professional_licensure_examination</t>
-  </si>
-  <si>
-    <t>assigned_number</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
+    <t>dropdown ito, iload mo dito lahat ng language sa mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>radio button</t>
+  </si>
+  <si>
+    <t>dropdown ito, iload mo ang lahat ng bloodtype ng tao</t>
+  </si>
+  <si>
+    <t>dropdown, iload ang lahat ang civil status(Single,Married,  Divorced</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa citizenship table(gagamitin tayo ditong API)</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa nationalities table(gagamitin tayo ditong API)</t>
+  </si>
+  <si>
+    <t>gamit ang personal_contact table, ififillup doon ang contact, uri ng contact(kung facebook ba, cp number at iba pa)</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>government_id</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa personnel_gov_id table</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa personnel_address table</t>
+  </si>
+  <si>
+    <t>textbox ito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropdown ito mula sa district table gagamitin din tayo ng API </t>
+  </si>
+  <si>
+    <t>inc_status</t>
+  </si>
+  <si>
+    <t>enum(Active, Non-Active)</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa deparments table gamit din API</t>
+  </si>
+  <si>
+    <t>dropdown ito mula sa sections table gamit din api</t>
+  </si>
+  <si>
+    <t>dropdown din ito gamit ang subsections table gagamit di ng api</t>
+  </si>
+  <si>
+    <t>dropdown din ito gamit ang designations table gagamit din ng api</t>
+  </si>
+  <si>
+    <t>pwedeng dropdown or radio button kung ano ang mas angkop</t>
+  </si>
+  <si>
+    <t>textbox - lalabas lang ito kung ang personnel_type ay Minister, Regular at Ministerial Student</t>
   </si>
   <si>
     <t>m_type</t>
-  </si>
-  <si>
-    <t>enum('May Destino', 'Fulltime')</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>uploaded_by</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>upload_date</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>expiration_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ENUM ('active', 'expired')</t>
-  </si>
-  <si>
-    <t>personnel_contacts</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
-    <t>contactype_id</t>
-  </si>
-  <si>
-    <t>contact_info</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
-  </si>
-  <si>
-    <t>startfrom</t>
-  </si>
-  <si>
-    <t>Professional Licensure Examination</t>
-  </si>
-  <si>
-    <t>disctrict_id</t>
-  </si>
-  <si>
-    <t>local_id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>gampanin_id</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>recurrence</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>locations</t>
-  </si>
-  <si>
-    <t>record_id</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>old_values</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>new_values</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>role_permission_id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>permission_type</t>
-  </si>
-  <si>
-    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
-  </si>
-  <si>
-    <t>granted_by</t>
-  </si>
-  <si>
-    <t>granted_date</t>
-  </si>
-  <si>
-    <t>auto generated itong reference number ang format ay date + personnel_id example = 11032024_1</t>
-  </si>
-  <si>
-    <t>gagamitin ito para mabacktruck kung saan step na siya ng enrollment, pwede mong baguhin ang enum value depende sa dami ng step na magagawa natin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gagamitin ito kung sino na ang kumausap sa ka niya </t>
-  </si>
-  <si>
-    <t>given name gumamit tayo ng textbox</t>
-  </si>
-  <si>
-    <t>textbox din</t>
-  </si>
-  <si>
-    <t>dropdown ito, iload mo dito lahat ng language sa mundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date </t>
-  </si>
-  <si>
-    <t>radio button</t>
-  </si>
-  <si>
-    <t>dropdown ito, iload mo ang lahat ng bloodtype ng tao</t>
-  </si>
-  <si>
-    <t>dropdown, iload ang lahat ang civil status(Single,Married,  Divorced</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa citizenship table(gagamitin tayo ditong API)</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa nationalities table(gagamitin tayo ditong API)</t>
-  </si>
-  <si>
-    <t>gamit ang personal_contact table, ififillup doon ang contact, uri ng contact(kung facebook ba, cp number at iba pa)</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>government_id</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa personnel_gov_id table</t>
-  </si>
-  <si>
-    <t>address_id</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa personnel_address table</t>
-  </si>
-  <si>
-    <t>textbox ito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropdown ito mula sa district table gagamitin din tayo ng API </t>
-  </si>
-  <si>
-    <t>inc_status</t>
-  </si>
-  <si>
-    <t>enum(Active, Non-Active)</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa deparments table gamit din API</t>
-  </si>
-  <si>
-    <t>dropdown ito mula sa sections table gamit din api</t>
-  </si>
-  <si>
-    <t>dropdown din ito gamit ang subsections table gagamit di ng api</t>
-  </si>
-  <si>
-    <t>dropdown din ito gamit ang designations table gagamit din ng api</t>
-  </si>
-  <si>
-    <t>pwedeng dropdown or radio button kung ano ang mas angkop</t>
-  </si>
-  <si>
-    <t>textbox - lalabas lang ito kung ang personnel_type ay Minister, Regular at Ministerial Student</t>
   </si>
   <si>
     <t>pwedeng dropdown or radio button kung ano ang mas angkop kung ang personnel_type ay Lay Member automatic na fulltime</t>
@@ -2112,8 +2125,8 @@
   <sheetPr/>
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48:Q49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2741,10 +2754,10 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>31</v>
@@ -2753,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>11</v>
@@ -2762,15 +2775,15 @@
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>35</v>
@@ -2779,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>11</v>
@@ -2788,18 +2801,18 @@
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>11</v>
@@ -2813,7 +2826,7 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
@@ -2823,7 +2836,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="H35" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>11</v>
@@ -2832,12 +2845,12 @@
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>53</v>
@@ -2847,7 +2860,7 @@
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>6</v>
@@ -2856,12 +2869,12 @@
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
@@ -2873,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>11</v>
@@ -2882,15 +2895,15 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>14</v>
@@ -2899,33 +2912,33 @@
         <v>6</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K38" s="19">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>11</v>
@@ -2939,19 +2952,19 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>20</v>
@@ -2960,24 +2973,24 @@
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>11</v>
@@ -2986,24 +2999,24 @@
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>11</v>
@@ -3012,24 +3025,24 @@
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="2:12">
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>11</v>
@@ -3038,24 +3051,24 @@
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>66</v>
@@ -3064,15 +3077,15 @@
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:12">
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>66</v>
@@ -3081,7 +3094,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>66</v>
@@ -3090,24 +3103,24 @@
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>20</v>
@@ -3115,7 +3128,7 @@
     </row>
     <row r="47" ht="18" customHeight="1" spans="2:9">
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
@@ -3127,18 +3140,18 @@
         <v>32</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>35</v>
@@ -3147,7 +3160,7 @@
         <v>32</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>6</v>
@@ -3155,13 +3168,13 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>6</v>
@@ -3169,7 +3182,7 @@
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>6</v>
@@ -3179,7 +3192,7 @@
       </c>
       <c r="F50" s="14"/>
       <c r="H50" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>11</v>
@@ -3187,7 +3200,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>6</v>
@@ -3197,7 +3210,7 @@
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>11</v>
@@ -3205,39 +3218,39 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>11</v>
@@ -3245,10 +3258,10 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>143</v>
@@ -3268,13 +3281,13 @@
         <v>146</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>31</v>
@@ -3285,16 +3298,16 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>151</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>35</v>
@@ -3308,63 +3321,69 @@
         <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="3" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E61" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="5:6">
@@ -3403,26 +3422,26 @@
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4"/>
       <c r="E67" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3459,7 +3478,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>6</v>
@@ -3477,10 +3496,10 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
@@ -3512,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H73" s="2">
         <v>17</v>
@@ -3527,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I74" s="4"/>
     </row>
@@ -3559,7 +3578,7 @@
     </row>
     <row r="77" spans="5:9">
       <c r="E77" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
@@ -3603,14 +3622,14 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="4"/>
       <c r="E80" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -3621,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>11</v>
@@ -3639,25 +3658,25 @@
         <v>6</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -3671,19 +3690,19 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>6</v>
@@ -3691,19 +3710,19 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>6</v>
@@ -3711,13 +3730,13 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>66</v>
@@ -3731,13 +3750,13 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>66</v>
@@ -3751,13 +3770,13 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>20</v>
@@ -3771,7 +3790,7 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>11</v>
@@ -3785,7 +3804,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>20</v>
@@ -3799,7 +3818,7 @@
     </row>
     <row r="93" spans="8:9">
       <c r="H93" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I93" s="4"/>
     </row>
@@ -3817,11 +3836,11 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C95" s="4"/>
       <c r="H95" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>6</v>
@@ -3835,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>6</v>
@@ -3857,7 +3876,7 @@
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:3">
       <c r="B98" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>6</v>
@@ -3865,7 +3884,7 @@
     </row>
     <row r="99" spans="2:8">
       <c r="B99" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>6</v>
@@ -3879,7 +3898,7 @@
         <v>66</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>72</v>
@@ -3888,10 +3907,10 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
@@ -3902,13 +3921,13 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>11</v>
@@ -3924,7 +3943,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C104" s="4"/>
     </row>
@@ -3948,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I106" s="4"/>
     </row>
@@ -3966,7 +3985,7 @@
       </c>
       <c r="C108" s="2"/>
       <c r="H108" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>11</v>
@@ -3974,7 +3993,7 @@
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="4"/>
       <c r="H109" s="3" t="s">
@@ -3994,7 +4013,7 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>11</v>
@@ -4012,47 +4031,47 @@
         <v>11</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I112" s="4"/>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" ht="30" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>144</v>
@@ -4060,7 +4079,7 @@
     </row>
     <row r="116" ht="30" spans="8:9">
       <c r="H116" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I116" s="15" t="s">
         <v>144</v>
@@ -4068,14 +4087,14 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C117" s="4"/>
       <c r="H117" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -4089,7 +4108,7 @@
         <v>32</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -4103,15 +4122,15 @@
         <v>21</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="8:9">
       <c r="H120" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -4120,22 +4139,22 @@
       </c>
       <c r="C121" s="30"/>
       <c r="H121" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" ht="30" spans="2:9">
       <c r="B122" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C122" s="25"/>
       <c r="H122" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -4149,12 +4168,12 @@
         <v>19</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>11</v>
@@ -4165,7 +4184,7 @@
         <v>66</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H125" s="14">
         <v>26</v>
@@ -4174,41 +4193,41 @@
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="8:9">
       <c r="H128" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" ht="30" spans="8:9">
       <c r="H129" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>144</v>
@@ -4216,26 +4235,26 @@
     </row>
     <row r="130" ht="75" spans="8:9">
       <c r="H130" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="8:9">
       <c r="H131" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4343,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4354,7 +4373,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4365,7 +4384,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4376,18 +4395,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4398,18 +4417,18 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4420,18 +4439,18 @@
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -4439,21 +4458,21 @@
         <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4464,7 +4483,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4475,7 +4494,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4486,15 +4505,15 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>66</v>
@@ -4508,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4519,136 +4538,136 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>66</v>
@@ -4656,24 +4675,24 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -4681,13 +4700,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4695,13 +4714,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4709,13 +4728,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -4771,19 +4790,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -4791,16 +4810,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4808,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5013,4 +5032,23 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="A3:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16905" windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="251">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -557,6 +557,9 @@
     <t>local_id</t>
   </si>
   <si>
+    <t>districts</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
@@ -569,6 +572,12 @@
     <t>gampanin</t>
   </si>
   <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
     <t>eventName</t>
   </si>
   <si>
@@ -657,9 +666,6 @@
   </si>
   <si>
     <t>textbox din</t>
-  </si>
-  <si>
-    <t>languages</t>
   </si>
   <si>
     <t>dropdown ito, iload mo dito lahat ng language sa mundo</t>
@@ -1498,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,6 +1594,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2123,10 +2132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O132"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100:M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2143,7 +2152,7 @@
     <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
     <col min="11" max="11" width="19.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="2.42857142857143" customWidth="1"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="9.28571428571429" customWidth="1"/>
     <col min="15" max="15" width="12.7142857142857" customWidth="1"/>
     <col min="16" max="16" width="11.5714285714286" customWidth="1"/>
@@ -2648,7 +2657,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2686,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>2</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
@@ -2700,7 +2715,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>3</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
@@ -2726,7 +2744,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>4</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
@@ -2752,7 +2773,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>5</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
@@ -2778,7 +2802,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>6</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
@@ -2804,7 +2831,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>7</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
@@ -2824,7 +2854,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>8</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -2848,7 +2881,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>9</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>95</v>
       </c>
@@ -2872,7 +2908,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>10</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
@@ -2898,7 +2937,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>11</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>101</v>
       </c>
@@ -2924,7 +2966,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>12</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
@@ -2950,7 +2995,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>13</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>107</v>
       </c>
@@ -2976,7 +3024,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>14</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
@@ -3002,7 +3053,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>15</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>114</v>
       </c>
@@ -3028,7 +3082,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" ht="19" customHeight="1" spans="2:12">
+    <row r="43" ht="19" customHeight="1" spans="1:12">
+      <c r="A43">
+        <v>16</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>118</v>
       </c>
@@ -3054,7 +3111,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>17</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>122</v>
       </c>
@@ -3080,7 +3140,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:12">
+    <row r="45" customHeight="1" spans="1:12">
+      <c r="A45">
+        <v>18</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
@@ -3106,7 +3169,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>19</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>128</v>
       </c>
@@ -3126,7 +3192,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="2:9">
+    <row r="47" ht="18" customHeight="1" spans="1:9">
+      <c r="A47">
+        <v>20</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>72</v>
       </c>
@@ -3146,7 +3215,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>21</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
@@ -3166,7 +3238,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>22</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>108</v>
       </c>
@@ -3180,7 +3255,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:9">
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50">
+        <v>23</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>134</v>
       </c>
@@ -3198,7 +3276,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>24</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>115</v>
       </c>
@@ -3216,7 +3297,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>25</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>119</v>
       </c>
@@ -3236,7 +3320,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>26</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
@@ -3256,7 +3343,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>27</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>93</v>
       </c>
@@ -3276,7 +3366,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>28</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>146</v>
       </c>
@@ -3296,7 +3389,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>29</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>150</v>
       </c>
@@ -3316,7 +3412,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>30</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>152</v>
       </c>
@@ -3330,7 +3429,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>31</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>155</v>
       </c>
@@ -3344,7 +3446,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>32</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>158</v>
       </c>
@@ -3358,7 +3463,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>33</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>31</v>
       </c>
@@ -3372,7 +3480,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>34</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
       </c>
@@ -3810,17 +3921,25 @@
         <v>20</v>
       </c>
     </row>
+    <row r="91" spans="8:9">
+      <c r="H91" s="2">
+        <v>19</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
     <row r="92" spans="8:9">
-      <c r="H92" s="2">
-        <v>19</v>
-      </c>
-      <c r="I92" s="2"/>
+      <c r="H92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="8:9">
-      <c r="H93" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I93" s="4"/>
+      <c r="H93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="2">
@@ -3828,7 +3947,7 @@
       </c>
       <c r="C94" s="2"/>
       <c r="H94" s="3" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>6</v>
@@ -3840,7 +3959,7 @@
       </c>
       <c r="C95" s="4"/>
       <c r="H95" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>6</v>
@@ -3854,10 +3973,10 @@
         <v>6</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -3868,21 +3987,27 @@
         <v>11</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="18" customHeight="1" spans="2:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="2:9">
       <c r="B98" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="H98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="3" t="s">
         <v>174</v>
       </c>
@@ -3892,8 +4017,12 @@
       <c r="H99">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="2:9">
+      <c r="L99" s="31">
+        <v>27</v>
+      </c>
+      <c r="M99" s="31"/>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
         <v>66</v>
       </c>
@@ -3904,10 +4033,14 @@
         <v>72</v>
       </c>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="2:9">
+      <c r="L100" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>91</v>
@@ -3918,36 +4051,60 @@
       <c r="I101" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="2:9">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="8:9">
+      <c r="L102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13">
       <c r="H103" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="2:3">
+      <c r="L103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="2:9">
+      <c r="L104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
       <c r="B105" s="27" t="s">
         <v>5</v>
       </c>
@@ -3958,8 +4115,12 @@
         <v>21</v>
       </c>
       <c r="I105" s="14"/>
-    </row>
-    <row r="106" spans="2:9">
+      <c r="L105" s="31">
+        <v>28</v>
+      </c>
+      <c r="M105" s="31"/>
+    </row>
+    <row r="106" spans="2:13">
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
@@ -3970,28 +4131,44 @@
         <v>110</v>
       </c>
       <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="8:9">
+      <c r="L106" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="2:9">
+      <c r="L107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
       <c r="B108" s="2">
         <v>23</v>
       </c>
       <c r="C108" s="2"/>
       <c r="H108" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="2:9">
+      <c r="L108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
       <c r="B109" s="4" t="s">
         <v>117</v>
       </c>
@@ -4002,18 +4179,30 @@
       <c r="I109" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="2:3">
+      <c r="L109" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="2:9">
+      <c r="L110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
       <c r="B111" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>11</v>
@@ -4022,6 +4211,12 @@
         <v>25</v>
       </c>
       <c r="I111" s="14"/>
+      <c r="L111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="3" t="s">
@@ -4037,13 +4232,13 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I113" s="15" t="s">
         <v>138</v>
@@ -4051,13 +4246,13 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I114" s="15" t="s">
         <v>141</v>
@@ -4065,13 +4260,13 @@
     </row>
     <row r="115" ht="30" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>144</v>
@@ -4079,7 +4274,7 @@
     </row>
     <row r="116" ht="30" spans="8:9">
       <c r="H116" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I116" s="15" t="s">
         <v>144</v>
@@ -4087,14 +4282,14 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C117" s="4"/>
       <c r="H117" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -4127,10 +4322,10 @@
     </row>
     <row r="120" spans="8:9">
       <c r="H120" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -4139,10 +4334,10 @@
       </c>
       <c r="C121" s="30"/>
       <c r="H121" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" ht="30" spans="2:9">
@@ -4151,10 +4346,10 @@
       </c>
       <c r="C122" s="25"/>
       <c r="H122" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -4173,7 +4368,7 @@
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>11</v>
@@ -4193,7 +4388,7 @@
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>91</v>
@@ -4205,13 +4400,13 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>165</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I127" s="15" t="s">
         <v>138</v>
@@ -4219,7 +4414,7 @@
     </row>
     <row r="128" spans="8:9">
       <c r="H128" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I128" s="15" t="s">
         <v>141</v>
@@ -4227,7 +4422,7 @@
     </row>
     <row r="129" ht="30" spans="8:9">
       <c r="H129" s="15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>144</v>
@@ -4235,15 +4430,15 @@
     </row>
     <row r="130" ht="75" spans="8:9">
       <c r="H130" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="8:9">
       <c r="H131" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>141</v>
@@ -4251,14 +4446,14 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="60">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4298,14 +4493,18 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H91:I91"/>
     <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
+    <mergeCell ref="L99:M99"/>
     <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:M100"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:M105"/>
     <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:M106"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="H111:I111"/>
@@ -4362,7 +4561,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4373,7 +4572,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4384,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4395,7 +4594,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4406,7 +4605,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4417,7 +4616,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4428,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4439,18 +4638,18 @@
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -4461,7 +4660,7 @@
         <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4472,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4483,7 +4682,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4494,7 +4693,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4505,7 +4704,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4527,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4538,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -4549,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4560,29 +4759,29 @@
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -4593,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4604,18 +4803,18 @@
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -4626,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
@@ -4637,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
@@ -4648,7 +4847,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
@@ -4659,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4681,7 +4880,7 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4692,7 +4891,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -4700,13 +4899,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4720,7 +4919,7 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4734,7 +4933,7 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -4790,19 +4989,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -4810,16 +5009,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4827,16 +5026,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:6">

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="251">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -116,6 +116,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
@@ -191,9 +194,6 @@
     <t>middlename</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -566,12 +566,12 @@
     <t>gampanin_id</t>
   </si>
   <si>
+    <t>gampanin</t>
+  </si>
+  <si>
     <t>country_name</t>
   </si>
   <si>
-    <t>gampanin</t>
-  </si>
-  <si>
     <t>languages</t>
   </si>
   <si>
@@ -581,36 +581,39 @@
     <t>eventName</t>
   </si>
   <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
     <t>log_id</t>
   </si>
   <si>
-    <t>location_id</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>recurrence</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
     <t>table_name</t>
   </si>
   <si>
-    <t>locations</t>
-  </si>
-  <si>
     <t>record_id</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>old_values</t>
   </si>
   <si>
@@ -624,9 +627,6 @@
   </si>
   <si>
     <t>VARCHAR(45)</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>message</t>
@@ -1581,6 +1581,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1594,9 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2132,10 +2132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100:M104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2340,47 +2340,47 @@
         <v>27</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
@@ -2395,28 +2395,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
@@ -2427,19 +2427,19 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>6</v>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2">
         <v>15</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -2511,27 +2511,27 @@
         <v>6</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="18"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
       <c r="H19" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" s="19">
         <v>1</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="8:12">
       <c r="H20" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>11</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="21" spans="8:12">
       <c r="H21" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K21" s="19">
         <v>3</v>
@@ -2576,13 +2576,13 @@
         <v>55</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K23" s="19">
         <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="8:12">
@@ -2758,7 +2758,7 @@
         <v>81</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>82</v>
@@ -2784,10 +2784,10 @@
         <v>84</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>85</v>
@@ -2813,10 +2813,10 @@
         <v>87</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>88</v>
@@ -2851,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2859,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
@@ -2889,7 +2889,7 @@
         <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>69</v>
@@ -2974,7 +2974,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>105</v>
@@ -3203,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>130</v>
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>132</v>
@@ -3383,10 +3383,10 @@
         <v>149</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3406,10 +3406,10 @@
         <v>149</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3468,10 +3468,10 @@
         <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>160</v>
@@ -3485,10 +3485,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>162</v>
@@ -3584,7 +3584,7 @@
         <v>81</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3599,10 +3599,10 @@
       </c>
       <c r="F70" s="4"/>
       <c r="H70" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3619,10 +3619,10 @@
         <v>6</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="5:6">
@@ -3680,11 +3680,11 @@
         <v>14</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
+      <c r="H76" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="5:9">
@@ -3693,10 +3693,10 @@
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="5:9">
@@ -3707,10 +3707,10 @@
         <v>15</v>
       </c>
       <c r="H78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -3725,13 +3725,13 @@
         <v>6</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" s="4" t="s">
         <v>86</v>
       </c>
@@ -3742,8 +3742,14 @@
       <c r="F80" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="2:9">
+      <c r="H80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3756,12 +3762,8 @@
       <c r="F81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="2">
-        <v>18</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="2:9">
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="6" t="s">
         <v>14</v>
       </c>
@@ -3774,12 +3776,8 @@
       <c r="F82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="2:9">
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" s="3" t="s">
         <v>169</v>
       </c>
@@ -3792,14 +3790,8 @@
       <c r="F83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+    </row>
+    <row r="84" spans="2:6">
       <c r="B84" s="3" t="s">
         <v>171</v>
       </c>
@@ -3811,12 +3803,6 @@
       </c>
       <c r="F84" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -3832,12 +3818,10 @@
       <c r="F85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H85" s="2">
+        <v>18</v>
+      </c>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="3" t="s">
@@ -3852,12 +3836,10 @@
       <c r="F86" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H86" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
@@ -3873,10 +3855,10 @@
         <v>66</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -3893,10 +3875,10 @@
         <v>20</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -3907,63 +3889,65 @@
         <v>11</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" spans="8:9">
-      <c r="H91" s="2">
-        <v>19</v>
-      </c>
-      <c r="I91" s="2"/>
+      <c r="H91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="92" spans="8:9">
-      <c r="H92" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I92" s="4"/>
+      <c r="H92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="93" spans="8:9">
       <c r="H93" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94" s="2">
         <v>22</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="H94" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="H95" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H95" s="2">
+        <v>19</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="3" t="s">
@@ -3972,12 +3956,10 @@
       <c r="C96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="3" t="s">
@@ -3987,10 +3969,10 @@
         <v>11</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:9">
@@ -4001,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="2:13">
@@ -4014,13 +3996,16 @@
       <c r="C99" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H99">
-        <v>20</v>
-      </c>
-      <c r="L99" s="31">
+      <c r="H99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L99" s="14">
         <v>27</v>
       </c>
-      <c r="M99" s="31"/>
+      <c r="M99" s="14"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
@@ -4029,10 +4014,12 @@
       <c r="C100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I100" s="4"/>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L100" s="4" t="s">
         <v>175</v>
       </c>
@@ -4046,10 +4033,10 @@
         <v>91</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
@@ -4059,17 +4046,17 @@
       </c>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>12</v>
@@ -4079,46 +4066,49 @@
       </c>
     </row>
     <row r="103" spans="8:13">
-      <c r="H103" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>11</v>
+      <c r="H103">
+        <v>20</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104" s="4"/>
       <c r="L104" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="14">
-        <v>21</v>
-      </c>
-      <c r="I105" s="14"/>
-      <c r="L105" s="31">
+      <c r="C105" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" s="14">
         <v>28</v>
       </c>
-      <c r="M105" s="31"/>
+      <c r="M105" s="14"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="3" t="s">
@@ -4127,10 +4117,12 @@
       <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I106" s="4"/>
+      <c r="H106" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L106" s="4" t="s">
         <v>180</v>
       </c>
@@ -4138,10 +4130,10 @@
     </row>
     <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>5</v>
@@ -4155,14 +4147,8 @@
         <v>23</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="H108" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L108" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>11</v>
@@ -4173,12 +4159,10 @@
         <v>117</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="H109" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H109" s="14">
+        <v>21</v>
+      </c>
+      <c r="I109" s="14"/>
       <c r="L109" s="3" t="s">
         <v>181</v>
       </c>
@@ -4193,11 +4177,15 @@
       <c r="C110" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I110" s="4"/>
       <c r="L110" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="2:13">
@@ -4207,15 +4195,17 @@
       <c r="C111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="14">
-        <v>25</v>
-      </c>
-      <c r="I111" s="14"/>
+      <c r="H111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L111" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4225,10 +4215,12 @@
       <c r="C112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I112" s="4"/>
+      <c r="H112" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="3" t="s">
@@ -4237,76 +4229,66 @@
       <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="15" t="s">
+      <c r="H113" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I113" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="28" t="s">
+      <c r="C114" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C114" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H114" s="15" t="s">
+      <c r="C115" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I114" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" ht="30" spans="2:9">
-      <c r="B115" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" ht="30" spans="8:9">
-      <c r="H116" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="H115" s="14">
+        <v>25</v>
+      </c>
+      <c r="I115" s="14"/>
+    </row>
+    <row r="116" spans="8:9">
+      <c r="H116" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C117" s="4"/>
       <c r="H117" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" ht="30" spans="2:9">
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
@@ -4314,42 +4296,42 @@
         <v>11</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="8:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" ht="30" spans="8:9">
       <c r="H120" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="29">
+      <c r="B121" s="30">
         <v>24</v>
       </c>
-      <c r="C121" s="30"/>
+      <c r="C121" s="31"/>
       <c r="H121" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" ht="30" spans="2:9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
       <c r="B122" s="24" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="25"/>
       <c r="H122" s="15" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -4360,18 +4342,24 @@
         <v>6</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I123" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:9">
       <c r="B124" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -4381,22 +4369,26 @@
       <c r="C125" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H125" s="14">
-        <v>26</v>
-      </c>
-      <c r="I125" s="14"/>
-    </row>
-    <row r="126" spans="2:9">
+      <c r="H125" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" ht="30" spans="2:9">
       <c r="B126" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I126" s="4"/>
+      <c r="H126" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
@@ -4406,49 +4398,69 @@
         <v>165</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="8:9">
-      <c r="H128" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" ht="30" spans="8:9">
-      <c r="H129" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" ht="75" spans="8:9">
-      <c r="H130" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>204</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129" s="14">
+        <v>26</v>
+      </c>
+      <c r="I129" s="14"/>
+    </row>
+    <row r="130" spans="8:9">
+      <c r="H130" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I130" s="4"/>
     </row>
     <row r="131" spans="8:9">
       <c r="H131" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" ht="30" spans="8:9">
+      <c r="H133" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" ht="75" spans="8:9">
+      <c r="H134" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9">
+      <c r="H135" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9">
+      <c r="H136" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I136" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4491,29 +4503,29 @@
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="H100:I100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H104:I104"/>
     <mergeCell ref="L105:M105"/>
-    <mergeCell ref="H106:I106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B109:C109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B122:C122"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4588,7 +4600,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -4602,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>211</v>
@@ -4635,7 +4647,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>211</v>
@@ -4941,10 +4953,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -4952,10 +4964,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8940"/>
+    <workbookView windowWidth="16905" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="254">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -527,16 +527,25 @@
     <t>personnel_contacts</t>
   </si>
   <si>
+    <t>contactype_id</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
     <t>varchar(250)</t>
   </si>
   <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
-    <t>contactype_id</t>
-  </si>
-  <si>
-    <t>contact_info</t>
+    <t>gov_id</t>
+  </si>
+  <si>
+    <t>government_issued_id</t>
   </si>
   <si>
     <t>level</t>
@@ -551,82 +560,82 @@
     <t>Professional Licensure Examination</t>
   </si>
   <si>
+    <t>districts</t>
+  </si>
+  <si>
     <t>disctrict_id</t>
   </si>
   <si>
     <t>local_id</t>
   </si>
   <si>
-    <t>districts</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>gampanin_id</t>
   </si>
   <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
     <t>gampanin</t>
   </si>
   <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>languages</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
     <t>eventName</t>
   </si>
   <si>
+    <t>log_id</t>
+  </si>
+  <si>
     <t>location_id</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>recurrence</t>
   </si>
   <si>
     <t>VARCHAR(20)</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
     <t>locations</t>
   </si>
   <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
     <t>record_id</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>old_values</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>new_values</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>old_values</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>new_values</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
   </si>
   <si>
     <t>message</t>
@@ -1504,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,14 +1584,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2134,8 +2149,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3497,19 +3512,33 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="5:6">
+    <row r="63" spans="2:6">
+      <c r="B63" s="2">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="E63" s="14">
         <v>11</v>
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="5:6">
+    <row r="64" spans="2:6">
+      <c r="B64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="E64" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="5:9">
+    <row r="65" spans="2:9">
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E65" s="23" t="s">
         <v>5</v>
       </c>
@@ -3522,10 +3551,12 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="2">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2"/>
+      <c r="B66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
@@ -3538,29 +3569,37 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="E67" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="23" t="s">
+      <c r="B67" s="3" t="s">
         <v>165</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="3" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>12</v>
@@ -3569,17 +3608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="14">
-        <v>12</v>
-      </c>
-      <c r="F69" s="14"/>
+    <row r="69" spans="8:9">
       <c r="H69" s="3" t="s">
         <v>81</v>
       </c>
@@ -3588,16 +3617,10 @@
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="4"/>
+      <c r="B70" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="26"/>
       <c r="H70" s="3" t="s">
         <v>32</v>
       </c>
@@ -3607,17 +3630,15 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="3" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E71" s="14">
+        <v>12</v>
+      </c>
+      <c r="F71" s="14"/>
       <c r="H71" s="3" t="s">
         <v>36</v>
       </c>
@@ -3625,35 +3646,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="E73" s="23" t="s">
+    <row r="72" spans="2:6">
+      <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="5:9">
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F73" s="23" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="H73" s="2">
         <v>17</v>
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    <row r="74" spans="5:9">
+      <c r="E74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="4" t="s">
@@ -3661,12 +3682,12 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>8</v>
+    <row r="75" spans="5:9">
+      <c r="E75" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>5</v>
@@ -3675,23 +3696,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="5:9">
-      <c r="E76" s="2">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="H76" s="26" t="s">
+    <row r="76" spans="8:9">
+      <c r="H76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="5:9">
-      <c r="E77" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" s="4"/>
+      <c r="E77" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="28"/>
       <c r="H77" s="3" t="s">
         <v>12</v>
       </c>
@@ -3703,8 +3720,8 @@
       <c r="E78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>15</v>
+      <c r="F78" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>81</v>
@@ -3713,16 +3730,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="2">
-        <v>13</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="E79" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>6</v>
+    <row r="79" spans="5:9">
+      <c r="E79" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>32</v>
@@ -3731,17 +3744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="E80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>103</v>
-      </c>
+    <row r="80" spans="8:9">
       <c r="H80" s="3" t="s">
         <v>36</v>
       </c>
@@ -3749,74 +3752,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="6" t="s">
+    <row r="83" spans="2:6">
+      <c r="B83" s="2">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="E83" s="2">
         <v>14</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="3" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H85" s="2">
         <v>18</v>
@@ -3824,17 +3791,17 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="3" t="s">
-        <v>135</v>
+      <c r="B86" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>124</v>
+        <v>6</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>100</v>
@@ -3843,16 +3810,16 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>5</v>
@@ -3863,16 +3830,16 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>108</v>
@@ -3883,10 +3850,16 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>134</v>
@@ -3896,11 +3869,17 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="17" t="s">
-        <v>172</v>
+      <c r="B90" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>12</v>
@@ -3909,7 +3888,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="8:9">
+    <row r="91" spans="2:9">
+      <c r="B91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H91" s="3" t="s">
         <v>81</v>
       </c>
@@ -3917,7 +3908,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="8:9">
+    <row r="92" spans="2:9">
+      <c r="B92" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H92" s="3" t="s">
         <v>32</v>
       </c>
@@ -3925,7 +3928,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="8:9">
+    <row r="93" spans="2:9">
+      <c r="B93" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H93" s="3" t="s">
         <v>36</v>
       </c>
@@ -3933,41 +3948,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="2">
-        <v>22</v>
-      </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="4"/>
+    <row r="94" spans="2:6">
+      <c r="B94" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9">
+      <c r="E95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H95" s="2">
         <v>19</v>
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="96" spans="8:9">
       <c r="H96" s="4" t="s">
         <v>104</v>
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="97" spans="8:9">
       <c r="H97" s="3" t="s">
         <v>5</v>
       </c>
@@ -3976,12 +3989,10 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:9">
-      <c r="B98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B98" s="2">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="H98" s="3" t="s">
         <v>134</v>
       </c>
@@ -3990,12 +4001,10 @@
       </c>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B99" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="H99" s="3" t="s">
         <v>115</v>
       </c>
@@ -4009,10 +4018,10 @@
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -4021,16 +4030,16 @@
         <v>11</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M100" s="4"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="3" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>32</v>
@@ -4046,10 +4055,10 @@
       </c>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -4065,7 +4074,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="8:13">
+    <row r="103" spans="2:13">
+      <c r="B103" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H103">
         <v>20</v>
       </c>
@@ -4077,10 +4092,12 @@
       </c>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="4"/>
+      <c r="B104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H104" s="4" t="s">
         <v>72</v>
       </c>
@@ -4093,11 +4110,11 @@
       </c>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>6</v>
+      <c r="B105" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>5</v>
@@ -4111,20 +4128,20 @@
       <c r="M105" s="14"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>11</v>
+      <c r="B106" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M106" s="4"/>
     </row>
@@ -4143,28 +4160,30 @@
       </c>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="2">
-        <v>23</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="B108" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="4"/>
+      <c r="B109" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="H109" s="14">
         <v>21</v>
       </c>
       <c r="I109" s="14"/>
       <c r="L109" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>11</v>
@@ -4172,10 +4191,10 @@
     </row>
     <row r="110" spans="2:13">
       <c r="B110" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>110</v>
@@ -4188,13 +4207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="2:13">
-      <c r="B111" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="111" spans="8:13">
       <c r="H111" s="3" t="s">
         <v>5</v>
       </c>
@@ -4209,26 +4222,22 @@
       </c>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B112" s="2">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2"/>
       <c r="H112" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B113" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="4"/>
       <c r="H113" s="3" t="s">
         <v>77</v>
       </c>
@@ -4237,48 +4246,56 @@
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" s="29" t="s">
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H115" s="14">
         <v>25</v>
       </c>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="2:9">
+      <c r="B116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H116" s="4" t="s">
         <v>125</v>
       </c>
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="H117" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="I117" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="29" t="s">
+      <c r="B118" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H118" s="15" t="s">
@@ -4290,13 +4307,13 @@
     </row>
     <row r="119" ht="30" spans="2:9">
       <c r="B119" s="3" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I119" s="15" t="s">
         <v>144</v>
@@ -4304,29 +4321,31 @@
     </row>
     <row r="120" ht="30" spans="8:9">
       <c r="H120" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I120" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="30">
-        <v>24</v>
-      </c>
-      <c r="C121" s="31"/>
+      <c r="B121" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="4"/>
       <c r="H121" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="25"/>
+      <c r="B122" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="H122" s="15" t="s">
         <v>33</v>
       </c>
@@ -4336,10 +4355,10 @@
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H123" s="15" t="s">
         <v>21</v>
@@ -4348,54 +4367,44 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="124" spans="8:9">
       <c r="H124" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B125" s="32">
+        <v>24</v>
+      </c>
+      <c r="C125" s="33"/>
       <c r="H125" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I125" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B126" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="26"/>
       <c r="H126" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="H127" s="15" t="s">
         <v>19</v>
@@ -4404,21 +4413,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="8:9">
+    <row r="128" spans="2:3">
+      <c r="B128" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H129" s="14">
         <v>26</v>
       </c>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="2:9">
+      <c r="B130" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H130" s="4" t="s">
         <v>127</v>
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="2:9">
+      <c r="B131" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="H131" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>138</v>
@@ -4426,7 +4461,7 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>141</v>
@@ -4434,7 +4469,7 @@
     </row>
     <row r="133" ht="30" spans="8:9">
       <c r="H133" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I133" s="15" t="s">
         <v>144</v>
@@ -4442,15 +4477,15 @@
     </row>
     <row r="134" ht="75" spans="8:9">
       <c r="H134" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="8:9">
       <c r="H135" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I135" s="15" t="s">
         <v>141</v>
@@ -4458,14 +4493,14 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4488,42 +4523,43 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="H65:I65"/>
-    <mergeCell ref="B66:C66"/>
     <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="H86:I86"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="H96:I96"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="L100:M100"/>
-    <mergeCell ref="B104:C104"/>
     <mergeCell ref="H104:I104"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
     <mergeCell ref="H109:I109"/>
     <mergeCell ref="H110:I110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="H115:I115"/>
     <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:C117"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
     <mergeCell ref="H129:I129"/>
     <mergeCell ref="H130:I130"/>
   </mergeCells>
@@ -4573,7 +4609,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4584,7 +4620,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4595,7 +4631,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4606,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4617,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4628,7 +4664,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4639,7 +4675,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4650,18 +4686,18 @@
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -4672,7 +4708,7 @@
         <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4683,7 +4719,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4694,7 +4730,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4705,7 +4741,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4716,7 +4752,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4738,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4749,7 +4785,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -4760,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4771,29 +4807,29 @@
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -4804,7 +4840,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4815,18 +4851,18 @@
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -4837,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
@@ -4848,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
@@ -4859,7 +4895,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
@@ -4870,7 +4906,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4892,7 +4928,7 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4903,7 +4939,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -4911,13 +4947,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4931,7 +4967,7 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4945,7 +4981,7 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5001,19 +5037,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5021,16 +5057,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5038,16 +5074,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:6">

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -455,159 +455,162 @@
     <t>varchar(30)</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>document_type_id</t>
+  </si>
+  <si>
+    <t>professional_licensure_examination</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>m_status</t>
+  </si>
+  <si>
+    <t>enum('May Destino', 'Fulltime')</t>
+  </si>
+  <si>
+    <t>uploaded_by</t>
+  </si>
+  <si>
     <t>INT (FK)</t>
   </si>
   <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>document_type</t>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM ('active', 'expired')</t>
+  </si>
+  <si>
+    <t>personnel_contacts</t>
+  </si>
+  <si>
+    <t>contactype_id</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>gov_id</t>
+  </si>
+  <si>
+    <t>government_issued_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
+  </si>
+  <si>
+    <t>startfrom</t>
+  </si>
+  <si>
+    <t>Professional Licensure Examination</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>disctrict_id</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>gampanin_id</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
   <si>
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>professional_licensure_examination</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>assigned_number</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>m_status</t>
-  </si>
-  <si>
-    <t>enum('May Destino', 'Fulltime')</t>
-  </si>
-  <si>
-    <t>uploaded_by</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>upload_date</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>expiration_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ENUM ('active', 'expired')</t>
-  </si>
-  <si>
-    <t>personnel_contacts</t>
-  </si>
-  <si>
-    <t>contactype_id</t>
-  </si>
-  <si>
-    <t>address_type</t>
-  </si>
-  <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
-    <t>contact_info</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>gov_id</t>
-  </si>
-  <si>
-    <t>government_issued_id</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
-  </si>
-  <si>
-    <t>startfrom</t>
-  </si>
-  <si>
-    <t>Professional Licensure Examination</t>
-  </si>
-  <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>disctrict_id</t>
-  </si>
-  <si>
-    <t>local_id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>gampanin_id</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>languages</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>log_id</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>recurrence</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
     <t>table_name</t>
   </si>
   <si>
@@ -615,9 +618,6 @@
   </si>
   <si>
     <t>record_id</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>old_values</t>
@@ -1513,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,19 +1584,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2149,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72:F72"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="B23 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3372,10 +3363,10 @@
         <v>143</v>
       </c>
       <c r="F54" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>11</v>
@@ -3386,16 +3377,16 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E55" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="F55" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>32</v>
@@ -3409,16 +3400,16 @@
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="F56" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>36</v>
@@ -3432,16 +3423,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="F57" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3575,10 +3566,10 @@
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -3617,10 +3608,10 @@
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="25"/>
       <c r="H70" s="3" t="s">
         <v>32</v>
       </c>
@@ -3705,10 +3696,10 @@
       </c>
     </row>
     <row r="77" spans="5:9">
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
         <v>12</v>
       </c>
@@ -4128,10 +4119,10 @@
       <c r="M105" s="14"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -4172,10 +4163,10 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H109" s="14">
@@ -4292,17 +4283,17 @@
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H118" s="15" t="s">
         <v>188</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" ht="30" spans="2:9">
@@ -4316,34 +4307,34 @@
         <v>191</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" ht="30" spans="8:9">
       <c r="H120" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I120" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C121" s="4"/>
       <c r="H121" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H122" s="15" t="s">
@@ -4376,10 +4367,10 @@
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="32">
+      <c r="B125" s="29">
         <v>24</v>
       </c>
-      <c r="C125" s="33"/>
+      <c r="C125" s="30"/>
       <c r="H125" s="15" t="s">
         <v>198</v>
       </c>
@@ -4388,10 +4379,10 @@
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="26"/>
+      <c r="C126" s="25"/>
       <c r="H126" s="15" t="s">
         <v>199</v>
       </c>
@@ -4464,7 +4455,7 @@
         <v>204</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" ht="30" spans="8:9">
@@ -4472,7 +4463,7 @@
         <v>205</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" ht="75" spans="8:9">
@@ -4488,7 +4479,7 @@
         <v>208</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="8:9">
@@ -4922,10 +4913,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>236</v>
@@ -4933,7 +4924,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -4950,7 +4941,7 @@
         <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16905" windowHeight="11730"/>
+    <workbookView windowWidth="19440" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="254">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -443,154 +443,154 @@
     <t>field_of_study</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>document_id</t>
   </si>
   <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>professional_licensure_examination</t>
+  </si>
+  <si>
+    <t>personnel_type</t>
+  </si>
+  <si>
+    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
+  </si>
+  <si>
+    <t>document_type_id</t>
+  </si>
+  <si>
+    <t>assigned_number</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>m_status</t>
+  </si>
+  <si>
+    <t>enum('May Destino', 'Fulltime')</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>panunumpa_date</t>
+  </si>
+  <si>
+    <t>uploaded_by</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>ordination_date</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM ('active', 'expired')</t>
+  </si>
+  <si>
+    <t>personnel_contacts</t>
+  </si>
+  <si>
+    <t>int(PK)</t>
+  </si>
+  <si>
+    <t>contactype_id</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>gov_id</t>
+  </si>
+  <si>
+    <t>government_issued_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
+  </si>
+  <si>
+    <t>startfrom</t>
+  </si>
+  <si>
+    <t>Professional Licensure Examination</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>disctrict_id</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>gampanin_id</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>gampanin</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
     <t>INT (PK)</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>document_type_id</t>
-  </si>
-  <si>
-    <t>professional_licensure_examination</t>
-  </si>
-  <si>
-    <t>personnel_type</t>
-  </si>
-  <si>
-    <t>enum(Minister, Regular, Ministerial Student, Minister's Wife, Lay Member)</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>assigned_number</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>m_status</t>
-  </si>
-  <si>
-    <t>enum('May Destino', 'Fulltime')</t>
-  </si>
-  <si>
-    <t>uploaded_by</t>
-  </si>
-  <si>
-    <t>INT (FK)</t>
-  </si>
-  <si>
-    <t>panunumpa_date</t>
-  </si>
-  <si>
-    <t>upload_date</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>ordination_date</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>expiration_date</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ENUM ('active', 'expired')</t>
-  </si>
-  <si>
-    <t>personnel_contacts</t>
-  </si>
-  <si>
-    <t>contactype_id</t>
-  </si>
-  <si>
-    <t>address_type</t>
-  </si>
-  <si>
-    <t>int(PK)</t>
-  </si>
-  <si>
-    <t>contact_info</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>gov_id</t>
-  </si>
-  <si>
-    <t>government_issued_id</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>enum(Elementary, Secondary, Senior High School, College Graduate, Undergrad)</t>
-  </si>
-  <si>
-    <t>startfrom</t>
-  </si>
-  <si>
-    <t>Professional Licensure Examination</t>
-  </si>
-  <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>disctrict_id</t>
-  </si>
-  <si>
-    <t>local_id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>gampanin_id</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>languages</t>
-  </si>
-  <si>
-    <t>gampanin</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>log_id</t>
   </si>
   <si>
     <t>location_id</t>
@@ -1513,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,6 +1558,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2140,8 +2143,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="B23 D19"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2516,10 +2519,10 @@
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
       <c r="H19" s="11" t="s">
@@ -2528,10 +2531,10 @@
       <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="20">
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2542,10 +2545,10 @@
       <c r="I20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="20">
         <v>2</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2556,7 +2559,7 @@
       <c r="I21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="20">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2570,7 +2573,7 @@
       <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="20">
         <v>4</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -2584,7 +2587,7 @@
       <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="20">
         <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2598,7 +2601,7 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="20">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -2612,10 +2615,10 @@
       <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="22">
         <v>7</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2634,10 +2637,10 @@
       <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="22">
         <v>8</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2656,7 +2659,7 @@
       <c r="I27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="20">
         <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2685,7 +2688,7 @@
       <c r="I28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="20">
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2714,7 +2717,7 @@
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="20">
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2743,7 +2746,7 @@
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="20">
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2772,7 +2775,7 @@
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="20">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2801,7 +2804,7 @@
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="20">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2830,7 +2833,7 @@
       <c r="I33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="20">
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2853,7 +2856,7 @@
       <c r="I34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="20">
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -2880,7 +2883,7 @@
       <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="20">
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -2907,7 +2910,7 @@
       <c r="I36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="20">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -2936,7 +2939,7 @@
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="20">
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -2965,7 +2968,7 @@
       <c r="I38" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="20">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -2994,7 +2997,7 @@
       <c r="I39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="20">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -3023,7 +3026,7 @@
       <c r="I40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="20">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -3052,7 +3055,7 @@
       <c r="I41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="20">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -3081,7 +3084,7 @@
       <c r="I42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="20">
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -3110,7 +3113,7 @@
       <c r="I43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="20">
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -3139,7 +3142,7 @@
       <c r="I44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="20">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -3168,7 +3171,7 @@
       <c r="I45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="20">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -3314,16 +3317,16 @@
         <v>6</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="H52" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3337,13 +3340,13 @@
         <v>6</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F53" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>11</v>
@@ -3359,14 +3362,14 @@
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>144</v>
+      <c r="E54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>11</v>
@@ -3377,16 +3380,16 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>148</v>
+      <c r="F55" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>32</v>
@@ -3400,15 +3403,15 @@
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="15" t="s">
+      <c r="E56" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>148</v>
       </c>
       <c r="H56" s="11" t="s">
@@ -3423,16 +3426,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>154</v>
+      <c r="F57" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3440,16 +3443,16 @@
         <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>157</v>
+      <c r="E58" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3457,16 +3460,16 @@
         <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>159</v>
+      <c r="E59" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3479,11 +3482,11 @@
       <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>161</v>
+      <c r="E60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3496,62 +3499,56 @@
       <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="15" t="s">
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="2">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="E64" s="14">
+        <v>11</v>
+      </c>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="2">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="E63" s="14">
-        <v>11</v>
-      </c>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="C65" s="4"/>
+      <c r="E65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="F65" s="4"/>
       <c r="H65" s="2">
         <v>16</v>
       </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="6" t="s">
-        <v>14</v>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3560,37 +3557,37 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="3" t="s">
-        <v>165</v>
+      <c r="B67" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>166</v>
+      <c r="E67" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>12</v>
@@ -3599,7 +3596,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="8:9">
+    <row r="69" spans="2:9">
+      <c r="B69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="H69" s="3" t="s">
         <v>81</v>
       </c>
@@ -3607,11 +3616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="25"/>
+    <row r="70" spans="8:9">
       <c r="H70" s="3" t="s">
         <v>32</v>
       </c>
@@ -3619,13 +3624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="71" spans="5:9">
       <c r="E71" s="14">
         <v>12</v>
       </c>
@@ -3637,13 +3636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="72" spans="5:6">
       <c r="E72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3653,7 +3646,7 @@
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="2">
@@ -3674,11 +3667,11 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="24" t="s">
         <v>169</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>5</v>
@@ -3695,9 +3688,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="5:9">
+    <row r="77" spans="2:9">
+      <c r="B77" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="26"/>
       <c r="E77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
@@ -3707,11 +3704,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="5:9">
+    <row r="78" spans="2:9">
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -3721,12 +3724,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="5:9">
-      <c r="E79" s="23" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="23" t="s">
-        <v>169</v>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>32</v>
@@ -3801,10 +3810,10 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>102</v>
@@ -3821,7 +3830,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>6</v>
@@ -3901,10 +3910,10 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>120</v>
@@ -3921,7 +3930,7 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>11</v>
@@ -3940,8 +3949,8 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="17" t="s">
-        <v>175</v>
+      <c r="B94" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>20</v>
@@ -4021,7 +4030,7 @@
         <v>11</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M100" s="4"/>
     </row>
@@ -4047,7 +4056,7 @@
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>6</v>
@@ -4067,7 +4076,7 @@
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>6</v>
@@ -4102,7 +4111,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>91</v>
@@ -4119,20 +4128,20 @@
       <c r="M105" s="14"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C106" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="M106" s="4"/>
     </row>
@@ -4152,21 +4161,21 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H109" s="14">
@@ -4174,7 +4183,7 @@
       </c>
       <c r="I109" s="14"/>
       <c r="L109" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>11</v>
@@ -4218,7 +4227,7 @@
       </c>
       <c r="C112" s="2"/>
       <c r="H112" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>11</v>
@@ -4246,7 +4255,7 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>11</v>
@@ -4270,29 +4279,29 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="H117" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I117" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I117" s="15" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="15" t="s">
+      <c r="C118" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4303,18 +4312,18 @@
       <c r="C119" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="H119" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="120" ht="30" spans="8:9">
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4323,24 +4332,24 @@
         <v>194</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I121" s="15" t="s">
-        <v>141</v>
+      <c r="I121" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="15" t="s">
+      <c r="C122" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4351,42 +4360,42 @@
       <c r="C123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="15" t="s">
-        <v>159</v>
+      <c r="I123" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="8:9">
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="29">
+      <c r="B125" s="30">
         <v>24</v>
       </c>
-      <c r="C125" s="30"/>
-      <c r="H125" s="15" t="s">
+      <c r="C125" s="31"/>
+      <c r="H125" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="H126" s="15" t="s">
+      <c r="C126" s="26"/>
+      <c r="H126" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4397,11 +4406,11 @@
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="15" t="s">
-        <v>159</v>
+      <c r="I127" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="2:3">
@@ -4426,7 +4435,7 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>91</v>
@@ -4441,52 +4450,52 @@
         <v>202</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H131" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H131" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="I131" s="15" t="s">
-        <v>138</v>
+      <c r="I131" s="16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="133" ht="30" spans="8:9">
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="134" ht="75" spans="8:9">
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="135" spans="8:9">
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="8:9">
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4514,17 +4523,17 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B70:C70"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="H74:I74"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="E83:F83"/>
@@ -4682,7 +4691,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -4781,7 +4790,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -4913,10 +4922,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
         <v>236</v>
@@ -4924,7 +4933,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -4941,7 +4950,7 @@
         <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
@@ -4952,7 +4961,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>91</v>
@@ -4966,7 +4975,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>91</v>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="11580"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,9 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2143,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2519,10 +2516,10 @@
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
       <c r="H19" s="11" t="s">
@@ -2531,10 +2528,10 @@
       <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>1</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2545,10 +2542,10 @@
       <c r="I20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <v>2</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2559,7 +2556,7 @@
       <c r="I21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2573,7 +2570,7 @@
       <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>4</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -2587,7 +2584,7 @@
       <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2601,7 +2598,7 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -2615,10 +2612,10 @@
       <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>7</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2637,10 +2634,10 @@
       <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>8</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2659,7 +2656,7 @@
       <c r="I27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2688,7 +2685,7 @@
       <c r="I28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2717,7 +2714,7 @@
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2746,7 +2743,7 @@
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2775,7 +2772,7 @@
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2804,7 +2801,7 @@
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2833,7 +2830,7 @@
       <c r="I33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2856,7 +2853,7 @@
       <c r="I34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -2883,7 +2880,7 @@
       <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -2910,7 +2907,7 @@
       <c r="I36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -2939,7 +2936,7 @@
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -2968,7 +2965,7 @@
       <c r="I38" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="19">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -2997,7 +2994,7 @@
       <c r="I39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="19">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -3026,7 +3023,7 @@
       <c r="I40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="19">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -3055,7 +3052,7 @@
       <c r="I41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="19">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -3084,7 +3081,7 @@
       <c r="I42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="19">
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -3113,7 +3110,7 @@
       <c r="I43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -3142,7 +3139,7 @@
       <c r="I44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -3171,7 +3168,7 @@
       <c r="I45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -3316,10 +3313,10 @@
       <c r="C52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H52" s="11" t="s">
@@ -3339,10 +3336,10 @@
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H53" s="11" t="s">
@@ -3362,13 +3359,13 @@
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="17" t="s">
         <v>142</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -3385,10 +3382,10 @@
       <c r="C55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H55" s="11" t="s">
@@ -3408,10 +3405,10 @@
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>148</v>
       </c>
       <c r="H56" s="11" t="s">
@@ -3431,10 +3428,10 @@
       <c r="C57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3448,10 +3445,10 @@
       <c r="C58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3465,10 +3462,10 @@
       <c r="C59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3482,10 +3479,10 @@
       <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3499,18 +3496,18 @@
       <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3545,10 +3542,10 @@
       <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3603,10 +3600,10 @@
       <c r="C69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="23" t="s">
         <v>168</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -3646,7 +3643,7 @@
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="2">
@@ -3667,10 +3664,10 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="23" t="s">
         <v>168</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3689,10 +3686,10 @@
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="25"/>
       <c r="E77" s="4" t="s">
         <v>170</v>
       </c>
@@ -3714,7 +3711,7 @@
       <c r="E78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -3731,10 +3728,10 @@
       <c r="C79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="23" t="s">
         <v>168</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -3949,7 +3946,7 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>174</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4128,10 +4125,10 @@
       <c r="M105" s="14"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -4172,10 +4169,10 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H109" s="14">
@@ -4284,24 +4281,24 @@
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="I117" s="16" t="s">
+      <c r="I117" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="16" t="s">
+      <c r="C118" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I118" s="16" t="s">
+      <c r="I118" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4312,18 +4309,18 @@
       <c r="C119" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="16" t="s">
+      <c r="I119" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="120" ht="30" spans="8:9">
-      <c r="H120" s="16" t="s">
+      <c r="H120" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I120" s="16" t="s">
+      <c r="I120" s="15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4332,24 +4329,24 @@
         <v>194</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I121" s="16" t="s">
+      <c r="I121" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="16" t="s">
+      <c r="C122" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="16" t="s">
+      <c r="I122" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4360,42 +4357,42 @@
       <c r="C123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="16" t="s">
+      <c r="I123" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124" spans="8:9">
-      <c r="H124" s="16" t="s">
+      <c r="H124" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="16" t="s">
+      <c r="I124" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="30">
+      <c r="B125" s="29">
         <v>24</v>
       </c>
-      <c r="C125" s="31"/>
-      <c r="H125" s="16" t="s">
+      <c r="C125" s="30"/>
+      <c r="H125" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I125" s="16" t="s">
+      <c r="I125" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="26"/>
-      <c r="H126" s="16" t="s">
+      <c r="C126" s="25"/>
+      <c r="H126" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="I126" s="16" t="s">
+      <c r="I126" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4406,10 +4403,10 @@
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="16" t="s">
+      <c r="H127" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="16" t="s">
+      <c r="I127" s="15" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4452,50 +4449,50 @@
       <c r="C131" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="16" t="s">
+      <c r="H131" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I131" s="16" t="s">
+      <c r="I131" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I132" s="16" t="s">
+      <c r="I132" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="133" ht="30" spans="8:9">
-      <c r="H133" s="16" t="s">
+      <c r="H133" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I133" s="16" t="s">
+      <c r="I133" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="134" ht="75" spans="8:9">
-      <c r="H134" s="16" t="s">
+      <c r="H134" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I134" s="16" t="s">
+      <c r="I134" s="15" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="135" spans="8:9">
-      <c r="H135" s="16" t="s">
+      <c r="H135" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="I135" s="16" t="s">
+      <c r="I135" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="8:9">
-      <c r="H136" s="16" t="s">
+      <c r="H136" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I136" s="16" t="s">
+      <c r="I136" s="15" t="s">
         <v>157</v>
       </c>
     </row>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -1513,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,6 +1553,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1565,7 +1574,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2140,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82:K83"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2516,47 +2526,47 @@
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="13" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="22">
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="8:12">
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="22">
         <v>2</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="8:12">
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="22">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2564,13 +2574,13 @@
       </c>
     </row>
     <row r="22" spans="8:12">
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="22">
         <v>4</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -2578,13 +2588,13 @@
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="22">
         <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2592,13 +2602,13 @@
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" t="s">
+      <c r="H24" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="22">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -2606,16 +2616,16 @@
       </c>
     </row>
     <row r="25" spans="8:12">
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="24">
         <v>7</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2628,16 +2638,16 @@
         <v>8</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="24">
         <v>8</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2650,13 +2660,13 @@
         <v>64</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="22">
         <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2679,13 +2689,13 @@
       <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="22">
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2708,13 +2718,13 @@
       <c r="F29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="22">
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2743,7 +2753,7 @@
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="22">
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2766,13 +2776,13 @@
       <c r="F31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="22">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2795,13 +2805,13 @@
       <c r="F32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="13" t="s">
         <v>85</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="22">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2830,7 +2840,7 @@
       <c r="I33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="22">
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2847,13 +2857,13 @@
       <c r="C34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="13" t="s">
         <v>92</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="22">
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -2880,7 +2890,7 @@
       <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="22">
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -2907,7 +2917,7 @@
       <c r="I36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="22">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -2936,7 +2946,7 @@
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="22">
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -2959,13 +2969,13 @@
       <c r="F38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="22">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -2988,13 +2998,13 @@
       <c r="F39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="19">
+      <c r="I39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="22">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -3017,13 +3027,13 @@
       <c r="F40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="22">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -3046,13 +3056,13 @@
       <c r="F41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="19">
+      <c r="I41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="22">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -3075,13 +3085,13 @@
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="19">
+      <c r="I42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="22">
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -3104,13 +3114,13 @@
       <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="19">
+      <c r="I43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="22">
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -3133,13 +3143,13 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="22">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -3162,13 +3172,13 @@
       <c r="F45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="22">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -3191,10 +3201,10 @@
       <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3214,7 +3224,7 @@
       <c r="F47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="13" t="s">
         <v>130</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -3271,11 +3281,11 @@
       <c r="C50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="17">
         <v>10</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="H50" s="11" t="s">
+      <c r="F50" s="17"/>
+      <c r="H50" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -3296,7 +3306,7 @@
         <v>73</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="13" t="s">
         <v>136</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -3319,7 +3329,7 @@
       <c r="F52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="13" t="s">
         <v>138</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -3336,13 +3346,13 @@
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="13" t="s">
         <v>141</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -3359,13 +3369,13 @@
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="20" t="s">
         <v>142</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -3382,10 +3392,10 @@
       <c r="C55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="18" t="s">
         <v>137</v>
       </c>
       <c r="H55" s="11" t="s">
@@ -3405,10 +3415,10 @@
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H56" s="11" t="s">
@@ -3428,10 +3438,10 @@
       <c r="C57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="18" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3445,10 +3455,10 @@
       <c r="C58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="18" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3462,10 +3472,10 @@
       <c r="C59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3479,10 +3489,10 @@
       <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3496,18 +3506,18 @@
       <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="18" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3516,10 +3526,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="E64" s="14">
-        <v>11</v>
-      </c>
-      <c r="F64" s="14"/>
+      <c r="E64" s="17">
+        <v>11</v>
+      </c>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
@@ -3542,10 +3552,10 @@
       <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3600,10 +3610,10 @@
       <c r="C69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="26" t="s">
         <v>168</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -3622,10 +3632,10 @@
       </c>
     </row>
     <row r="71" spans="5:9">
-      <c r="E71" s="14">
+      <c r="E71" s="17">
         <v>12</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="17"/>
       <c r="H71" s="3" t="s">
         <v>36</v>
       </c>
@@ -3643,7 +3653,7 @@
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="2">
@@ -3664,10 +3674,10 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="26" t="s">
         <v>168</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3686,10 +3696,10 @@
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="28"/>
       <c r="E77" s="4" t="s">
         <v>170</v>
       </c>
@@ -3711,7 +3721,7 @@
       <c r="E78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -3728,10 +3738,10 @@
       <c r="C79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="26" t="s">
         <v>168</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -3946,7 +3956,7 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="29" t="s">
         <v>174</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4008,10 +4018,10 @@
       <c r="I99" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="17">
         <v>27</v>
       </c>
-      <c r="M99" s="14"/>
+      <c r="M99" s="17"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
@@ -4119,16 +4129,16 @@
       <c r="I105" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L105" s="14">
+      <c r="L105" s="17">
         <v>28</v>
       </c>
-      <c r="M105" s="14"/>
+      <c r="M105" s="17"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="30" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -4169,16 +4179,16 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="14">
+      <c r="C109" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="17">
         <v>21</v>
       </c>
-      <c r="I109" s="14"/>
+      <c r="I109" s="17"/>
       <c r="L109" s="3" t="s">
         <v>183</v>
       </c>
@@ -4257,10 +4267,10 @@
       <c r="C115" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="17">
         <v>25</v>
       </c>
-      <c r="I115" s="14"/>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
@@ -4281,24 +4291,24 @@
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="H117" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H118" s="15" t="s">
+      <c r="C118" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="18" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4309,18 +4319,18 @@
       <c r="C119" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="H119" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="120" ht="30" spans="8:9">
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="18" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4329,24 +4339,24 @@
         <v>194</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="15" t="s">
+      <c r="C122" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4357,42 +4367,42 @@
       <c r="C123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="15" t="s">
+      <c r="I123" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124" spans="8:9">
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="29">
+      <c r="B125" s="33">
         <v>24</v>
       </c>
-      <c r="C125" s="30"/>
-      <c r="H125" s="15" t="s">
+      <c r="C125" s="34"/>
+      <c r="H125" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="H126" s="15" t="s">
+      <c r="C126" s="28"/>
+      <c r="H126" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="18" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4403,10 +4413,10 @@
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="15" t="s">
+      <c r="I127" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4425,10 +4435,10 @@
       <c r="C129" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="17">
         <v>26</v>
       </c>
-      <c r="I129" s="14"/>
+      <c r="I129" s="17"/>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="3" t="s">
@@ -4449,50 +4459,50 @@
       <c r="C131" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="133" ht="30" spans="8:9">
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="134" ht="75" spans="8:9">
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="135" spans="8:9">
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="8:9">
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="18" t="s">
         <v>157</v>
       </c>
     </row>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="274">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -792,6 +792,66 @@
   </si>
   <si>
     <t>Eric Simbulan</t>
+  </si>
+  <si>
+    <t>Mga dk po atsaka may akay:</t>
+  </si>
+  <si>
+    <t>Luzviminda Gregorio/ Rodylla Garjas</t>
+  </si>
+  <si>
+    <t>Kyla Barrogo/ Teresita Sta. Maria</t>
+  </si>
+  <si>
+    <t>Joel Victoria/ Marcelo Delos Reyes</t>
+  </si>
+  <si>
+    <t>Cristina Facto/ Zaniel Delos Reyes</t>
+  </si>
+  <si>
+    <t>John Carlo Villanueva/ Edmario Reyes</t>
+  </si>
+  <si>
+    <t>Ceferina Malinao/ Grace Ubaldo</t>
+  </si>
+  <si>
+    <t>Clarissa Facto/ Rodylla Garjas</t>
+  </si>
+  <si>
+    <t>Shane Crusio/Rowena Simbulan</t>
+  </si>
+  <si>
+    <t>Lianne Arpon/ Sheanne Garjas</t>
+  </si>
+  <si>
+    <t>Kier Barrogo/ Solomon Garjas</t>
+  </si>
+  <si>
+    <t>Robina Facto/ Marcelo Delos Reyes</t>
+  </si>
+  <si>
+    <t>Jhellen Villarana/ Rebecca Gultian</t>
+  </si>
+  <si>
+    <t>Joshua Villegas/ Marites Sabanal</t>
+  </si>
+  <si>
+    <t>Macy Bolivar/ Tess Sta. Maria</t>
+  </si>
+  <si>
+    <t>Joshua Basister/ Marcelo Delos Reyes</t>
+  </si>
+  <si>
+    <t>Andrea Hao/ Roman Hao</t>
+  </si>
+  <si>
+    <t>Leona Ventura/ Marcelo Delos Reyes</t>
+  </si>
+  <si>
+    <t>Marian Ventura/ Ruzen Delos Reyes</t>
+  </si>
+  <si>
+    <t>Andrea Vizmonte/ Renee Ubaldo</t>
   </si>
 </sst>
 </file>
@@ -1562,9 +1622,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,6 +1645,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2150,8 +2210,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2526,10 +2586,10 @@
       <c r="I18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="8:12">
       <c r="H19" s="13" t="s">
@@ -2538,10 +2598,10 @@
       <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>1</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2552,10 +2612,10 @@
       <c r="I20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>2</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2566,7 +2626,7 @@
       <c r="I21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2580,7 +2640,7 @@
       <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>4</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -2594,7 +2654,7 @@
       <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2608,7 +2668,7 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -2622,10 +2682,10 @@
       <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="23">
         <v>7</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2644,10 +2704,10 @@
       <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="23">
         <v>8</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="24" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2666,7 +2726,7 @@
       <c r="I27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2695,7 +2755,7 @@
       <c r="I28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2724,7 +2784,7 @@
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2747,13 +2807,13 @@
       <c r="F30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2782,7 +2842,7 @@
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2811,7 +2871,7 @@
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2834,13 +2894,13 @@
       <c r="F33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="13" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2863,7 +2923,7 @@
       <c r="I34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -2884,13 +2944,13 @@
         <v>9</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="13" t="s">
         <v>93</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -2911,13 +2971,13 @@
         <v>69</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="13" t="s">
         <v>96</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -2946,7 +3006,7 @@
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -2972,10 +3032,10 @@
       <c r="H38" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3001,10 +3061,10 @@
       <c r="H39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="22">
+      <c r="I39" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="21">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -3030,10 +3090,10 @@
       <c r="H40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -3059,10 +3119,10 @@
       <c r="H41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="22">
+      <c r="I41" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="21">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -3085,13 +3145,13 @@
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="22">
+      <c r="I42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="21">
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -3114,13 +3174,13 @@
       <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="22">
+      <c r="I43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="21">
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -3143,13 +3203,13 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -3172,13 +3232,13 @@
       <c r="F45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -3204,7 +3264,7 @@
       <c r="H46" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3281,10 +3341,10 @@
       <c r="C50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>10</v>
       </c>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16"/>
       <c r="H50" s="13" t="s">
         <v>135</v>
       </c>
@@ -3346,10 +3406,10 @@
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>137</v>
       </c>
       <c r="H53" s="13" t="s">
@@ -3369,13 +3429,13 @@
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -3392,10 +3452,10 @@
       <c r="C55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>137</v>
       </c>
       <c r="H55" s="11" t="s">
@@ -3415,10 +3475,10 @@
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H56" s="11" t="s">
@@ -3438,10 +3498,10 @@
       <c r="C57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3455,10 +3515,10 @@
       <c r="C58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="17" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3472,10 +3532,10 @@
       <c r="C59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3489,10 +3549,10 @@
       <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3506,18 +3566,18 @@
       <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3526,10 +3586,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="E64" s="17">
-        <v>11</v>
-      </c>
-      <c r="F64" s="17"/>
+      <c r="E64" s="16">
+        <v>11</v>
+      </c>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
@@ -3632,10 +3692,10 @@
       </c>
     </row>
     <row r="71" spans="5:9">
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>12</v>
       </c>
-      <c r="F71" s="17"/>
+      <c r="F71" s="16"/>
       <c r="H71" s="3" t="s">
         <v>36</v>
       </c>
@@ -4018,10 +4078,10 @@
       <c r="I99" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L99" s="17">
+      <c r="L99" s="16">
         <v>27</v>
       </c>
-      <c r="M99" s="17"/>
+      <c r="M99" s="16"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
@@ -4129,10 +4189,10 @@
       <c r="I105" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L105" s="17">
+      <c r="L105" s="16">
         <v>28</v>
       </c>
-      <c r="M105" s="17"/>
+      <c r="M105" s="16"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="30" t="s">
@@ -4185,10 +4245,10 @@
       <c r="C109" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="16">
         <v>21</v>
       </c>
-      <c r="I109" s="17"/>
+      <c r="I109" s="16"/>
       <c r="L109" s="3" t="s">
         <v>183</v>
       </c>
@@ -4267,10 +4327,10 @@
       <c r="C115" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="17">
+      <c r="H115" s="16">
         <v>25</v>
       </c>
-      <c r="I115" s="17"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
@@ -4291,10 +4351,10 @@
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="18" t="s">
+      <c r="H117" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I117" s="18" t="s">
+      <c r="I117" s="17" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4305,10 +4365,10 @@
       <c r="C118" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I118" s="18" t="s">
+      <c r="I118" s="17" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4319,18 +4379,18 @@
       <c r="C119" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="18" t="s">
+      <c r="H119" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="18" t="s">
+      <c r="I119" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="120" ht="30" spans="8:9">
-      <c r="H120" s="18" t="s">
+      <c r="H120" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I120" s="18" t="s">
+      <c r="I120" s="17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4339,10 +4399,10 @@
         <v>194</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="H121" s="18" t="s">
+      <c r="H121" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I121" s="18" t="s">
+      <c r="I121" s="17" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4353,10 +4413,10 @@
       <c r="C122" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="18" t="s">
+      <c r="H122" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="18" t="s">
+      <c r="I122" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4367,18 +4427,18 @@
       <c r="C123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H123" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="18" t="s">
+      <c r="I123" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124" spans="8:9">
-      <c r="H124" s="18" t="s">
+      <c r="H124" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="18" t="s">
+      <c r="I124" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4387,10 +4447,10 @@
         <v>24</v>
       </c>
       <c r="C125" s="34"/>
-      <c r="H125" s="18" t="s">
+      <c r="H125" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="I125" s="18" t="s">
+      <c r="I125" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4399,10 +4459,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="28"/>
-      <c r="H126" s="18" t="s">
+      <c r="H126" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="I126" s="18" t="s">
+      <c r="I126" s="17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4413,10 +4473,10 @@
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="18" t="s">
+      <c r="H127" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="18" t="s">
+      <c r="I127" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4435,10 +4495,10 @@
       <c r="C129" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H129" s="17">
+      <c r="H129" s="16">
         <v>26</v>
       </c>
-      <c r="I129" s="17"/>
+      <c r="I129" s="16"/>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="3" t="s">
@@ -4459,50 +4519,50 @@
       <c r="C131" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="I131" s="18" t="s">
+      <c r="I131" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="132" spans="8:9">
-      <c r="H132" s="18" t="s">
+      <c r="H132" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I132" s="18" t="s">
+      <c r="I132" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="133" ht="30" spans="8:9">
-      <c r="H133" s="18" t="s">
+      <c r="H133" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I133" s="18" t="s">
+      <c r="I133" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="134" ht="75" spans="8:9">
-      <c r="H134" s="18" t="s">
+      <c r="H134" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I134" s="18" t="s">
+      <c r="I134" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="135" spans="8:9">
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="I135" s="18" t="s">
+      <c r="I135" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="8:9">
-      <c r="H136" s="18" t="s">
+      <c r="H136" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="I136" s="18" t="s">
+      <c r="I136" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5291,17 +5351,118 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="A3:B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,170 +30,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="284">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
   <si>
+    <t>user_group_mappings</t>
+  </si>
+  <si>
     <t>LDAP_Users</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>login_attempts</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gidNumber</t>
+  </si>
+  <si>
+    <t>personnel_id</t>
+  </si>
+  <si>
+    <t>remote_ip</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>user_groups</t>
+  </si>
+  <si>
+    <t>givenName</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>homeDirectory</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>successfull</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>data:image</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>isLoggedIn</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>available_apps</t>
+  </si>
+  <si>
+    <t>permission_definitions</t>
+  </si>
+  <si>
+    <t>uidNumber</t>
+  </si>
+  <si>
+    <t>auth_type</t>
+  </si>
+  <si>
+    <t>enum('LDAP', 'Local')</t>
+  </si>
+  <si>
+    <t>userPassword</t>
+  </si>
+  <si>
+    <t>failed_atempts</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>last_failed_attempt</t>
+  </si>
+  <si>
+    <t>ldap_group_cn</t>
+  </si>
+  <si>
+    <t>family_members</t>
+  </si>
+  <si>
+    <t>Table List</t>
+  </si>
+  <si>
+    <t>permission_category_mappings</t>
+  </si>
+  <si>
+    <t>relationship_type</t>
+  </si>
+  <si>
+    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
+  </si>
+  <si>
+    <t>LDAP Users</t>
+  </si>
+  <si>
+    <t>givenname</t>
+  </si>
+  <si>
     <t>PMD_Login_Users</t>
   </si>
   <si>
-    <t>login_attempts</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>gidNumber</t>
-  </si>
-  <si>
-    <t>personnel_id</t>
-  </si>
-  <si>
-    <t>bigint(20)</t>
-  </si>
-  <si>
-    <t>remote_ip</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>givenName</t>
-  </si>
-  <si>
-    <t>user_agent</t>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>homeDirectory</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>successfull</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>data:image</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>isLoggedIn</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>last_login</t>
-  </si>
-  <si>
-    <t>available_apps</t>
-  </si>
-  <si>
-    <t>uidNumber</t>
-  </si>
-  <si>
-    <t>auth_type</t>
-  </si>
-  <si>
-    <t>enum('LDAP', 'Local')</t>
-  </si>
-  <si>
-    <t>userPassword</t>
-  </si>
-  <si>
-    <t>failed_atempts</t>
-  </si>
-  <si>
-    <t>app_id</t>
-  </si>
-  <si>
-    <t>last_failed_attempt</t>
-  </si>
-  <si>
-    <t>ldap_group_cn</t>
-  </si>
-  <si>
-    <t>family_members</t>
-  </si>
-  <si>
-    <t>Table List</t>
-  </si>
-  <si>
-    <t>relationship_type</t>
-  </si>
-  <si>
-    <t>enum(Father, Mother, Sibling, Spouse, Child)</t>
-  </si>
-  <si>
-    <t>LDAP Users</t>
-  </si>
-  <si>
-    <t>givenname</t>
+    <t>permission_id</t>
   </si>
   <si>
     <t>middlename</t>
   </si>
   <si>
+    <t>category_id</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -233,6 +260,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>group_permission_mappings</t>
+  </si>
+  <si>
     <t>bigint(20)(PK)</t>
   </si>
   <si>
@@ -284,6 +314,9 @@
     <t>personnel_gov_id</t>
   </si>
   <si>
+    <t>accessrights</t>
+  </si>
+  <si>
     <t>enum('Male', 'Female')</t>
   </si>
   <si>
@@ -594,9 +627,6 @@
   </si>
   <si>
     <t>location_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>recurrence</t>
@@ -864,7 +894,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +935,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1076,7 +1120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,6 +1130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,137 +1493,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,6 +1685,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,13 +1716,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2210,32 +2266,32 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="21.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="2.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="21.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="12.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="2.71296296296296" customWidth="1"/>
+    <col min="5" max="5" width="18.1388888888889" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="19.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="9.28571428571429" customWidth="1"/>
-    <col min="15" max="15" width="12.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="11.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="2.71296296296296" customWidth="1"/>
+    <col min="8" max="8" width="19.1388888888889" customWidth="1"/>
+    <col min="9" max="9" width="11.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="2.28703703703704" customWidth="1"/>
+    <col min="11" max="11" width="19.8611111111111" customWidth="1"/>
+    <col min="12" max="12" width="23.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="11.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="15.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="11.5740740740741" customWidth="1"/>
+    <col min="19" max="19" width="12.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="2:15">
+    <row r="1" ht="28.8" spans="2:15">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2309,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:15">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -2270,423 +2326,533 @@
         <v>4</v>
       </c>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="N2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" ht="15.6" spans="2:15">
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="N3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="2:15">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" ht="15.6" spans="2:15">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="2:15">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:15">
       <c r="B11" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="N11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" ht="15.6" spans="2:15">
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" ht="15.6" spans="2:15">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="2:15">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2">
         <v>15</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="5:9">
+      <c r="N15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15">
+      <c r="H18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="N18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="8:15">
+      <c r="H19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15">
+      <c r="H20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="23">
+        <v>2</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15">
+      <c r="H21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="23">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15">
+      <c r="H22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="23">
+        <v>4</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12">
-      <c r="H18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="N22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="8:15">
+      <c r="H23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="23">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15">
+      <c r="H24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="23">
         <v>6</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="8:12">
-      <c r="H19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="21">
-        <v>1</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12">
-      <c r="H20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="21">
-        <v>2</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12">
-      <c r="H21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12">
-      <c r="H22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="21">
-        <v>4</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12">
-      <c r="H23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="21">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12">
-      <c r="H24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="21">
-        <v>6</v>
-      </c>
       <c r="L24" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12">
+        <v>67</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15">
       <c r="H25" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="23">
+        <v>69</v>
+      </c>
+      <c r="K25" s="25">
         <v>7</v>
       </c>
-      <c r="L25" s="24" t="s">
-        <v>61</v>
+      <c r="L25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2699,154 +2865,182 @@
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="23">
+        <v>69</v>
+      </c>
+      <c r="K26" s="25">
         <v>8</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="2:12">
+      <c r="L26" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="21">
+        <v>75</v>
+      </c>
+      <c r="K27" s="23">
         <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:15">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="21">
+        <v>15</v>
+      </c>
+      <c r="K28" s="23">
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>79</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:15">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="21">
+        <v>9</v>
+      </c>
+      <c r="K29" s="23">
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>83</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="21">
+        <v>9</v>
+      </c>
+      <c r="K30" s="23">
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="21">
+        <v>75</v>
+      </c>
+      <c r="K31" s="23">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2854,28 +3048,28 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="21">
+        <v>15</v>
+      </c>
+      <c r="K32" s="23">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2883,28 +3077,28 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="21">
+        <v>15</v>
+      </c>
+      <c r="K33" s="23">
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2912,22 +3106,22 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="21">
+        <v>15</v>
+      </c>
+      <c r="K34" s="23">
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2935,26 +3129,26 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>9</v>
       </c>
       <c r="F35" s="2"/>
       <c r="H35" s="13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="21">
+        <v>15</v>
+      </c>
+      <c r="K35" s="23">
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2962,26 +3156,26 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="21">
+        <v>9</v>
+      </c>
+      <c r="K36" s="23">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2989,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="21">
+        <v>15</v>
+      </c>
+      <c r="K37" s="23">
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3018,28 +3212,28 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="21">
+        <v>113</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="23">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3047,28 +3241,28 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="21">
+        <v>117</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="23">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3076,28 +3270,28 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="21">
+        <v>120</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="23">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3105,28 +3299,28 @@
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="21">
+        <v>123</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="23">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3134,28 +3328,28 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="21">
+        <v>15</v>
+      </c>
+      <c r="K42" s="23">
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="1:12">
@@ -3163,28 +3357,28 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="21">
+        <v>15</v>
+      </c>
+      <c r="K43" s="23">
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3192,57 +3386,57 @@
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" s="21">
+        <v>75</v>
+      </c>
+      <c r="K44" s="23">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:12">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="21">
+        <v>75</v>
+      </c>
+      <c r="K45" s="23">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3250,22 +3444,22 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>20</v>
+        <v>140</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:9">
@@ -3273,22 +3467,22 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3296,22 +3490,22 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3319,37 +3513,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:9">
       <c r="A50">
         <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E50" s="16">
         <v>10</v>
       </c>
       <c r="F50" s="16"/>
       <c r="H50" s="13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3357,20 +3551,20 @@
         <v>24</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3378,22 +3572,22 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3401,22 +3595,22 @@
         <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3424,22 +3618,22 @@
         <v>27</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3447,22 +3641,22 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3470,22 +3664,22 @@
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3493,16 +3687,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3510,16 +3704,16 @@
         <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3527,16 +3721,16 @@
         <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3544,16 +3738,16 @@
         <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3561,24 +3755,24 @@
         <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" s="17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3593,11 +3787,11 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F65" s="4"/>
       <c r="H65" s="2">
@@ -3607,88 +3801,88 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="5:9">
@@ -3697,24 +3891,24 @@
       </c>
       <c r="F71" s="16"/>
       <c r="H71" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="E72" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="H73" s="2">
         <v>17</v>
@@ -3723,100 +3917,100 @@
     </row>
     <row r="74" spans="5:9">
       <c r="E74" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>168</v>
+      <c r="E75" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="8:9">
       <c r="H76" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="28"/>
+      <c r="B77" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="30"/>
       <c r="E77" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>168</v>
+      <c r="E79" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="8:9">
       <c r="H80" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -3831,26 +4025,26 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H85" s="2">
         <v>18</v>
@@ -3859,182 +4053,182 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="29" t="s">
-        <v>174</v>
+      <c r="B94" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H95" s="2">
         <v>19</v>
@@ -4043,16 +4237,16 @@
     </row>
     <row r="96" spans="8:9">
       <c r="H96" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="8:9">
       <c r="H97" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="2:9">
@@ -4061,22 +4255,22 @@
       </c>
       <c r="C98" s="2"/>
       <c r="H98" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C99" s="4"/>
       <c r="H99" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L99" s="16">
         <v>27</v>
@@ -4085,109 +4279,109 @@
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M100" s="4"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H103">
         <v>20</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I104" s="4"/>
       <c r="L104" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L105" s="16">
         <v>28</v>
@@ -4195,97 +4389,97 @@
       <c r="M105" s="16"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>6</v>
+      <c r="B106" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M106" s="4"/>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>6</v>
+      <c r="B109" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="H109" s="16">
         <v>21</v>
       </c>
       <c r="I109" s="16"/>
       <c r="L109" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="2:13">
       <c r="B110" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I110" s="4"/>
       <c r="L110" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4294,38 +4488,38 @@
       </c>
       <c r="C112" s="2"/>
       <c r="H112" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C113" s="4"/>
       <c r="H113" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H115" s="16">
         <v>25</v>
@@ -4334,166 +4528,166 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" s="32" t="s">
+      <c r="B118" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="I118" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" ht="30" spans="2:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" ht="28.8" spans="2:9">
       <c r="B119" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="120" ht="30" spans="8:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" ht="28.8" spans="8:9">
       <c r="H120" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C121" s="4"/>
       <c r="H121" s="17" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>6</v>
+      <c r="B122" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="8:9">
       <c r="H124" s="17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="33">
+      <c r="B125" s="35">
         <v>24</v>
       </c>
-      <c r="C125" s="34"/>
+      <c r="C125" s="36"/>
       <c r="H125" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" s="28"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" ht="28.8" spans="2:9">
+      <c r="B126" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" s="30"/>
       <c r="H126" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H129" s="16">
         <v>26</v>
@@ -4502,90 +4696,95 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" ht="30" spans="8:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" ht="28.8" spans="8:9">
       <c r="H133" s="17" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" ht="75" spans="8:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" ht="57.6" spans="8:9">
       <c r="H134" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="8:9">
       <c r="H135" s="17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="66">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E50:F50"/>
@@ -4645,368 +4844,368 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="41.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="17.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="10.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="41.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" ht="15" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" ht="15" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" ht="30" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" ht="30" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" ht="30" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" ht="30" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5014,13 +5213,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -5028,13 +5227,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5042,13 +5241,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5056,10 +5255,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -5067,10 +5266,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -5094,29 +5293,29 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="9.57407407407407" customWidth="1"/>
+    <col min="4" max="4" width="11.8611111111111" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="24.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="24.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5124,16 +5323,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5141,16 +5340,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5357,109 +5556,109 @@
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="21.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="284">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -194,7 +194,7 @@
     <t>Table List</t>
   </si>
   <si>
-    <t>permission_category_mappings</t>
+    <t>permission_categories</t>
   </si>
   <si>
     <t>relationship_type</t>
@@ -212,91 +212,91 @@
     <t>PMD_Login_Users</t>
   </si>
   <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>enum(Male, Female)</t>
+  </si>
+  <si>
+    <t>personnels</t>
+  </si>
+  <si>
+    <t>bloodtype</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>personel_contacts</t>
+  </si>
+  <si>
+    <t>civil_status</t>
+  </si>
+  <si>
+    <t>contact_type_info</t>
+  </si>
+  <si>
+    <t>personnel_images</t>
+  </si>
+  <si>
+    <t>date_of_marriage</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>group_permission_mappings</t>
+  </si>
+  <si>
+    <t>bigint(20)(PK)</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
+    <t>personnel_history</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <t>int(FK)</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>personnel_documents</t>
+  </si>
+  <si>
     <t>permission_id</t>
   </si>
   <si>
-    <t>middlename</t>
+    <t>enrollment_progress</t>
+  </si>
+  <si>
+    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>personnel_address</t>
   </si>
   <si>
     <t>category_id</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>enum(Male, Female)</t>
-  </si>
-  <si>
-    <t>personnels</t>
-  </si>
-  <si>
-    <t>bloodtype</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>personel_contacts</t>
-  </si>
-  <si>
-    <t>civil_status</t>
-  </si>
-  <si>
-    <t>contact_type_info</t>
-  </si>
-  <si>
-    <t>personnel_images</t>
-  </si>
-  <si>
-    <t>date_of_marriage</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>group_permission_mappings</t>
-  </si>
-  <si>
-    <t>bigint(20)(PK)</t>
-  </si>
-  <si>
-    <t>place_of_marriage</t>
-  </si>
-  <si>
-    <t>personnel_history</t>
-  </si>
-  <si>
-    <t>reference_number</t>
-  </si>
-  <si>
-    <t>int(FK)</t>
-  </si>
-  <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t>personnel_documents</t>
-  </si>
-  <si>
-    <t>enrollment_progress</t>
-  </si>
-  <si>
-    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>personnel_address</t>
   </si>
   <si>
     <t>personnel_progress</t>
@@ -2267,7 +2267,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="N27" sqref="N27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -2749,15 +2749,15 @@
         <v>59</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="8:15">
       <c r="H21" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>32</v>
@@ -2769,15 +2769,15 @@
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="8:15">
       <c r="H22" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>15</v>
@@ -2789,15 +2789,15 @@
         <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="8:15">
       <c r="H23" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>32</v>
@@ -2809,50 +2809,38 @@
         <v>42</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
       <c r="H24" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K24" s="23">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="8:15">
-      <c r="H25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="K25" s="25">
         <v>7</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2865,41 +2853,41 @@
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="25">
         <v>8</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="23">
+        <v>9</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="23">
-        <v>9</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="O27" s="20"/>
     </row>
@@ -2911,7 +2899,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2920,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>15</v>
@@ -2929,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N28" s="21" t="s">
         <v>10</v>
@@ -2943,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -2952,10 +2940,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>9</v>
@@ -2964,10 +2952,10 @@
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>9</v>
@@ -2978,19 +2966,19 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>9</v>
@@ -2999,10 +2987,10 @@
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>9</v>
@@ -3028,7 +3016,7 @@
         <v>92</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K31" s="23">
         <v>13</v>
@@ -3048,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>95</v>
@@ -3077,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>98</v>
@@ -3162,7 +3150,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="13" t="s">
@@ -3241,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>32</v>
@@ -3262,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3401,7 +3389,7 @@
         <v>135</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K44" s="23">
         <v>26</v>
@@ -3415,22 +3403,22 @@
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>137</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K45" s="23">
         <v>27</v>
@@ -3467,7 +3455,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -3490,7 +3478,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
@@ -3516,7 +3504,7 @@
         <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>144</v>
@@ -3557,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="13" t="s">
@@ -3791,7 +3779,7 @@
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" s="4"/>
       <c r="H65" s="2">
@@ -3951,7 +3939,7 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="30"/>
       <c r="E77" s="4" t="s">
@@ -4200,7 +4188,7 @@
         <v>135</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>40</v>
@@ -4220,7 +4208,7 @@
         <v>137</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="5:9">
@@ -4354,13 +4342,13 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I104" s="4"/>
       <c r="L104" s="3" t="s">
@@ -4408,7 +4396,7 @@
     </row>
     <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>15</v>
@@ -4500,7 +4488,7 @@
       </c>
       <c r="C113" s="4"/>
       <c r="H113" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>15</v>
@@ -4528,7 +4516,7 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>15</v>
@@ -4684,7 +4672,7 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>102</v>
@@ -4853,7 +4841,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4869,7 +4857,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -4880,10 +4868,10 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>221</v>
@@ -4924,7 +4912,7 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -4946,7 +4934,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
@@ -4990,10 +4978,10 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>227</v>
@@ -5001,10 +4989,10 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>228</v>
@@ -5012,10 +5000,10 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>229</v>
@@ -5029,12 +5017,12 @@
         <v>102</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -5045,7 +5033,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -5183,7 +5171,7 @@
         <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12240"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="285">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -239,6 +239,9 @@
     <t>personel_contacts</t>
   </si>
   <si>
+    <t>permission_category_mappings</t>
+  </si>
+  <si>
     <t>civil_status</t>
   </si>
   <si>
@@ -254,109 +257,109 @@
     <t>date</t>
   </si>
   <si>
+    <t>permission_id</t>
+  </si>
+  <si>
+    <t>bigint(20)(PK)</t>
+  </si>
+  <si>
+    <t>place_of_marriage</t>
+  </si>
+  <si>
+    <t>personnel_history</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <t>int(FK)</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>personnel_documents</t>
+  </si>
+  <si>
+    <t>enrollment_progress</t>
+  </si>
+  <si>
+    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>personnel_address</t>
+  </si>
+  <si>
+    <t>personnel_progress</t>
+  </si>
+  <si>
+    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>personnel_gov_id</t>
+  </si>
+  <si>
+    <t>enum('Male', 'Female')</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>educational_background</t>
+  </si>
+  <si>
     <t>group_permission_mappings</t>
   </si>
   <si>
-    <t>bigint(20)(PK)</t>
-  </si>
-  <si>
-    <t>place_of_marriage</t>
-  </si>
-  <si>
-    <t>personnel_history</t>
-  </si>
-  <si>
-    <t>reference_number</t>
-  </si>
-  <si>
-    <t>int(FK)</t>
-  </si>
-  <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t>personnel_documents</t>
-  </si>
-  <si>
-    <t>permission_id</t>
-  </si>
-  <si>
-    <t>enrollment_progress</t>
-  </si>
-  <si>
-    <t>enum(1,2,3,4,5,6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>personnel_address</t>
-  </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>personnel_progress</t>
-  </si>
-  <si>
-    <t>enum(District Office, Section Chief(first_attemp), Enrollment, Security Section, ATG Office, PMD-IT, Personnel Office, Section Chief)</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>personnel_gov_id</t>
+    <t>enum('Single', 'Married', 'Divorced')</t>
+  </si>
+  <si>
+    <t>church_duties</t>
+  </si>
+  <si>
+    <t>work_experience</t>
+  </si>
+  <si>
+    <t>wedding_anniversary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>local_congregation</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>middlname</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>sections</t>
   </si>
   <si>
     <t>accessrights</t>
-  </si>
-  <si>
-    <t>enum('Male', 'Female')</t>
-  </si>
-  <si>
-    <t>contact_number</t>
-  </si>
-  <si>
-    <t>educational_background</t>
-  </si>
-  <si>
-    <t>enum('Single', 'Married', 'Divorced')</t>
-  </si>
-  <si>
-    <t>church_duties</t>
-  </si>
-  <si>
-    <t>work_experience</t>
-  </si>
-  <si>
-    <t>wedding_anniversary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>livelihood</t>
-  </si>
-  <si>
-    <t>local_congregation</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>middlname</t>
-  </si>
-  <si>
-    <t>district_id</t>
-  </si>
-  <si>
-    <t>sections</t>
   </si>
   <si>
     <t>surname_maiden</t>
@@ -1623,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1702,6 +1705,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2267,31 +2276,31 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:O27"/>
+      <selection activeCell="O30" sqref="N25:O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="21.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="12.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="2.71296296296296" customWidth="1"/>
-    <col min="5" max="5" width="18.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="2.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="2.71296296296296" customWidth="1"/>
-    <col min="8" max="8" width="19.1388888888889" customWidth="1"/>
-    <col min="9" max="9" width="11.5740740740741" customWidth="1"/>
-    <col min="10" max="10" width="2.28703703703704" customWidth="1"/>
-    <col min="11" max="11" width="19.8611111111111" customWidth="1"/>
-    <col min="12" max="12" width="23.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="11.5740740740741" customWidth="1"/>
-    <col min="14" max="14" width="15.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="11.5740740740741" customWidth="1"/>
-    <col min="19" max="19" width="12.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="2.28571428571429" customWidth="1"/>
+    <col min="11" max="11" width="19.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="15.447619047619" customWidth="1"/>
+    <col min="15" max="15" width="12.447619047619" customWidth="1"/>
+    <col min="16" max="16" width="11.5714285714286" customWidth="1"/>
+    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="2:15">
+    <row r="1" ht="28.5" spans="2:15">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2340,7 @@
       </c>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" ht="15.6" spans="2:15">
+    <row r="3" ht="15.75" spans="2:15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:15">
+    <row r="4" ht="15.75" spans="2:15">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2452,7 @@
       </c>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" ht="15.6" spans="2:15">
+    <row r="7" ht="15.75" spans="2:15">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:15">
+    <row r="8" ht="15.75" spans="2:15">
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2573,7 +2582,7 @@
       </c>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" ht="15.6" spans="2:15">
+    <row r="12" ht="15.75" spans="2:15">
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
@@ -2597,7 +2606,7 @@
       </c>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="15.6" spans="2:15">
+    <row r="13" ht="15.75" spans="2:15">
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:15">
+    <row r="14" ht="15.75" spans="2:15">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="8:12">
+    <row r="25" spans="8:15">
       <c r="H25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2842,8 +2851,12 @@
       <c r="L25" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="N25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" ht="15.75" spans="2:15">
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -2853,7 +2866,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>67</v>
@@ -2862,7 +2875,13 @@
         <v>8</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:15">
@@ -2871,27 +2890,29 @@
       </c>
       <c r="C27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="23">
+        <v>9</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="23">
-        <v>9</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="O27" s="20"/>
-    </row>
-    <row r="28" ht="15.6" spans="1:15">
+      <c r="N27" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2899,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2908,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>15</v>
@@ -2917,21 +2938,21 @@
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:15">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -2940,10 +2961,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>9</v>
@@ -2952,13 +2973,13 @@
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2966,19 +2987,19 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>9</v>
@@ -2987,16 +3008,16 @@
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>92</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31" s="23">
         <v>13</v>
@@ -3024,14 +3045,8 @@
       <c r="L31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>36</v>
@@ -3048,7 +3063,7 @@
         <v>37</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>15</v>
@@ -3057,15 +3072,19 @@
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:15">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>98</v>
@@ -3088,8 +3107,14 @@
       <c r="L33" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="N33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:15">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3111,8 +3136,14 @@
       <c r="L34" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="N34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3138,8 +3169,14 @@
       <c r="L35" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="N35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3150,7 +3187,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="13" t="s">
@@ -3165,13 +3202,19 @@
       <c r="L36" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="N36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -3183,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>15</v>
@@ -3192,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3200,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -3212,16 +3255,16 @@
         <v>9</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="27" t="s">
         <v>114</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="K38" s="23">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3235,22 +3278,22 @@
         <v>32</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="23">
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3258,28 +3301,28 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="29" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="23">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3293,22 +3336,22 @@
         <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="23">
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3316,19 +3359,19 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>15</v>
@@ -3337,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="1:12">
@@ -3345,19 +3388,19 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>15</v>
@@ -3366,7 +3409,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3374,31 +3417,31 @@
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K44" s="23">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="1:12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:12">
       <c r="A45">
         <v>18</v>
       </c>
@@ -3409,22 +3452,22 @@
         <v>67</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45" s="23">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3432,21 +3475,21 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3455,7 +3498,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -3467,10 +3510,10 @@
         <v>37</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3478,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
@@ -3490,7 +3533,7 @@
         <v>37</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>9</v>
@@ -3501,24 +3544,24 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:9">
+    <row r="50" customHeight="1" spans="1:9">
       <c r="A50">
         <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
@@ -3528,7 +3571,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="H50" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>15</v>
@@ -3539,17 +3582,17 @@
         <v>24</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>15</v>
@@ -3560,7 +3603,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
@@ -3569,13 +3612,13 @@
         <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3589,13 +3632,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>15</v>
@@ -3615,10 +3658,10 @@
         <v>18</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>15</v>
@@ -3629,16 +3672,16 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>36</v>
@@ -3652,16 +3695,16 @@
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>40</v>
@@ -3675,16 +3718,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3692,16 +3735,16 @@
         <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3709,16 +3752,16 @@
         <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3735,7 +3778,7 @@
         <v>25</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3749,18 +3792,18 @@
         <v>37</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3775,11 +3818,11 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="4"/>
       <c r="H65" s="2">
@@ -3794,10 +3837,10 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3822,18 +3865,18 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
@@ -3847,16 +3890,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="28" t="s">
-        <v>179</v>
+      <c r="F69" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>91</v>
@@ -3895,7 +3938,7 @@
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="2">
@@ -3916,11 +3959,11 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>179</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>8</v>
@@ -3931,19 +3974,19 @@
     </row>
     <row r="76" spans="8:9">
       <c r="H76" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="30"/>
+      <c r="B77" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="32"/>
       <c r="E77" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
@@ -3963,7 +4006,7 @@
       <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -3980,11 +4023,11 @@
       <c r="C79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="28" t="s">
-        <v>179</v>
+      <c r="F79" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>36</v>
@@ -4013,7 +4056,7 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -4053,22 +4096,22 @@
         <v>9</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>8</v>
@@ -4079,19 +4122,19 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>9</v>
@@ -4099,19 +4142,19 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>9</v>
@@ -4119,13 +4162,13 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
@@ -4139,13 +4182,13 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
@@ -4159,13 +4202,13 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
@@ -4179,16 +4222,16 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>40</v>
@@ -4198,22 +4241,22 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="31" t="s">
-        <v>185</v>
+      <c r="B94" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>24</v>
@@ -4225,7 +4268,7 @@
     </row>
     <row r="96" spans="8:9">
       <c r="H96" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I96" s="4"/>
     </row>
@@ -4243,7 +4286,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="H98" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>9</v>
@@ -4251,11 +4294,11 @@
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C99" s="4"/>
       <c r="H99" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>9</v>
@@ -4279,7 +4322,7 @@
         <v>15</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M100" s="4"/>
     </row>
@@ -4305,7 +4348,7 @@
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>9</v>
@@ -4325,7 +4368,7 @@
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>9</v>
@@ -4342,13 +4385,13 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I104" s="4"/>
       <c r="L104" s="3" t="s">
@@ -4360,7 +4403,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>102</v>
@@ -4377,26 +4420,26 @@
       <c r="M105" s="16"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="32" t="s">
+      <c r="B106" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M106" s="4"/>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>15</v>
@@ -4410,21 +4453,21 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H109" s="16">
@@ -4432,7 +4475,7 @@
       </c>
       <c r="I109" s="16"/>
       <c r="L109" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>15</v>
@@ -4446,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I110" s="4"/>
       <c r="L110" s="3" t="s">
@@ -4476,7 +4519,7 @@
       </c>
       <c r="C112" s="2"/>
       <c r="H112" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>15</v>
@@ -4484,11 +4527,11 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" s="4"/>
       <c r="H113" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>15</v>
@@ -4504,7 +4547,7 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>15</v>
@@ -4516,90 +4559,90 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C118" s="34" t="s">
+      <c r="B118" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="36" t="s">
         <v>9</v>
       </c>
       <c r="H118" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" ht="28.8" spans="2:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" ht="30" spans="2:9">
       <c r="B119" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="120" ht="28.8" spans="8:9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" ht="30" spans="8:9">
       <c r="H120" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I120" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C121" s="4"/>
       <c r="H121" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="36" t="s">
         <v>9</v>
       </c>
       <c r="H122" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -4613,39 +4656,39 @@
         <v>25</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="8:9">
       <c r="H124" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="35">
+      <c r="B125" s="37">
         <v>24</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="38"/>
       <c r="H125" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I125" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="I125" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="126" ht="28.8" spans="2:9">
-      <c r="B126" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" s="30"/>
+    </row>
+    <row r="126" ht="30" spans="2:9">
+      <c r="B126" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="32"/>
       <c r="H126" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="2:9">
@@ -4659,12 +4702,12 @@
         <v>23</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>15</v>
@@ -4672,7 +4715,7 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>102</v>
@@ -4684,72 +4727,72 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" ht="28.8" spans="8:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" ht="30" spans="8:9">
       <c r="H133" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="134" ht="57.6" spans="8:9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" ht="75" spans="8:9">
       <c r="H134" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="8:9">
       <c r="H135" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4768,11 +4811,12 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N25:O25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N32:O32"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E50:F50"/>
@@ -4832,21 +4876,21 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="10.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="41.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="41.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:3">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:3">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -4855,29 +4899,29 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -4885,10 +4929,10 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -4896,10 +4940,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
@@ -4907,10 +4951,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4918,21 +4962,21 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -4940,21 +4984,21 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -4962,21 +5006,21 @@
         <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
@@ -4984,10 +5028,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -4995,21 +5039,21 @@
         <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -5017,76 +5061,76 @@
         <v>102</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -5094,10 +5138,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>107</v>
       </c>
@@ -5105,95 +5149,95 @@
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" ht="28.8" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" ht="28.8" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" ht="28.8" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5201,13 +5245,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -5215,13 +5259,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5229,13 +5273,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5281,29 +5325,29 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="9.57407407407407" customWidth="1"/>
-    <col min="4" max="4" width="11.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="24.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="24.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5311,16 +5355,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5328,16 +5372,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5544,109 +5588,109 @@
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.8611111111111" customWidth="1"/>
+    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -1123,7 +1123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1508,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1526,16 +1532,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1544,89 +1550,89 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,10 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2275,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O30" sqref="N25:O30"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2854,7 +2857,7 @@
       <c r="N25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="28"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" ht="15.75" spans="2:15">
       <c r="B26" s="2">
@@ -3257,7 +3260,7 @@
       <c r="H38" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
         <v>115</v>
       </c>
       <c r="K38" s="23">
@@ -3286,7 +3289,7 @@
       <c r="H39" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="23">
@@ -3315,7 +3318,7 @@
       <c r="H40" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="28" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="23">
@@ -3344,7 +3347,7 @@
       <c r="H41" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I41" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="23">
@@ -3489,7 +3492,7 @@
       <c r="H46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3837,10 +3840,10 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -3895,10 +3898,10 @@
       <c r="C69" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -3938,7 +3941,7 @@
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="2">
@@ -3959,10 +3962,10 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3981,10 +3984,10 @@
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="31"/>
       <c r="E77" s="4" t="s">
         <v>182</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -4023,10 +4026,10 @@
       <c r="C79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -4241,7 +4244,7 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="32" t="s">
         <v>186</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4420,10 +4423,10 @@
       <c r="M105" s="16"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -4464,10 +4467,10 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H109" s="16">
@@ -4584,10 +4587,10 @@
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H118" s="17" t="s">
@@ -4632,10 +4635,10 @@
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H122" s="17" t="s">
@@ -4668,10 +4671,10 @@
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="37">
+      <c r="B125" s="36">
         <v>24</v>
       </c>
-      <c r="C125" s="38"/>
+      <c r="C125" s="37"/>
       <c r="H125" s="17" t="s">
         <v>209</v>
       </c>
@@ -4680,10 +4683,10 @@
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="32"/>
+      <c r="C126" s="31"/>
       <c r="H126" s="17" t="s">
         <v>210</v>
       </c>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="282">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -647,12 +647,12 @@
     <t>table_name</t>
   </si>
   <si>
+    <t>record_id</t>
+  </si>
+  <si>
     <t>locations</t>
   </si>
   <si>
-    <t>record_id</t>
-  </si>
-  <si>
     <t>old_values</t>
   </si>
   <si>
@@ -671,28 +671,19 @@
     <t>title</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>reminder_date</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
-    <t>role_permission_id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>permission_type</t>
-  </si>
-  <si>
-    <t>ENUM ('view', 'edit', 'delete', 'create')</t>
-  </si>
-  <si>
-    <t>granted_by</t>
-  </si>
-  <si>
-    <t>granted_date</t>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>created_by</t>
   </si>
   <si>
     <t>auto generated itong reference number ang format ay date + personnel_id example = 11032024_1</t>
@@ -1123,7 +1114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,12 +1136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,7 +1493,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1532,16 +1517,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1550,89 +1535,89 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1712,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,6 +1727,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2276,10 +2273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F16"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4614,7 +4611,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" ht="30" spans="8:9">
+    <row r="120" ht="30" spans="2:9">
+      <c r="B120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H120" s="17" t="s">
         <v>204</v>
       </c>
@@ -4623,24 +4626,20 @@
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="H121" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="I121" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>9</v>
-      </c>
+    <row r="122" spans="8:9">
       <c r="H122" s="17" t="s">
         <v>37</v>
       </c>
@@ -4649,12 +4648,10 @@
       </c>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B123" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="4"/>
       <c r="H123" s="17" t="s">
         <v>25</v>
       </c>
@@ -4662,7 +4659,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="2:9">
+      <c r="B124" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="H124" s="17" t="s">
         <v>207</v>
       </c>
@@ -4671,10 +4674,12 @@
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="36">
-        <v>24</v>
-      </c>
-      <c r="C125" s="37"/>
+      <c r="B125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H125" s="17" t="s">
         <v>209</v>
       </c>
@@ -4683,10 +4688,12 @@
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
-      <c r="B126" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" s="31"/>
+      <c r="B126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H126" s="17" t="s">
         <v>210</v>
       </c>
@@ -4696,10 +4703,10 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="H127" s="17" t="s">
         <v>23</v>
@@ -4708,94 +4715,108 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H129" s="16">
-        <v>26</v>
-      </c>
-      <c r="I129" s="16"/>
+      <c r="B129" s="36">
+        <v>24</v>
+      </c>
+      <c r="C129" s="37"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I130" s="4"/>
+      <c r="B130" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="31"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H131" s="17" t="s">
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="I131" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="132" spans="8:9">
-      <c r="H132" s="17" t="s">
+      <c r="C134" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I132" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" ht="30" spans="8:9">
-      <c r="H133" s="17" t="s">
+      <c r="C136" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I133" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="134" ht="75" spans="8:9">
-      <c r="H134" s="17" t="s">
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="I134" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="135" spans="8:9">
-      <c r="H135" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="8:9">
-      <c r="H136" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="I136" s="17" t="s">
-        <v>169</v>
+      <c r="C137" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="66">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -4858,11 +4879,10 @@
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="H115:I115"/>
     <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B129:C129"/>
     <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4910,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4921,7 +4941,7 @@
         <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4932,7 +4952,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4943,7 +4963,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4954,7 +4974,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4965,7 +4985,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4976,7 +4996,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4987,7 +5007,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -4998,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -5009,7 +5029,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5020,7 +5040,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5031,7 +5051,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5042,7 +5062,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5053,7 +5073,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5075,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5086,7 +5106,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -5097,7 +5117,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -5108,29 +5128,29 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -5141,7 +5161,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -5152,18 +5172,18 @@
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
@@ -5174,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
@@ -5185,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
@@ -5196,7 +5216,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
@@ -5207,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5229,7 +5249,7 @@
         <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5240,7 +5260,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5248,13 +5268,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -5268,7 +5288,7 @@
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5282,7 +5302,7 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5338,19 +5358,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5358,16 +5378,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5375,16 +5395,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5598,102 +5618,102 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11730"/>
+    <workbookView windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1617,7 +1617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,9 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2275,8 +2272,8 @@
   <sheetPr/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4752,7 +4749,7 @@
       <c r="I132" s="40"/>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="41" t="s">
+      <c r="B133" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -4762,7 +4759,7 @@
       <c r="I133" s="40"/>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -4792,10 +4789,10 @@
       <c r="I136" s="40"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C137" s="41" t="s">
+      <c r="C137" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/documentation/PMD Table Structure.xlsx
+++ b/documentation/PMD Table Structure.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowWidth="18345" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="283">
   <si>
     <t>PMD Personnel Apps Table Structure</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>middlename</t>
+  </si>
+  <si>
+    <t>sdfdfd</t>
   </si>
   <si>
     <t>lastname</t>
@@ -1745,7 +1748,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -2272,8 +2275,8 @@
   <sheetPr/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2781,9 +2784,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="8:15">
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>15</v>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="23" spans="8:15">
       <c r="H23" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>32</v>
@@ -2823,33 +2829,33 @@
     </row>
     <row r="24" spans="8:12">
       <c r="H24" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K24" s="23">
         <v>6</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="8:15">
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K25" s="25">
         <v>7</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O25" s="27"/>
     </row>
@@ -2863,16 +2869,16 @@
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K26" s="25">
         <v>8</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N26" s="21" t="s">
         <v>8</v>
@@ -2883,27 +2889,27 @@
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="23">
+        <v>9</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="23">
-        <v>9</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="N27" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>9</v>
@@ -2917,7 +2923,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2926,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>15</v>
@@ -2935,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>9</v>
@@ -2949,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -2958,10 +2964,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>9</v>
@@ -2970,7 +2976,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>36</v>
@@ -2984,19 +2990,19 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>9</v>
@@ -3005,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>40</v>
@@ -3019,28 +3025,28 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31" s="23">
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3048,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>36</v>
@@ -3060,7 +3066,7 @@
         <v>37</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>15</v>
@@ -3069,10 +3075,10 @@
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="20"/>
     </row>
@@ -3081,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>40</v>
@@ -3093,7 +3099,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>15</v>
@@ -3102,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N33" s="21" t="s">
         <v>10</v>
@@ -3116,13 +3122,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>15</v>
@@ -3134,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>9</v>
@@ -3155,7 +3161,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="H35" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>15</v>
@@ -3164,10 +3170,10 @@
         <v>17</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>9</v>
@@ -3178,17 +3184,17 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>9</v>
@@ -3197,10 +3203,10 @@
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>9</v>
@@ -3211,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -3223,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>15</v>
@@ -3232,7 +3238,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3240,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -3252,16 +3258,16 @@
         <v>9</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38" s="23">
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3269,19 +3275,19 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>15</v>
@@ -3290,7 +3296,7 @@
         <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3298,19 +3304,19 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>24</v>
@@ -3319,7 +3325,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3327,19 +3333,19 @@
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>15</v>
@@ -3348,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3356,19 +3362,19 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>15</v>
@@ -3377,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="1:12">
@@ -3385,19 +3391,19 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>15</v>
@@ -3406,7 +3412,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3414,28 +3420,28 @@
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44" s="23">
         <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:12">
@@ -3443,28 +3449,28 @@
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K45" s="23">
         <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3472,19 +3478,19 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>24</v>
@@ -3495,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -3507,10 +3513,10 @@
         <v>37</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3518,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
@@ -3530,7 +3536,7 @@
         <v>37</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>9</v>
@@ -3541,13 +3547,13 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>9</v>
@@ -3558,7 +3564,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
@@ -3568,7 +3574,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="H50" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>15</v>
@@ -3579,17 +3585,17 @@
         <v>24</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>15</v>
@@ -3600,7 +3606,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
@@ -3609,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3623,19 +3629,19 @@
         <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>15</v>
@@ -3646,7 +3652,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>15</v>
@@ -3655,10 +3661,10 @@
         <v>18</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>15</v>
@@ -3669,16 +3675,16 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>36</v>
@@ -3692,16 +3698,16 @@
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>40</v>
@@ -3715,16 +3721,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3732,16 +3738,16 @@
         <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3749,16 +3755,16 @@
         <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3775,7 +3781,7 @@
         <v>25</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3789,18 +3795,18 @@
         <v>37</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3815,11 +3821,11 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F65" s="4"/>
       <c r="H65" s="2">
@@ -3841,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I66" s="4"/>
     </row>
@@ -3862,18 +3868,18 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
@@ -3887,19 +3893,19 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>35</v>
@@ -3927,7 +3933,7 @@
     </row>
     <row r="72" spans="5:6">
       <c r="E72" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F72" s="4"/>
     </row>
@@ -3951,16 +3957,16 @@
         <v>9</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>8</v>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="76" spans="8:9">
       <c r="H76" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>9</v>
@@ -3979,11 +3985,11 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="31"/>
       <c r="E77" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F77" s="4"/>
       <c r="H77" s="3" t="s">
@@ -4007,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>35</v>
@@ -4024,7 +4030,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>36</v>
@@ -4053,11 +4059,11 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -4093,22 +4099,22 @@
         <v>9</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>8</v>
@@ -4119,19 +4125,19 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>9</v>
@@ -4139,19 +4145,19 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>9</v>
@@ -4159,13 +4165,13 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
@@ -4179,19 +4185,19 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>35</v>
@@ -4199,13 +4205,13 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
@@ -4219,16 +4225,16 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>40</v>
@@ -4239,21 +4245,21 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>24</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="96" spans="8:9">
       <c r="H96" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I96" s="4"/>
     </row>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="H98" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>9</v>
@@ -4291,11 +4297,11 @@
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="4"/>
       <c r="H99" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>9</v>
@@ -4319,7 +4325,7 @@
         <v>15</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M100" s="4"/>
     </row>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>9</v>
@@ -4365,7 +4371,7 @@
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>9</v>
@@ -4382,13 +4388,13 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I104" s="4"/>
       <c r="L104" s="3" t="s">
@@ -4400,10 +4406,10 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>8</v>
@@ -4418,25 +4424,25 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M106" s="4"/>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>15</v>
@@ -4450,11 +4456,11 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>15</v>
@@ -4472,7 +4478,7 @@
       </c>
       <c r="I109" s="16"/>
       <c r="L109" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>15</v>
@@ -4486,7 +4492,7 @@
         <v>15</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I110" s="4"/>
       <c r="L110" s="3" t="s">
@@ -4516,7 +4522,7 @@
       </c>
       <c r="C112" s="2"/>
       <c r="H112" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>15</v>
@@ -4524,11 +4530,11 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C113" s="4"/>
       <c r="H113" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>15</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>15</v>
@@ -4556,33 +4562,33 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>9</v>
@@ -4591,21 +4597,21 @@
         <v>6</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" ht="30" spans="2:9">
       <c r="B119" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" ht="30" spans="2:9">
@@ -4616,10 +4622,10 @@
         <v>37</v>
       </c>
       <c r="H120" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -4630,10 +4636,10 @@
         <v>37</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="8:9">
@@ -4641,19 +4647,19 @@
         <v>37</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C123" s="4"/>
       <c r="H123" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -4664,10 +4670,10 @@
         <v>9</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -4678,10 +4684,10 @@
         <v>15</v>
       </c>
       <c r="H125" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I125" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="I125" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="126" ht="30" spans="2:9">
@@ -4692,10 +4698,10 @@
         <v>37</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="2:9">
@@ -4709,7 +4715,7 @@
         <v>23</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="2:9">
@@ -4722,7 +4728,7 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C130" s="31"/>
       <c r="H130" s="39"/>
@@ -4740,7 +4746,7 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -4753,44 +4759,44 @@
         <v>25</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H133" s="40"/>
       <c r="I133" s="40"/>
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H134" s="40"/>
       <c r="I134" s="40"/>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H135" s="40"/>
       <c r="I135" s="40"/>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H136" s="40"/>
       <c r="I136" s="40"/>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>9</v>
@@ -4905,7 +4911,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4921,35 +4927,35 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4960,304 +4966,304 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5265,13 +5271,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -5279,13 +5285,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5293,13 +5299,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5355,19 +5361,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5375,16 +5381,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5392,16 +5398,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5615,102 +5621,102 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
